--- a/src_files/data_files/industrialCHP.xlsx
+++ b/src_files/data_files/industrialCHP.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBFAD02-ED28-4D74-AFBF-9D9EAE2A31BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4323FB8-F312-4A27-973F-DD0071731573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="799" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="799" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="8" r:id="rId1"/>
     <sheet name="remove_units" sheetId="9" r:id="rId2"/>
     <sheet name="demanddata" sheetId="7" r:id="rId3"/>
-    <sheet name="Summary" sheetId="4" r:id="rId4"/>
-    <sheet name="H2Heavy, capacities" sheetId="1" r:id="rId5"/>
-    <sheet name="H2Heavy, demands" sheetId="2" r:id="rId6"/>
-    <sheet name="TYNDP2024" sheetId="6" r:id="rId7"/>
-    <sheet name="Eurostat" sheetId="5" r:id="rId8"/>
-    <sheet name="source" sheetId="3" r:id="rId9"/>
+    <sheet name="storagedata" sheetId="10" r:id="rId4"/>
+    <sheet name="Summary" sheetId="4" r:id="rId5"/>
+    <sheet name="H2Heavy, capacities" sheetId="1" r:id="rId6"/>
+    <sheet name="H2Heavy, demands" sheetId="2" r:id="rId7"/>
+    <sheet name="TYNDP2024" sheetId="6" r:id="rId8"/>
+    <sheet name="Eurostat" sheetId="5" r:id="rId9"/>
+    <sheet name="source" sheetId="3" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">storagedata!$A$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="128">
   <si>
     <t>Country</t>
   </si>
@@ -435,6 +439,21 @@
   </si>
   <si>
     <t>unit_name_prefix</t>
+  </si>
+  <si>
+    <t>upwardLimit</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>balancePenalty</t>
+  </si>
+  <si>
+    <t>selfDischargeLoss</t>
+  </si>
+  <si>
+    <t>maxSpill</t>
   </si>
 </sst>
 </file>
@@ -446,7 +465,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.##########"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +569,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -718,7 +744,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -848,6 +874,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,7 +894,7 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{B922DAB1-96BE-4C47-ACB7-A4E9C8932980}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -876,6 +915,55 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1130,18 +1218,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20DC892E-7082-4467-928B-8F4B2C671031}" name="Table1" displayName="Table1" ref="A1:I28" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53CAE17E-E130-454C-A23D-D1F2C5367D34}" name="Table2" displayName="Table2" ref="A1:J22" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:J22" xr:uid="{618B6211-7040-488C-9F85-846A32BD1FFB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
+    <sortCondition ref="B1:B22"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{FD66C488-929A-4E40-97B9-698BE28209C7}" name="Country" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{04387B0B-A6A1-47CC-82EB-6B34AE82821B}" name="Grid"/>
+    <tableColumn id="3" xr3:uid="{57483FE3-C6A9-426F-9DF7-4926168CE122}" name="Node_suffix"/>
+    <tableColumn id="4" xr3:uid="{F155858A-1910-4203-8242-FCFC753CE0F1}" name="Scenario" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{2976D6D8-21B5-4358-9605-474352CC3FAF}" name="Year" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{894F3647-7759-4FB2-B8B6-24582E443654}" name="upwardLimit" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{622B05A3-F0D0-4BEE-B5E5-8AA1239444AE}" name="reference" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FB556C05-FAE9-43E0-9FC0-D26AB24EC6BC}" name="balancePenalty" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{7EAD7D20-CDA2-446F-BC00-8EC30C32C13B}" name="selfDischargeLoss" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{078F1241-6AF8-480F-897B-1DA7DB1520F6}" name="maxSpill" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20DC892E-7082-4467-928B-8F4B2C671031}" name="Table1" displayName="Table1" ref="A1:I28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A1:I28" xr:uid="{20DC892E-7082-4467-928B-8F4B2C671031}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{90B3BA90-E856-467E-A12E-718C92D72014}" name="Country" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{47E364C8-C977-4369-A805-4B42B4F3422D}" name="Generator_ID" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D50F5294-47D2-4C56-800B-3E44FF430FA7}" name="Scenario" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{649C99FE-77E1-437E-9EDE-D888843F1482}" name="Year" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{1A49AF74-6C24-40D6-B37A-D2ADAB4DE02B}" name="capacity_input1" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F30D702A-E7C4-4705-81A5-A391EA397049}" name="capacity_output1" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{B74AC38E-95FA-433D-B521-50231B26F101}" name="node_suffix_output2" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{2E1D1700-DA32-4625-8DFD-E756415F2202}" name="capacity_output2" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{89275BD6-4B5C-4E77-BA1F-FF40DDEF4E2A}" name="Note" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{90B3BA90-E856-467E-A12E-718C92D72014}" name="Country" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{47E364C8-C977-4369-A805-4B42B4F3422D}" name="Generator_ID" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{D50F5294-47D2-4C56-800B-3E44FF430FA7}" name="Scenario" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{649C99FE-77E1-437E-9EDE-D888843F1482}" name="Year" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{1A49AF74-6C24-40D6-B37A-D2ADAB4DE02B}" name="capacity_input1" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{F30D702A-E7C4-4705-81A5-A391EA397049}" name="capacity_output1" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{B74AC38E-95FA-433D-B521-50231B26F101}" name="node_suffix_output2" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{2E1D1700-DA32-4625-8DFD-E756415F2202}" name="capacity_output2" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{89275BD6-4B5C-4E77-BA1F-FF40DDEF4E2A}" name="Note" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2628,6 +2738,26 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B09C0C-DE72-4694-9C81-3F315378B707}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DC1340-3E97-4D2C-954C-BCE3B932444C}">
   <sheetPr>
@@ -2635,7 +2765,7 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -2942,7 +3072,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D2" sqref="D2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,6 +3541,543 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5A18FE-1243-432E-8A1A-21317EE02799}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="58"/>
+    <col min="2" max="3" width="19.7109375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="60"/>
+    <col min="6" max="6" width="16.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5703125" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="66">
+        <v>1</v>
+      </c>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="60">
+        <v>1</v>
+      </c>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="60">
+        <v>1</v>
+      </c>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="60">
+        <v>1</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="60">
+        <v>1</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="60">
+        <v>1</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="60">
+        <v>1</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="60">
+        <v>1</v>
+      </c>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="60">
+        <v>1</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="60">
+        <v>1</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="60">
+        <v>1</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="60">
+        <v>1</v>
+      </c>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="60">
+        <v>1</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="60">
+        <v>1</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="60">
+        <v>1</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="60">
+        <v>1</v>
+      </c>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="60">
+        <v>1</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="60">
+        <v>1</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="60">
+        <v>1</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="60">
+        <v>1</v>
+      </c>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67">
+        <v>4000</v>
+      </c>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="63"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942E5AC9-3C1B-4FDD-828A-AC7EBE9C8D91}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -5518,7 +6185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -6313,7 +6980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87F8DD7-3640-46A5-BBAB-0B6256890B28}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -6646,7 +7313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21420AE7-C1DE-45D2-B734-1504B0A55513}">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -7250,7 +7917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF1E2CA-F2CE-4C62-89A9-2315CD87B914}">
   <dimension ref="A2:Q60"/>
   <sheetViews>
@@ -9738,24 +10405,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B09C0C-DE72-4694-9C81-3F315378B707}">
-  <dimension ref="B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src_files/data_files/industrialCHP.xlsx
+++ b/src_files/data_files/industrialCHP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4323FB8-F312-4A27-973F-DD0071731573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4FED61-6695-46C9-A9EB-EBA58AB31543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="799" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="8" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="130">
   <si>
     <t>Country</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>maxSpill</t>
+  </si>
+  <si>
+    <t>National Trends</t>
+  </si>
+  <si>
+    <t>CH00</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.##########"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,8 +583,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,8 +676,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -737,6 +761,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -744,7 +792,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -879,14 +927,31 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,7 +959,7 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{B922DAB1-96BE-4C47-ACB7-A4E9C8932980}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -917,53 +982,11 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1204,6 +1227,55 @@
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1218,40 +1290,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53CAE17E-E130-454C-A23D-D1F2C5367D34}" name="Table2" displayName="Table2" ref="A1:J22" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:J22" xr:uid="{618B6211-7040-488C-9F85-846A32BD1FFB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
-    <sortCondition ref="B1:B22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53CAE17E-E130-454C-A23D-D1F2C5367D34}" name="Table2" displayName="Table2" ref="A1:J23" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="A1:J23" xr:uid="{618B6211-7040-488C-9F85-846A32BD1FFB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
+    <sortCondition ref="B1:B23"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FD66C488-929A-4E40-97B9-698BE28209C7}" name="Country" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{FD66C488-929A-4E40-97B9-698BE28209C7}" name="Country" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{04387B0B-A6A1-47CC-82EB-6B34AE82821B}" name="Grid"/>
     <tableColumn id="3" xr3:uid="{57483FE3-C6A9-426F-9DF7-4926168CE122}" name="Node_suffix"/>
-    <tableColumn id="4" xr3:uid="{F155858A-1910-4203-8242-FCFC753CE0F1}" name="Scenario" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{2976D6D8-21B5-4358-9605-474352CC3FAF}" name="Year" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{894F3647-7759-4FB2-B8B6-24582E443654}" name="upwardLimit" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{622B05A3-F0D0-4BEE-B5E5-8AA1239444AE}" name="reference" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{FB556C05-FAE9-43E0-9FC0-D26AB24EC6BC}" name="balancePenalty" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{7EAD7D20-CDA2-446F-BC00-8EC30C32C13B}" name="selfDischargeLoss" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{078F1241-6AF8-480F-897B-1DA7DB1520F6}" name="maxSpill" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F155858A-1910-4203-8242-FCFC753CE0F1}" name="Scenario" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{2976D6D8-21B5-4358-9605-474352CC3FAF}" name="Year" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{894F3647-7759-4FB2-B8B6-24582E443654}" name="upwardLimit" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{622B05A3-F0D0-4BEE-B5E5-8AA1239444AE}" name="reference" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{FB556C05-FAE9-43E0-9FC0-D26AB24EC6BC}" name="balancePenalty" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{7EAD7D20-CDA2-446F-BC00-8EC30C32C13B}" name="selfDischargeLoss" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{078F1241-6AF8-480F-897B-1DA7DB1520F6}" name="maxSpill" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20DC892E-7082-4467-928B-8F4B2C671031}" name="Table1" displayName="Table1" ref="A1:I28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20DC892E-7082-4467-928B-8F4B2C671031}" name="Table1" displayName="Table1" ref="A1:I28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:I28" xr:uid="{20DC892E-7082-4467-928B-8F4B2C671031}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{90B3BA90-E856-467E-A12E-718C92D72014}" name="Country" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{47E364C8-C977-4369-A805-4B42B4F3422D}" name="Generator_ID" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{D50F5294-47D2-4C56-800B-3E44FF430FA7}" name="Scenario" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{649C99FE-77E1-437E-9EDE-D888843F1482}" name="Year" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{1A49AF74-6C24-40D6-B37A-D2ADAB4DE02B}" name="capacity_input1" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{F30D702A-E7C4-4705-81A5-A391EA397049}" name="capacity_output1" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{B74AC38E-95FA-433D-B521-50231B26F101}" name="node_suffix_output2" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{2E1D1700-DA32-4625-8DFD-E756415F2202}" name="capacity_output2" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{89275BD6-4B5C-4E77-BA1F-FF40DDEF4E2A}" name="Note" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{90B3BA90-E856-467E-A12E-718C92D72014}" name="Country" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{47E364C8-C977-4369-A805-4B42B4F3422D}" name="Generator_ID" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D50F5294-47D2-4C56-800B-3E44FF430FA7}" name="Scenario" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{649C99FE-77E1-437E-9EDE-D888843F1482}" name="Year" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{1A49AF74-6C24-40D6-B37A-D2ADAB4DE02B}" name="capacity_input1" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{F30D702A-E7C4-4705-81A5-A391EA397049}" name="capacity_output1" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{B74AC38E-95FA-433D-B521-50231B26F101}" name="node_suffix_output2" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{2E1D1700-DA32-4625-8DFD-E756415F2202}" name="capacity_output2" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{89275BD6-4B5C-4E77-BA1F-FF40DDEF4E2A}" name="Note" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1523,11 +1595,11 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1646,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>35</v>
@@ -1587,15 +1659,15 @@
       </c>
       <c r="E2" s="12">
         <f>F2/0.4</f>
-        <v>10712.75</v>
-      </c>
-      <c r="F2" s="12">
+        <v>2113</v>
+      </c>
+      <c r="F2" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A2), 1)</f>
-        <v>4285.1000000000004</v>
+        <v>845.2</v>
       </c>
       <c r="G2" s="12">
         <f>ROUND(F2/(0.5+0.16666), 1)</f>
-        <v>6427.7</v>
+        <v>1267.8</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>28</v>
@@ -1603,7 +1675,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>35</v>
@@ -1615,16 +1687,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" ref="E3:E41" si="0">F3/0.4</f>
-        <v>18200</v>
-      </c>
-      <c r="F3" s="12">
+        <f t="shared" ref="E3:E43" si="0">F3/0.4</f>
+        <v>10712.75</v>
+      </c>
+      <c r="F3" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A3), 1)</f>
-        <v>7280</v>
+        <v>4285.1000000000004</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ref="G3:G41" si="1">ROUND(F3/(0.5+0.16666), 1)</f>
-        <v>10920.1</v>
+        <f t="shared" ref="G3:G43" si="1">ROUND(F3/(0.5+0.16666), 1)</f>
+        <v>6427.7</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>28</v>
@@ -1632,7 +1704,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>35</v>
@@ -1645,15 +1717,15 @@
       </c>
       <c r="E4" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
+        <v>18200</v>
+      </c>
+      <c r="F4" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A4), 1)</f>
-        <v>0</v>
+        <v>7280</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10920.1</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>28</v>
@@ -1661,7 +1733,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>35</v>
@@ -1676,7 +1748,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A5), 1)</f>
         <v>0</v>
       </c>
@@ -1690,7 +1762,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>35</v>
@@ -1703,15 +1775,15 @@
       </c>
       <c r="E6" s="12">
         <f t="shared" si="0"/>
-        <v>622.25</v>
-      </c>
-      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A6), 1)</f>
-        <v>248.9</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>373.4</v>
+        <v>0</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>28</v>
@@ -1719,7 +1791,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>35</v>
@@ -1732,15 +1804,15 @@
       </c>
       <c r="E7" s="12">
         <f t="shared" si="0"/>
-        <v>9950</v>
-      </c>
-      <c r="F7" s="12">
+        <v>622.25</v>
+      </c>
+      <c r="F7" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A7), 1)</f>
-        <v>3980</v>
+        <v>248.9</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>5970.1</v>
+        <v>373.4</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>28</v>
@@ -1748,7 +1820,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>35</v>
@@ -1761,15 +1833,15 @@
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>976.25</v>
-      </c>
-      <c r="F8" s="12">
+        <v>9950</v>
+      </c>
+      <c r="F8" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A8), 1)</f>
-        <v>390.5</v>
+        <v>3980</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="1"/>
-        <v>585.79999999999995</v>
+        <v>5970.1</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>28</v>
@@ -1777,7 +1849,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>35</v>
@@ -1790,15 +1862,15 @@
       </c>
       <c r="E9" s="12">
         <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="F9" s="12">
+        <v>976.25</v>
+      </c>
+      <c r="F9" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A9), 1)</f>
-        <v>4400</v>
+        <v>390.5</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>6600.1</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>28</v>
@@ -1806,7 +1878,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>35</v>
@@ -1819,15 +1891,15 @@
       </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>493.25</v>
-      </c>
-      <c r="F10" s="12">
+        <v>11000</v>
+      </c>
+      <c r="F10" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A10), 1)</f>
-        <v>197.3</v>
+        <v>4400</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>296</v>
+        <v>6600.1</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>28</v>
@@ -1835,7 +1907,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>35</v>
@@ -1848,15 +1920,15 @@
       </c>
       <c r="E11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
+        <v>493.25</v>
+      </c>
+      <c r="F11" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A11), 1)</f>
-        <v>0</v>
+        <v>197.3</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>28</v>
@@ -1864,7 +1936,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>35</v>
@@ -1877,15 +1949,15 @@
       </c>
       <c r="E12" s="12">
         <f t="shared" si="0"/>
-        <v>24624.25</v>
-      </c>
-      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A12), 1)</f>
-        <v>9849.7000000000007</v>
+        <v>0</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>14774.7</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>28</v>
@@ -1893,7 +1965,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>35</v>
@@ -1906,15 +1978,15 @@
       </c>
       <c r="E13" s="12">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F13" s="12">
+        <v>24624.25</v>
+      </c>
+      <c r="F13" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A13), 1)</f>
-        <v>20</v>
+        <v>9849.7000000000007</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>14774.7</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>28</v>
@@ -1922,7 +1994,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>35</v>
@@ -1935,15 +2007,15 @@
       </c>
       <c r="E14" s="12">
         <f t="shared" si="0"/>
-        <v>487.5</v>
-      </c>
-      <c r="F14" s="12">
+        <v>50</v>
+      </c>
+      <c r="F14" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A14), 1)</f>
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>292.5</v>
+        <v>30</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>28</v>
@@ -1951,7 +2023,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>35</v>
@@ -1964,15 +2036,15 @@
       </c>
       <c r="E15" s="12">
         <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="F15" s="12">
+        <v>487.5</v>
+      </c>
+      <c r="F15" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A15), 1)</f>
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>292.5</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>28</v>
@@ -1980,7 +2052,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>35</v>
@@ -1993,15 +2065,15 @@
       </c>
       <c r="E16" s="12">
         <f t="shared" si="0"/>
-        <v>14035.75</v>
-      </c>
-      <c r="F16" s="12">
+        <v>125</v>
+      </c>
+      <c r="F16" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A16), 1)</f>
-        <v>5614.3</v>
+        <v>50</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>8421.5</v>
+        <v>75</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>28</v>
@@ -2009,7 +2081,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>35</v>
@@ -2022,15 +2094,15 @@
       </c>
       <c r="E17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
+        <v>14035.75</v>
+      </c>
+      <c r="F17" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A17), 1)</f>
-        <v>0</v>
+        <v>5614.3</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8421.5</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>28</v>
@@ -2038,7 +2110,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>35</v>
@@ -2053,7 +2125,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A18), 1)</f>
         <v>0</v>
       </c>
@@ -2067,7 +2139,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>35</v>
@@ -2082,7 +2154,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A19), 1)</f>
         <v>0</v>
       </c>
@@ -2096,7 +2168,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>35</v>
@@ -2111,7 +2183,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A20), 1)</f>
         <v>0</v>
       </c>
@@ -2125,7 +2197,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>35</v>
@@ -2138,15 +2210,15 @@
       </c>
       <c r="E21" s="12">
         <f t="shared" si="0"/>
-        <v>116676.74999999999</v>
-      </c>
-      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="75">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A21), 1)</f>
-        <v>46670.7</v>
+        <v>0</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="1"/>
-        <v>70006.8</v>
+        <v>0</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>28</v>
@@ -2154,10 +2226,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>34</v>
@@ -2167,15 +2239,15 @@
       </c>
       <c r="E22" s="12">
         <f t="shared" si="0"/>
-        <v>4133.25</v>
-      </c>
-      <c r="F22" s="12">
-        <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A22), 1)</f>
-        <v>1653.3</v>
+        <v>116676.74999999999</v>
+      </c>
+      <c r="F22" s="75">
+        <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A22), 1)</f>
+        <v>46670.7</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="1"/>
-        <v>2480</v>
+        <v>70006.8</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>28</v>
@@ -2183,7 +2255,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>36</v>
@@ -2196,15 +2268,15 @@
       </c>
       <c r="E23" s="12">
         <f t="shared" si="0"/>
-        <v>32669</v>
-      </c>
-      <c r="F23" s="12">
+        <v>1901.5</v>
+      </c>
+      <c r="F23" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A23), 1)</f>
-        <v>13067.6</v>
+        <v>760.6</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="1"/>
-        <v>19601.599999999999</v>
+        <v>1140.9000000000001</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>28</v>
@@ -2212,7 +2284,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>36</v>
@@ -2225,15 +2297,15 @@
       </c>
       <c r="E24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="12">
+        <v>4133.25</v>
+      </c>
+      <c r="F24" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A24), 1)</f>
-        <v>0</v>
+        <v>1653.3</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2480</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>28</v>
@@ -2241,7 +2313,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>36</v>
@@ -2254,15 +2326,15 @@
       </c>
       <c r="E25" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="12">
+        <v>32669</v>
+      </c>
+      <c r="F25" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A25), 1)</f>
-        <v>0</v>
+        <v>13067.6</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19601.599999999999</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>28</v>
@@ -2270,7 +2342,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>36</v>
@@ -2283,15 +2355,15 @@
       </c>
       <c r="E26" s="12">
         <f t="shared" si="0"/>
-        <v>774</v>
-      </c>
-      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A26), 1)</f>
-        <v>309.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="1"/>
-        <v>464.4</v>
+        <v>0</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>28</v>
@@ -2299,7 +2371,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>36</v>
@@ -2312,15 +2384,15 @@
       </c>
       <c r="E27" s="12">
         <f t="shared" si="0"/>
-        <v>4325</v>
-      </c>
-      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A27), 1)</f>
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="1"/>
-        <v>2595</v>
+        <v>0</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>28</v>
@@ -2328,7 +2400,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>36</v>
@@ -2341,15 +2413,15 @@
       </c>
       <c r="E28" s="12">
         <f t="shared" si="0"/>
-        <v>6562</v>
-      </c>
-      <c r="F28" s="12">
+        <v>774</v>
+      </c>
+      <c r="F28" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A28), 1)</f>
-        <v>2624.8</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="1"/>
-        <v>3937.2</v>
+        <v>464.4</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>28</v>
@@ -2357,7 +2429,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>36</v>
@@ -2370,15 +2442,15 @@
       </c>
       <c r="E29" s="12">
         <f t="shared" si="0"/>
-        <v>6065</v>
-      </c>
-      <c r="F29" s="12">
+        <v>4325</v>
+      </c>
+      <c r="F29" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A29), 1)</f>
-        <v>2426</v>
+        <v>1730</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="1"/>
-        <v>3639</v>
+        <v>2595</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>28</v>
@@ -2386,7 +2458,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>36</v>
@@ -2399,15 +2471,15 @@
       </c>
       <c r="E30" s="12">
         <f t="shared" si="0"/>
-        <v>967.99999999999989</v>
-      </c>
-      <c r="F30" s="12">
+        <v>6562</v>
+      </c>
+      <c r="F30" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A30), 1)</f>
-        <v>387.2</v>
+        <v>2624.8</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="1"/>
-        <v>580.79999999999995</v>
+        <v>3937.2</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>28</v>
@@ -2415,7 +2487,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>36</v>
@@ -2428,15 +2500,15 @@
       </c>
       <c r="E31" s="12">
         <f t="shared" si="0"/>
-        <v>732.99999999999989</v>
-      </c>
-      <c r="F31" s="12">
+        <v>6065</v>
+      </c>
+      <c r="F31" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A31), 1)</f>
-        <v>293.2</v>
+        <v>2426</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="1"/>
-        <v>439.8</v>
+        <v>3639</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>28</v>
@@ -2444,7 +2516,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>36</v>
@@ -2457,15 +2529,15 @@
       </c>
       <c r="E32" s="12">
         <f t="shared" si="0"/>
-        <v>2788.9999999999995</v>
-      </c>
-      <c r="F32" s="12">
+        <v>967.99999999999989</v>
+      </c>
+      <c r="F32" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A32), 1)</f>
-        <v>1115.5999999999999</v>
+        <v>387.2</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="1"/>
-        <v>1673.4</v>
+        <v>580.79999999999995</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>28</v>
@@ -2473,7 +2545,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>36</v>
@@ -2486,15 +2558,15 @@
       </c>
       <c r="E33" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="12">
+        <v>732.99999999999989</v>
+      </c>
+      <c r="F33" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A33), 1)</f>
-        <v>0</v>
+        <v>293.2</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>439.8</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>28</v>
@@ -2502,7 +2574,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>36</v>
@@ -2515,15 +2587,15 @@
       </c>
       <c r="E34" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="12">
+        <v>2788.9999999999995</v>
+      </c>
+      <c r="F34" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A34), 1)</f>
-        <v>0</v>
+        <v>1115.5999999999999</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1673.4</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>28</v>
@@ -2531,7 +2603,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>36</v>
@@ -2546,7 +2618,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A35), 1)</f>
         <v>0</v>
       </c>
@@ -2560,7 +2632,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>36</v>
@@ -2573,15 +2645,15 @@
       </c>
       <c r="E36" s="12">
         <f t="shared" si="0"/>
-        <v>5387.7499999999991</v>
-      </c>
-      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A36), 1)</f>
-        <v>2155.1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="1"/>
-        <v>3232.7</v>
+        <v>0</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>28</v>
@@ -2589,7 +2661,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>36</v>
@@ -2602,15 +2674,15 @@
       </c>
       <c r="E37" s="12">
         <f t="shared" si="0"/>
-        <v>1337.5</v>
-      </c>
-      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A37), 1)</f>
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="1"/>
-        <v>802.5</v>
+        <v>0</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>28</v>
@@ -2618,7 +2690,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>36</v>
@@ -2631,15 +2703,15 @@
       </c>
       <c r="E38" s="12">
         <f t="shared" si="0"/>
-        <v>5000.2499999999991</v>
-      </c>
-      <c r="F38" s="12">
+        <v>5387.7499999999991</v>
+      </c>
+      <c r="F38" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A38), 1)</f>
-        <v>2000.1</v>
+        <v>2155.1</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="1"/>
-        <v>3000.2</v>
+        <v>3232.7</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>28</v>
@@ -2647,7 +2719,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>36</v>
@@ -2660,15 +2732,15 @@
       </c>
       <c r="E39" s="12">
         <f t="shared" si="0"/>
-        <v>17164.5</v>
-      </c>
-      <c r="F39" s="12">
+        <v>1337.5</v>
+      </c>
+      <c r="F39" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A39), 1)</f>
-        <v>6865.8</v>
+        <v>535</v>
       </c>
       <c r="G39" s="12">
         <f t="shared" si="1"/>
-        <v>10298.799999999999</v>
+        <v>802.5</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>28</v>
@@ -2676,7 +2748,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>36</v>
@@ -2689,15 +2761,15 @@
       </c>
       <c r="E40" s="12">
         <f t="shared" si="0"/>
-        <v>4691</v>
-      </c>
-      <c r="F40" s="12">
+        <v>5000.2499999999991</v>
+      </c>
+      <c r="F40" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A40), 1)</f>
-        <v>1876.4</v>
+        <v>2000.1</v>
       </c>
       <c r="G40" s="12">
         <f t="shared" si="1"/>
-        <v>2814.6</v>
+        <v>3000.2</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>28</v>
@@ -2705,7 +2777,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>36</v>
@@ -2718,17 +2790,75 @@
       </c>
       <c r="E41" s="12">
         <f t="shared" si="0"/>
-        <v>20518</v>
-      </c>
-      <c r="F41" s="12">
+        <v>17164.5</v>
+      </c>
+      <c r="F41" s="76">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A41), 1)</f>
-        <v>8207.2000000000007</v>
+        <v>6865.8</v>
       </c>
       <c r="G41" s="12">
         <f t="shared" si="1"/>
+        <v>10298.799999999999</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="0"/>
+        <v>4691</v>
+      </c>
+      <c r="F42" s="76">
+        <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A42), 1)</f>
+        <v>1876.4</v>
+      </c>
+      <c r="G42" s="12">
+        <f t="shared" si="1"/>
+        <v>2814.6</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="0"/>
+        <v>20518</v>
+      </c>
+      <c r="F43" s="76">
+        <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A43), 1)</f>
+        <v>8207.2000000000007</v>
+      </c>
+      <c r="G43" s="12">
+        <f t="shared" si="1"/>
         <v>12310.9</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H43" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3069,10 +3199,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E21"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,7 +3241,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -3127,12 +3257,12 @@
       </c>
       <c r="F2" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A2)</f>
-        <v>27.839204464285633</v>
+        <v>18.899486105113525</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>33</v>
@@ -3148,12 +3278,12 @@
       </c>
       <c r="F3" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A3)</f>
-        <v>68.400874431818181</v>
+        <v>27.839204464285633</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
@@ -3169,12 +3299,12 @@
       </c>
       <c r="F4" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A4)</f>
-        <v>0</v>
+        <v>68.400874431818181</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -3195,7 +3325,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
@@ -3211,12 +3341,12 @@
       </c>
       <c r="F6" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A6)</f>
-        <v>0.85807817866820701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>33</v>
@@ -3232,12 +3362,12 @@
       </c>
       <c r="F7" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A7)</f>
-        <v>49.067176704545489</v>
+        <v>0.85807817866820701</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
@@ -3253,12 +3383,12 @@
       </c>
       <c r="F8" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A8)</f>
-        <v>15.239273863636374</v>
+        <v>49.067176704545489</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>33</v>
@@ -3274,12 +3404,12 @@
       </c>
       <c r="F9" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A9)</f>
-        <v>34.606931188636487</v>
+        <v>15.239273863636374</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>33</v>
@@ -3295,12 +3425,12 @@
       </c>
       <c r="F10" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A10)</f>
-        <v>2.3796772702297733</v>
+        <v>34.606931188636487</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -3316,12 +3446,12 @@
       </c>
       <c r="F11" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A11)</f>
-        <v>1.295391806551029</v>
+        <v>2.3796772702297733</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>33</v>
@@ -3337,12 +3467,12 @@
       </c>
       <c r="F12" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A12)</f>
-        <v>55.370671000000002</v>
+        <v>1.295391806551029</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>33</v>
@@ -3358,12 +3488,12 @@
       </c>
       <c r="F13" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A13)</f>
-        <v>0.17709937036877885</v>
+        <v>55.370671000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>33</v>
@@ -3379,12 +3509,12 @@
       </c>
       <c r="F14" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A14)</f>
-        <v>1.7267188610955937</v>
+        <v>0.17709937036877885</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>22</v>
+      <c r="A15" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>33</v>
@@ -3400,13 +3530,12 @@
       </c>
       <c r="F15" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A15)</f>
-        <v>0.44274842592194713</v>
-      </c>
-      <c r="G15" s="17"/>
+        <v>1.7267188610955937</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
+      <c r="A16" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>33</v>
@@ -3422,12 +3551,13 @@
       </c>
       <c r="F16" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A16)</f>
-        <v>32.116778500000002</v>
-      </c>
+        <v>0.44274842592194713</v>
+      </c>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -3443,12 +3573,12 @@
       </c>
       <c r="F17" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A17)</f>
-        <v>1.1403121428571428</v>
+        <v>32.116778500000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>33</v>
@@ -3464,12 +3594,12 @@
       </c>
       <c r="F18" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A18)</f>
-        <v>5.0979269230769226</v>
+        <v>1.1403121428571428</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>33</v>
@@ -3485,12 +3615,12 @@
       </c>
       <c r="F19" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A19)</f>
-        <v>22.884912390109893</v>
+        <v>5.0979269230769226</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>33</v>
@@ -3506,12 +3636,12 @@
       </c>
       <c r="F20" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A20)</f>
-        <v>5.2148953846153843</v>
+        <v>22.884912390109893</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
@@ -3527,11 +3657,37 @@
       </c>
       <c r="F21" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A21)</f>
+        <v>5.2148953846153843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18">
+        <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A22)</f>
         <v>147.36625717032967</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:G2 A3:A15 G3:G15 B3:F21">
+  <conditionalFormatting sqref="A3:G3 A4:A16 G4:G16 B4:F22">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -3545,10 +3701,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3557,7 +3713,7 @@
     <col min="2" max="3" width="19.7109375" style="58" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="60" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="60"/>
-    <col min="6" max="6" width="16.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="64" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="63" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="63" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="63" customWidth="1"/>
@@ -3566,22 +3722,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="59" t="s">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="70" t="s">
         <v>123</v>
       </c>
       <c r="G1" s="61" t="s">
@@ -3598,77 +3754,80 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="73">
+        <v>1</v>
+      </c>
+      <c r="F2" s="74"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64">
+        <v>4000</v>
+      </c>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B3" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="66">
-        <v>1</v>
-      </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67">
+      <c r="C3" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="73">
+        <v>1</v>
+      </c>
+      <c r="F3" s="74"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64">
         <v>4000</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B4" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="60">
-        <v>1</v>
-      </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67">
+      <c r="C4" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="73">
+        <v>1</v>
+      </c>
+      <c r="F4" s="74"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64">
         <v>4000</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="60">
-        <v>1</v>
-      </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67">
-        <v>4000</v>
-      </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>33</v>
@@ -3682,16 +3841,16 @@
       <c r="E5" s="60">
         <v>1</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67">
+      <c r="G5" s="64"/>
+      <c r="H5" s="64">
         <v>4000</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>33</v>
@@ -3705,16 +3864,16 @@
       <c r="E6" s="60">
         <v>1</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67">
+      <c r="G6" s="64"/>
+      <c r="H6" s="64">
         <v>4000</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>33</v>
@@ -3728,16 +3887,16 @@
       <c r="E7" s="60">
         <v>1</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67">
+      <c r="G7" s="64"/>
+      <c r="H7" s="64">
         <v>4000</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" s="58" t="s">
         <v>33</v>
@@ -3751,16 +3910,16 @@
       <c r="E8" s="60">
         <v>1</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67">
+      <c r="G8" s="64"/>
+      <c r="H8" s="64">
         <v>4000</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" s="58" t="s">
         <v>33</v>
@@ -3774,16 +3933,16 @@
       <c r="E9" s="60">
         <v>1</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67">
+      <c r="G9" s="64"/>
+      <c r="H9" s="64">
         <v>4000</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B10" s="58" t="s">
         <v>33</v>
@@ -3797,16 +3956,16 @@
       <c r="E10" s="60">
         <v>1</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67">
+      <c r="G10" s="64"/>
+      <c r="H10" s="64">
         <v>4000</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>33</v>
@@ -3820,16 +3979,16 @@
       <c r="E11" s="60">
         <v>1</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67">
+      <c r="G11" s="64"/>
+      <c r="H11" s="64">
         <v>4000</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -3843,16 +4002,16 @@
       <c r="E12" s="60">
         <v>1</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67">
+      <c r="G12" s="64"/>
+      <c r="H12" s="64">
         <v>4000</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" s="58" t="s">
         <v>33</v>
@@ -3866,16 +4025,16 @@
       <c r="E13" s="60">
         <v>1</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67">
+      <c r="G13" s="64"/>
+      <c r="H13" s="64">
         <v>4000</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" s="58" t="s">
         <v>33</v>
@@ -3889,16 +4048,16 @@
       <c r="E14" s="60">
         <v>1</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67">
+      <c r="G14" s="64"/>
+      <c r="H14" s="64">
         <v>4000</v>
       </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>33</v>
@@ -3912,16 +4071,16 @@
       <c r="E15" s="60">
         <v>1</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67">
+      <c r="G15" s="64"/>
+      <c r="H15" s="64">
         <v>4000</v>
       </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B16" s="58" t="s">
         <v>33</v>
@@ -3935,16 +4094,16 @@
       <c r="E16" s="60">
         <v>1</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67">
+      <c r="G16" s="64"/>
+      <c r="H16" s="64">
         <v>4000</v>
       </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B17" s="58" t="s">
         <v>33</v>
@@ -3958,16 +4117,16 @@
       <c r="E17" s="60">
         <v>1</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67">
+      <c r="G17" s="64"/>
+      <c r="H17" s="64">
         <v>4000</v>
       </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="63" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" s="58" t="s">
         <v>33</v>
@@ -3981,16 +4140,16 @@
       <c r="E18" s="60">
         <v>1</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67">
+      <c r="G18" s="64"/>
+      <c r="H18" s="64">
         <v>4000</v>
       </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="58" t="s">
         <v>33</v>
@@ -4004,16 +4163,16 @@
       <c r="E19" s="60">
         <v>1</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67">
+      <c r="G19" s="64"/>
+      <c r="H19" s="64">
         <v>4000</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="58" t="s">
         <v>33</v>
@@ -4027,16 +4186,16 @@
       <c r="E20" s="60">
         <v>1</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67">
+      <c r="G20" s="64"/>
+      <c r="H20" s="64">
         <v>4000</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="63" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B21" s="58" t="s">
         <v>33</v>
@@ -4050,19 +4209,42 @@
       <c r="E21" s="60">
         <v>1</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67">
+      <c r="G21" s="64"/>
+      <c r="H21" s="64">
         <v>4000</v>
       </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
+      <c r="A22" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="60">
+        <v>1</v>
+      </c>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64">
+        <v>4000</v>
+      </c>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -4082,10 +4264,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B3:Z29"/>
+  <dimension ref="B3:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4257,721 +4439,730 @@
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="56">
+        <v>107</v>
+      </c>
+      <c r="C6" s="56" t="e">
         <f>J6*10^6/$O6 / 8760</f>
-        <v>0.47251825447560958</v>
-      </c>
-      <c r="D6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="56" t="e">
         <f>K6*10^6/$O6 / 8760</f>
-        <v>0.36156677080105204</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56">
         <f>IFERROR(L6*10^6/$X6 / 8760, "-")</f>
-        <v>0.25582832417323897</v>
+        <v>0.8956448761979382</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="J6" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I6)</f>
-        <v>89.390575686813193</v>
+        <v>0</v>
       </c>
       <c r="K6" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I6) / 10^3 * 1.5</f>
-        <v>68.400874431818181</v>
+        <v>18.899486105113525</v>
       </c>
       <c r="L6" s="50">
         <f>K6</f>
-        <v>68.400874431818181</v>
+        <v>18.899486105113525</v>
       </c>
       <c r="M6" s="40"/>
       <c r="N6" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I6)</f>
-        <v>35992.978474241667</v>
+        <v>0</v>
       </c>
       <c r="O6" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I6)</f>
-        <v>21595.787084545002</v>
+        <v>0</v>
       </c>
       <c r="P6" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I6,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>23022.172503802049</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I6,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>12970.805970439615</v>
+        <v>0</v>
       </c>
       <c r="R6" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I6)</f>
-        <v>20347.606</v>
+        <v>1605.885</v>
       </c>
       <c r="S6" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I6,  TYNDP2024!$B:$B,S$4)</f>
-        <v>13067.585999999999</v>
+        <v>760.64499999999998</v>
       </c>
       <c r="T6" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I6,  TYNDP2024!$B:$B,T$4)</f>
-        <v>7280.02</v>
+        <v>845.24</v>
       </c>
       <c r="U6" s="53">
         <f>R6</f>
-        <v>20347.606</v>
+        <v>1605.885</v>
       </c>
       <c r="V6" s="53">
-        <f t="shared" ref="V6:V7" si="0">S6</f>
-        <v>13067.585999999999</v>
+        <f t="shared" ref="V6" si="0">S6</f>
+        <v>760.64499999999998</v>
       </c>
       <c r="W6" s="53">
-        <f t="shared" ref="W6:W7" si="1">T6</f>
-        <v>7280.02</v>
+        <f t="shared" ref="W6" si="1">T6</f>
+        <v>845.24</v>
       </c>
       <c r="X6" s="46">
         <f>IF(ISNUMBER(U6), U6/(0.5+0.16666), "-")</f>
-        <v>30521.714217142169</v>
+        <v>2408.8515885158849</v>
       </c>
       <c r="Y6" s="46">
-        <f t="shared" ref="Y6:Y28" si="2">IF(ISNUMBER(V6), V6/(0.5+0.16666), "-")</f>
-        <v>19601.575015750157</v>
+        <f t="shared" ref="Y6" si="2">IF(ISNUMBER(V6), V6/(0.5+0.16666), "-")</f>
+        <v>1140.9789097890978</v>
       </c>
       <c r="Z6" s="46">
-        <f t="shared" ref="Z6:Z28" si="3">IF(ISNUMBER(W6), W6/(0.5+0.16666), "-")</f>
-        <v>10920.139201392014</v>
+        <f t="shared" ref="Z6" si="3">IF(ISNUMBER(W6), W6/(0.5+0.16666), "-")</f>
+        <v>1267.8726787267872</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="56">
-        <f t="shared" ref="C7:C28" si="4">J7*10^6/$O7 / 8760</f>
-        <v>0.3880596618755609</v>
+        <f>J7*10^6/$O7 / 8760</f>
+        <v>0.47251825447560958</v>
       </c>
       <c r="D7" s="56">
-        <f t="shared" ref="D7:D28" si="5">K7*10^6/$O7 / 8760</f>
-        <v>0.48839043565220397</v>
+        <f>K7*10^6/$O7 / 8760</f>
+        <v>0.36156677080105204</v>
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56">
-        <f t="shared" ref="F7:F28" si="6">IFERROR(L7*10^6/$X7 / 8760, "-")</f>
-        <v>0.38583098109659286</v>
+        <f>IFERROR(L7*10^6/$X7 / 8760, "-")</f>
+        <v>0.25582832417323897</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I7)</f>
-        <v>27.49757782967033</v>
+        <v>89.390575686813193</v>
       </c>
       <c r="K7" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I7) / 10^3 * 1.5</f>
-        <v>34.606931188636487</v>
+        <v>68.400874431818181</v>
       </c>
       <c r="L7" s="50">
         <f>K7</f>
-        <v>34.606931188636487</v>
+        <v>68.400874431818181</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I7)</f>
-        <v>13481.57345943102</v>
+        <v>35992.978474241667</v>
       </c>
       <c r="O7" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I7)</f>
-        <v>8088.9440756586137</v>
+        <v>21595.787084545002</v>
       </c>
       <c r="P7" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I7,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>6492.1236100749575</v>
+        <v>23022.172503802049</v>
       </c>
       <c r="Q7" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I7,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>6989.4498493560623</v>
+        <v>12970.805970439615</v>
       </c>
       <c r="R7" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I7)</f>
-        <v>6826</v>
+        <v>20347.606</v>
       </c>
       <c r="S7" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I7,  TYNDP2024!$B:$B,S$4)</f>
-        <v>2426</v>
+        <v>13067.585999999999</v>
       </c>
       <c r="T7" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I7,  TYNDP2024!$B:$B,T$4)</f>
-        <v>4400</v>
+        <v>7280.02</v>
       </c>
       <c r="U7" s="53">
         <f>R7</f>
-        <v>6826</v>
+        <v>20347.606</v>
       </c>
       <c r="V7" s="53">
-        <f t="shared" si="0"/>
-        <v>2426</v>
+        <f t="shared" ref="V7:V8" si="4">S7</f>
+        <v>13067.585999999999</v>
       </c>
       <c r="W7" s="53">
-        <f t="shared" si="1"/>
-        <v>4400</v>
+        <f t="shared" ref="W7:W8" si="5">T7</f>
+        <v>7280.02</v>
       </c>
       <c r="X7" s="46">
-        <f t="shared" ref="X7:X28" si="7">IF(ISNUMBER(U7), U7/(0.5+0.16666), "-")</f>
-        <v>10239.102391023909</v>
+        <f>IF(ISNUMBER(U7), U7/(0.5+0.16666), "-")</f>
+        <v>30521.714217142169</v>
       </c>
       <c r="Y7" s="46">
-        <f t="shared" si="2"/>
-        <v>3639.0363903639036</v>
+        <f t="shared" ref="Y7:Y29" si="6">IF(ISNUMBER(V7), V7/(0.5+0.16666), "-")</f>
+        <v>19601.575015750157</v>
       </c>
       <c r="Z7" s="46">
-        <f t="shared" si="3"/>
-        <v>6600.0660006600065</v>
+        <f t="shared" ref="Z7:Z29" si="7">IF(ISNUMBER(W7), W7/(0.5+0.16666), "-")</f>
+        <v>10920.139201392014</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="56">
-        <f t="shared" si="4"/>
-        <v>0.51091063303722406</v>
+        <f t="shared" ref="C8:C29" si="8">J8*10^6/$O8 / 8760</f>
+        <v>0.3880596618755609</v>
       </c>
       <c r="D8" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="D8:D29" si="9">K8*10^6/$O8 / 8760</f>
+        <v>0.48839043565220397</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56">
-        <f t="shared" si="6"/>
-        <v>0.20436220957235743</v>
+        <f t="shared" ref="F8:F29" si="10">IFERROR(L8*10^6/$X8 / 8760, "-")</f>
+        <v>0.38583098109659286</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I8)</f>
-        <v>147.36625717032967</v>
+        <v>27.49757782967033</v>
       </c>
       <c r="K8" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I8) / 10^3 * 1.5</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="51">
-        <f t="shared" ref="L8" si="8">J8</f>
-        <v>147.36625717032967</v>
+        <v>34.606931188636487</v>
+      </c>
+      <c r="L8" s="50">
+        <f>K8</f>
+        <v>34.606931188636487</v>
       </c>
       <c r="M8" s="40"/>
       <c r="N8" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I8)</f>
-        <v>54877.934317213338</v>
+        <v>13481.57345943102</v>
       </c>
       <c r="O8" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I8)</f>
-        <v>32926.760590327998</v>
+        <v>8088.9440756586137</v>
       </c>
       <c r="P8" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I8,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>8207.2270731092522</v>
+        <v>6492.1236100749575</v>
       </c>
       <c r="Q8" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I8,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>46670.707244104087</v>
+        <v>6989.4498493560623</v>
       </c>
       <c r="R8" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I8)</f>
-        <v>11563.359</v>
+        <v>6826</v>
       </c>
       <c r="S8" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I8,  TYNDP2024!$B:$B,S$4)</f>
-        <v>2906.1660000000002</v>
+        <v>2426</v>
       </c>
       <c r="T8" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I8,  TYNDP2024!$B:$B,T$4)</f>
-        <v>8657.1929999999993</v>
-      </c>
-      <c r="U8" s="54">
-        <f t="shared" ref="U8" si="9">N8</f>
-        <v>54877.934317213338</v>
-      </c>
-      <c r="V8" s="54">
-        <f t="shared" ref="V8" si="10">P8</f>
-        <v>8207.2270731092522</v>
-      </c>
-      <c r="W8" s="54">
-        <f t="shared" ref="W8" si="11">Q8</f>
-        <v>46670.707244104087</v>
+        <v>4400</v>
+      </c>
+      <c r="U8" s="53">
+        <f>R8</f>
+        <v>6826</v>
+      </c>
+      <c r="V8" s="53">
+        <f t="shared" si="4"/>
+        <v>2426</v>
+      </c>
+      <c r="W8" s="53">
+        <f t="shared" si="5"/>
+        <v>4400</v>
       </c>
       <c r="X8" s="46">
+        <f t="shared" ref="X8:X29" si="11">IF(ISNUMBER(U8), U8/(0.5+0.16666), "-")</f>
+        <v>10239.102391023909</v>
+      </c>
+      <c r="Y8" s="46">
+        <f t="shared" si="6"/>
+        <v>3639.0363903639036</v>
+      </c>
+      <c r="Z8" s="46">
         <f t="shared" si="7"/>
-        <v>82317.724653066529</v>
-      </c>
-      <c r="Y8" s="46">
-        <f t="shared" si="2"/>
-        <v>12310.963719301071</v>
-      </c>
-      <c r="Z8" s="46">
-        <f t="shared" si="3"/>
-        <v>70006.760933765472</v>
+        <v>6600.0660006600065</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="56">
-        <f t="shared" si="4"/>
-        <v>0.19047085455806767</v>
+        <f t="shared" si="8"/>
+        <v>0.51091063303722406</v>
       </c>
       <c r="D9" s="56">
-        <f t="shared" si="5"/>
-        <v>0.60817695483820611</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56">
-        <f t="shared" si="6"/>
-        <v>0.65396486588852809</v>
+        <f t="shared" si="10"/>
+        <v>0.20436220957235743</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I9)</f>
-        <v>15.367019423076924</v>
+        <v>147.36625717032967</v>
       </c>
       <c r="K9" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I9) / 10^3 * 1.5</f>
-        <v>49.067176704545489</v>
-      </c>
-      <c r="L9" s="50">
-        <f>K9</f>
-        <v>49.067176704545489</v>
+        <v>0</v>
+      </c>
+      <c r="L9" s="51">
+        <f t="shared" ref="L9" si="12">J9</f>
+        <v>147.36625717032967</v>
       </c>
       <c r="M9" s="40"/>
       <c r="N9" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I9)</f>
-        <v>15349.907169162736</v>
+        <v>54877.934317213338</v>
       </c>
       <c r="O9" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I9)</f>
-        <v>9209.9443014976423</v>
+        <v>32926.760590327998</v>
       </c>
       <c r="P9" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I9,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>4650.6723997638419</v>
+        <v>8207.2270731092522</v>
       </c>
       <c r="Q9" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I9,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>10699.234769398894</v>
+        <v>46670.707244104087</v>
       </c>
       <c r="R9" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I9)</f>
-        <v>5710.0110000000004</v>
+        <v>11563.359</v>
       </c>
       <c r="S9" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I9,  TYNDP2024!$B:$B,S$4)</f>
-        <v>1730</v>
+        <v>2906.1660000000002</v>
       </c>
       <c r="T9" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I9,  TYNDP2024!$B:$B,T$4)</f>
-        <v>3980.011</v>
-      </c>
-      <c r="U9" s="53">
-        <f>R9</f>
-        <v>5710.0110000000004</v>
-      </c>
-      <c r="V9" s="53">
-        <f t="shared" ref="V9:V10" si="12">S9</f>
-        <v>1730</v>
-      </c>
-      <c r="W9" s="53">
-        <f t="shared" ref="W9:W10" si="13">T9</f>
-        <v>3980.011</v>
+        <v>8657.1929999999993</v>
+      </c>
+      <c r="U9" s="54">
+        <f t="shared" ref="U9" si="13">N9</f>
+        <v>54877.934317213338</v>
+      </c>
+      <c r="V9" s="54">
+        <f t="shared" ref="V9" si="14">P9</f>
+        <v>8207.2270731092522</v>
+      </c>
+      <c r="W9" s="54">
+        <f t="shared" ref="W9" si="15">Q9</f>
+        <v>46670.707244104087</v>
       </c>
       <c r="X9" s="46">
+        <f t="shared" si="11"/>
+        <v>82317.724653066529</v>
+      </c>
+      <c r="Y9" s="46">
+        <f t="shared" si="6"/>
+        <v>12310.963719301071</v>
+      </c>
+      <c r="Z9" s="46">
         <f t="shared" si="7"/>
-        <v>8565.1021510215105</v>
-      </c>
-      <c r="Y9" s="46">
-        <f t="shared" si="2"/>
-        <v>2595.0259502595027</v>
-      </c>
-      <c r="Z9" s="46">
-        <f t="shared" si="3"/>
-        <v>5970.0762007620069</v>
+        <v>70006.760933765472</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="56">
-        <f t="shared" si="4"/>
-        <v>0.25966534561024712</v>
+        <f t="shared" si="8"/>
+        <v>0.19047085455806767</v>
       </c>
       <c r="D10" s="56">
-        <f t="shared" si="5"/>
-        <v>0.33129856558426174</v>
+        <f t="shared" si="9"/>
+        <v>0.60817695483820611</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="56">
-        <f t="shared" si="6"/>
-        <v>0.31459092076569517</v>
+        <f t="shared" si="10"/>
+        <v>0.65396486588852809</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I10)</f>
-        <v>25.172503763736266</v>
+        <v>15.367019423076924</v>
       </c>
       <c r="K10" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I10) / 10^3 * 1.5</f>
-        <v>32.116778500000002</v>
+        <v>49.067176704545489</v>
       </c>
       <c r="L10" s="50">
         <f>K10</f>
-        <v>32.116778500000002</v>
+        <v>49.067176704545489</v>
       </c>
       <c r="M10" s="40"/>
       <c r="N10" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I10)</f>
-        <v>18444.082852473824</v>
+        <v>15349.907169162736</v>
       </c>
       <c r="O10" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I10)</f>
-        <v>11066.449711484296</v>
+        <v>9209.9443014976423</v>
       </c>
       <c r="P10" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I10,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>5868.4496235170318</v>
+        <v>4650.6723997638419</v>
       </c>
       <c r="Q10" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I10,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>12575.633228956791</v>
+        <v>10699.234769398894</v>
       </c>
       <c r="R10" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I10)</f>
-        <v>7769.375</v>
+        <v>5710.0110000000004</v>
       </c>
       <c r="S10" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I10,  TYNDP2024!$B:$B,S$4)</f>
-        <v>2155.0540000000001</v>
+        <v>1730</v>
       </c>
       <c r="T10" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I10,  TYNDP2024!$B:$B,T$4)</f>
-        <v>5614.3209999999999</v>
+        <v>3980.011</v>
       </c>
       <c r="U10" s="53">
         <f>R10</f>
-        <v>7769.375</v>
+        <v>5710.0110000000004</v>
       </c>
       <c r="V10" s="53">
-        <f t="shared" si="12"/>
-        <v>2155.0540000000001</v>
+        <f t="shared" ref="V10:V11" si="16">S10</f>
+        <v>1730</v>
       </c>
       <c r="W10" s="53">
-        <f t="shared" si="13"/>
-        <v>5614.3209999999999</v>
+        <f t="shared" ref="W10:W11" si="17">T10</f>
+        <v>3980.011</v>
       </c>
       <c r="X10" s="46">
+        <f t="shared" si="11"/>
+        <v>8565.1021510215105</v>
+      </c>
+      <c r="Y10" s="46">
+        <f t="shared" si="6"/>
+        <v>2595.0259502595027</v>
+      </c>
+      <c r="Z10" s="46">
         <f t="shared" si="7"/>
-        <v>11654.179041790418</v>
-      </c>
-      <c r="Y10" s="46">
-        <f t="shared" si="2"/>
-        <v>3232.6133261332611</v>
-      </c>
-      <c r="Z10" s="46">
-        <f t="shared" si="3"/>
-        <v>8421.565715657156</v>
+        <v>5970.0762007620069</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="56">
-        <f t="shared" si="4"/>
-        <v>0.20980758645537587</v>
+        <f t="shared" si="8"/>
+        <v>0.25966534561024712</v>
       </c>
       <c r="D11" s="56">
-        <f t="shared" si="5"/>
-        <v>0.96072939647712852</v>
+        <f t="shared" si="9"/>
+        <v>0.33129856558426174</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56">
-        <f t="shared" si="6"/>
-        <v>0.38428791567326565</v>
+        <f t="shared" si="10"/>
+        <v>0.31459092076569517</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I11)</f>
-        <v>12.092048901098902</v>
+        <v>25.172503763736266</v>
       </c>
       <c r="K11" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I11) / 10^3 * 1.5</f>
-        <v>55.370671000000002</v>
+        <v>32.116778500000002</v>
       </c>
       <c r="L11" s="50">
         <f>K11</f>
-        <v>55.370671000000002</v>
+        <v>32.116778500000002</v>
       </c>
       <c r="M11" s="40"/>
       <c r="N11" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I11)</f>
-        <v>10965.371513662838</v>
+        <v>18444.082852473824</v>
       </c>
       <c r="O11" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I11)</f>
-        <v>6579.2229081977039</v>
+        <v>11066.449711484296</v>
       </c>
       <c r="P11" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I11,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>1115.62372595491</v>
+        <v>5868.4496235170318</v>
       </c>
       <c r="Q11" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I11,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>9849.7477877079273</v>
+        <v>12575.633228956791</v>
       </c>
       <c r="R11" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I11)</f>
-        <v>4796.5</v>
+        <v>7769.375</v>
       </c>
       <c r="S11" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I11,  TYNDP2024!$B:$B,S$4)</f>
-        <v>415</v>
+        <v>2155.0540000000001</v>
       </c>
       <c r="T11" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I11,  TYNDP2024!$B:$B,T$4)</f>
-        <v>4381.5</v>
-      </c>
-      <c r="U11" s="54">
-        <f t="shared" ref="U11" si="14">N11</f>
-        <v>10965.371513662838</v>
-      </c>
-      <c r="V11" s="54">
-        <f t="shared" ref="V11" si="15">P11</f>
-        <v>1115.62372595491</v>
-      </c>
-      <c r="W11" s="54">
-        <f t="shared" ref="W11" si="16">Q11</f>
-        <v>9849.7477877079273</v>
+        <v>5614.3209999999999</v>
+      </c>
+      <c r="U11" s="53">
+        <f>R11</f>
+        <v>7769.375</v>
+      </c>
+      <c r="V11" s="53">
+        <f t="shared" si="16"/>
+        <v>2155.0540000000001</v>
+      </c>
+      <c r="W11" s="53">
+        <f t="shared" si="17"/>
+        <v>5614.3209999999999</v>
       </c>
       <c r="X11" s="46">
+        <f t="shared" si="11"/>
+        <v>11654.179041790418</v>
+      </c>
+      <c r="Y11" s="46">
+        <f t="shared" si="6"/>
+        <v>3232.6133261332611</v>
+      </c>
+      <c r="Z11" s="46">
         <f t="shared" si="7"/>
-        <v>16448.221752711783</v>
-      </c>
-      <c r="Y11" s="46">
-        <f t="shared" si="2"/>
-        <v>1673.4523234555995</v>
-      </c>
-      <c r="Z11" s="46">
-        <f t="shared" si="3"/>
-        <v>14774.769429256183</v>
+        <v>8421.565715657156</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="56">
-        <f t="shared" si="4"/>
-        <v>0.30345104317550092</v>
+        <f t="shared" si="8"/>
+        <v>0.20980758645537587</v>
       </c>
       <c r="D12" s="56">
-        <f t="shared" si="5"/>
-        <v>0.89194094961654002</v>
+        <f t="shared" si="9"/>
+        <v>0.96072939647712852</v>
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56">
-        <f t="shared" si="6"/>
-        <v>0.35677281208281764</v>
+        <f t="shared" si="10"/>
+        <v>0.38428791567326565</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I12)</f>
-        <v>9.4712947527472533</v>
+        <v>12.092048901098902</v>
       </c>
       <c r="K12" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I12) / 10^3 * 1.5</f>
-        <v>27.839204464285633</v>
+        <v>55.370671000000002</v>
       </c>
       <c r="L12" s="50">
         <f>K12</f>
-        <v>27.839204464285633</v>
+        <v>55.370671000000002</v>
       </c>
       <c r="M12" s="40"/>
       <c r="N12" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I12)</f>
-        <v>5938.3441220105924</v>
+        <v>10965.371513662838</v>
       </c>
       <c r="O12" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I12)</f>
-        <v>3563.0064732063561</v>
+        <v>6579.2229081977039</v>
       </c>
       <c r="P12" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I12,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>1653.2737143669149</v>
+        <v>1115.62372595491</v>
       </c>
       <c r="Q12" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I12,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>4285.0704076436778</v>
+        <v>9849.7477877079273</v>
       </c>
       <c r="R12" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I12)</f>
-        <v>2208.625</v>
+        <v>4796.5</v>
       </c>
       <c r="S12" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I12,  TYNDP2024!$B:$B,S$4)</f>
-        <v>614.625</v>
+        <v>415</v>
       </c>
       <c r="T12" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I12,  TYNDP2024!$B:$B,T$4)</f>
-        <v>1594</v>
+        <v>4381.5</v>
       </c>
       <c r="U12" s="54">
-        <f t="shared" ref="U12" si="17">N12</f>
-        <v>5938.3441220105924</v>
+        <f t="shared" ref="U12" si="18">N12</f>
+        <v>10965.371513662838</v>
       </c>
       <c r="V12" s="54">
-        <f t="shared" ref="V12" si="18">P12</f>
-        <v>1653.2737143669149</v>
+        <f t="shared" ref="V12" si="19">P12</f>
+        <v>1115.62372595491</v>
       </c>
       <c r="W12" s="54">
-        <f t="shared" ref="W12" si="19">Q12</f>
-        <v>4285.0704076436778</v>
+        <f t="shared" ref="W12" si="20">Q12</f>
+        <v>9849.7477877079273</v>
       </c>
       <c r="X12" s="46">
+        <f t="shared" si="11"/>
+        <v>16448.221752711783</v>
+      </c>
+      <c r="Y12" s="46">
+        <f t="shared" si="6"/>
+        <v>1673.4523234555995</v>
+      </c>
+      <c r="Z12" s="46">
         <f t="shared" si="7"/>
-        <v>8907.6052590684794</v>
-      </c>
-      <c r="Y12" s="46">
-        <f t="shared" si="2"/>
-        <v>2479.9353709040811</v>
-      </c>
-      <c r="Z12" s="46">
-        <f t="shared" si="3"/>
-        <v>6427.6698881643979</v>
+        <v>14774.769429256183</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="56" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="56" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="56">
+        <f t="shared" si="8"/>
+        <v>0.30345104317550092</v>
+      </c>
+      <c r="D13" s="56">
+        <f t="shared" si="9"/>
+        <v>0.89194094961654002</v>
       </c>
       <c r="E13" s="56"/>
-      <c r="F13" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" s="49"/>
+      <c r="F13" s="56">
+        <f t="shared" si="10"/>
+        <v>0.35677281208281764</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="49">
+        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I13)</f>
+        <v>9.4712947527472533</v>
+      </c>
       <c r="K13" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I13) / 10^3 * 1.5</f>
-        <v>12.243905113636341</v>
-      </c>
-      <c r="L13" s="49"/>
+        <v>27.839204464285633</v>
+      </c>
+      <c r="L13" s="50">
+        <f>K13</f>
+        <v>27.839204464285633</v>
+      </c>
       <c r="M13" s="40"/>
       <c r="N13" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I13)</f>
-        <v>0</v>
+        <v>5938.3441220105924</v>
       </c>
       <c r="O13" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I13)</f>
-        <v>0</v>
+        <v>3563.0064732063561</v>
       </c>
       <c r="P13" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I13,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>0</v>
+        <v>1653.2737143669149</v>
       </c>
       <c r="Q13" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I13,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>0</v>
+        <v>4285.0704076436778</v>
       </c>
       <c r="R13" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I13)</f>
-        <v>0</v>
+        <v>2208.625</v>
       </c>
       <c r="S13" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I13,  TYNDP2024!$B:$B,S$4)</f>
-        <v>0</v>
+        <v>614.625</v>
       </c>
       <c r="T13" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I13,  TYNDP2024!$B:$B,T$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46" t="str">
+        <v>1594</v>
+      </c>
+      <c r="U13" s="54">
+        <f t="shared" ref="U13" si="21">N13</f>
+        <v>5938.3441220105924</v>
+      </c>
+      <c r="V13" s="54">
+        <f t="shared" ref="V13" si="22">P13</f>
+        <v>1653.2737143669149</v>
+      </c>
+      <c r="W13" s="54">
+        <f t="shared" ref="W13" si="23">Q13</f>
+        <v>4285.0704076436778</v>
+      </c>
+      <c r="X13" s="46">
+        <f t="shared" si="11"/>
+        <v>8907.6052590684794</v>
+      </c>
+      <c r="Y13" s="46">
+        <f t="shared" si="6"/>
+        <v>2479.9353709040811</v>
+      </c>
+      <c r="Z13" s="46">
         <f t="shared" si="7"/>
+        <v>6427.6698881643979</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="56" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="56" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56" t="str">
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
-      <c r="Y13" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="Z13" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="56">
-        <f t="shared" si="4"/>
-        <v>0.40555118147305402</v>
-      </c>
-      <c r="D14" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56">
-        <f t="shared" si="6"/>
-        <v>0.16221885038449577</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="49">
-        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I14)</f>
-        <v>1.1403121428571428</v>
-      </c>
+      <c r="I14" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="49"/>
       <c r="K14" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I14) / 10^3 * 1.5</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="51">
-        <f t="shared" ref="L14:L17" si="20">J14</f>
-        <v>1.1403121428571428</v>
-      </c>
+        <v>12.243905113636341</v>
+      </c>
+      <c r="L14" s="49"/>
       <c r="M14" s="40"/>
       <c r="N14" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I14)</f>
-        <v>534.96173846994475</v>
+        <v>0</v>
       </c>
       <c r="O14" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I14)</f>
-        <v>320.97704308196688</v>
+        <v>0</v>
       </c>
       <c r="P14" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I14,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>534.96173846994475</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I14,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
@@ -4979,85 +5170,76 @@
       </c>
       <c r="R14" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I14)</f>
-        <v>198.7</v>
+        <v>0</v>
       </c>
       <c r="S14" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I14,  TYNDP2024!$B:$B,S$4)</f>
-        <v>198.7</v>
+        <v>0</v>
       </c>
       <c r="T14" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I14,  TYNDP2024!$B:$B,T$4)</f>
         <v>0</v>
       </c>
-      <c r="U14" s="54">
-        <f t="shared" ref="U14:U17" si="21">N14</f>
-        <v>534.96173846994475</v>
-      </c>
-      <c r="V14" s="54">
-        <f t="shared" ref="V14:V17" si="22">P14</f>
-        <v>534.96173846994475</v>
-      </c>
-      <c r="W14" s="54">
-        <f t="shared" ref="W14:W17" si="23">Q14</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="46">
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="Y14" s="46" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="Z14" s="46" t="str">
         <f t="shared" si="7"/>
-        <v>802.45063221123917</v>
-      </c>
-      <c r="Y14" s="46">
-        <f t="shared" si="2"/>
-        <v>802.45063221123917</v>
-      </c>
-      <c r="Z14" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C15" s="56">
-        <f t="shared" si="4"/>
-        <v>0.48494855378196877</v>
+        <f t="shared" si="8"/>
+        <v>0.40555118147305402</v>
       </c>
       <c r="D15" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56">
-        <f t="shared" si="6"/>
-        <v>0.1939774817185724</v>
+        <f t="shared" si="10"/>
+        <v>0.16221885038449577</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J15" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I15)</f>
-        <v>5.0979269230769226</v>
+        <v>1.1403121428571428</v>
       </c>
       <c r="K15" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I15) / 10^3 * 1.5</f>
         <v>0</v>
       </c>
       <c r="L15" s="51">
-        <f t="shared" si="20"/>
-        <v>5.0979269230769226</v>
+        <f t="shared" ref="L15:L18" si="24">J15</f>
+        <v>1.1403121428571428</v>
       </c>
       <c r="M15" s="40"/>
       <c r="N15" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I15)</f>
-        <v>2000.0579568926578</v>
+        <v>534.96173846994475</v>
       </c>
       <c r="O15" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I15)</f>
-        <v>1200.0347741355947</v>
+        <v>320.97704308196688</v>
       </c>
       <c r="P15" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I15,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>2000.0579568926578</v>
+        <v>534.96173846994475</v>
       </c>
       <c r="Q15" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I15,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
@@ -5065,85 +5247,85 @@
       </c>
       <c r="R15" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I15)</f>
-        <v>743.57</v>
+        <v>198.7</v>
       </c>
       <c r="S15" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I15,  TYNDP2024!$B:$B,S$4)</f>
-        <v>743.57</v>
+        <v>198.7</v>
       </c>
       <c r="T15" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I15,  TYNDP2024!$B:$B,T$4)</f>
         <v>0</v>
       </c>
       <c r="U15" s="54">
-        <f t="shared" si="21"/>
-        <v>2000.0579568926578</v>
+        <f t="shared" ref="U15:U18" si="25">N15</f>
+        <v>534.96173846994475</v>
       </c>
       <c r="V15" s="54">
-        <f t="shared" si="22"/>
-        <v>2000.0579568926578</v>
+        <f t="shared" ref="V15:V18" si="26">P15</f>
+        <v>534.96173846994475</v>
       </c>
       <c r="W15" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="W15:W18" si="27">Q15</f>
         <v>0</v>
       </c>
       <c r="X15" s="46">
+        <f t="shared" si="11"/>
+        <v>802.45063221123917</v>
+      </c>
+      <c r="Y15" s="46">
+        <f t="shared" si="6"/>
+        <v>802.45063221123917</v>
+      </c>
+      <c r="Z15" s="46">
         <f t="shared" si="7"/>
-        <v>3000.1169365083515</v>
-      </c>
-      <c r="Y15" s="46">
-        <f t="shared" si="2"/>
-        <v>3000.1169365083515</v>
-      </c>
-      <c r="Z15" s="46">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="56">
-        <f t="shared" si="4"/>
-        <v>0.63416659197298786</v>
+        <f t="shared" si="8"/>
+        <v>0.48494855378196877</v>
       </c>
       <c r="D16" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56">
-        <f t="shared" si="6"/>
-        <v>0.25366410012282725</v>
+        <f t="shared" si="10"/>
+        <v>0.1939774817185724</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I16)</f>
-        <v>22.884912390109893</v>
+        <v>5.0979269230769226</v>
       </c>
       <c r="K16" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I16) / 10^3 * 1.5</f>
         <v>0</v>
       </c>
       <c r="L16" s="51">
-        <f t="shared" si="20"/>
-        <v>22.884912390109893</v>
+        <f t="shared" si="24"/>
+        <v>5.0979269230769226</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I16)</f>
-        <v>6865.7903520213013</v>
+        <v>2000.0579568926578</v>
       </c>
       <c r="O16" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I16)</f>
-        <v>4119.4742112127806</v>
+        <v>1200.0347741355947</v>
       </c>
       <c r="P16" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I16,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>6865.7903520213013</v>
+        <v>2000.0579568926578</v>
       </c>
       <c r="Q16" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I16,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
@@ -5151,85 +5333,85 @@
       </c>
       <c r="R16" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I16)</f>
-        <v>2818.0549999999998</v>
+        <v>743.57</v>
       </c>
       <c r="S16" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I16,  TYNDP2024!$B:$B,S$4)</f>
-        <v>2818.0549999999998</v>
+        <v>743.57</v>
       </c>
       <c r="T16" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I16,  TYNDP2024!$B:$B,T$4)</f>
         <v>0</v>
       </c>
       <c r="U16" s="54">
-        <f t="shared" si="21"/>
-        <v>6865.7903520213013</v>
+        <f t="shared" si="25"/>
+        <v>2000.0579568926578</v>
       </c>
       <c r="V16" s="54">
-        <f t="shared" si="22"/>
-        <v>6865.7903520213013</v>
+        <f t="shared" si="26"/>
+        <v>2000.0579568926578</v>
       </c>
       <c r="W16" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X16" s="46">
+        <f t="shared" si="11"/>
+        <v>3000.1169365083515</v>
+      </c>
+      <c r="Y16" s="46">
+        <f t="shared" si="6"/>
+        <v>3000.1169365083515</v>
+      </c>
+      <c r="Z16" s="46">
         <f t="shared" si="7"/>
-        <v>10298.788515917111</v>
-      </c>
-      <c r="Y16" s="46">
-        <f t="shared" si="2"/>
-        <v>10298.788515917111</v>
-      </c>
-      <c r="Z16" s="46">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="56">
-        <f t="shared" si="4"/>
-        <v>0.52876801413131469</v>
+        <f t="shared" si="8"/>
+        <v>0.63416659197298786</v>
       </c>
       <c r="D17" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56">
-        <f t="shared" si="6"/>
-        <v>0.21150509058046937</v>
+        <f t="shared" si="10"/>
+        <v>0.25366410012282725</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I17)</f>
-        <v>5.2148953846153843</v>
+        <v>22.884912390109893</v>
       </c>
       <c r="K17" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I17) / 10^3 * 1.5</f>
         <v>0</v>
       </c>
       <c r="L17" s="51">
-        <f t="shared" si="20"/>
-        <v>5.2148953846153843</v>
+        <f t="shared" si="24"/>
+        <v>22.884912390109893</v>
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I17)</f>
-        <v>1876.3984595578968</v>
+        <v>6865.7903520213013</v>
       </c>
       <c r="O17" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I17)</f>
-        <v>1125.8390757347381</v>
+        <v>4119.4742112127806</v>
       </c>
       <c r="P17" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I17,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>1876.3984595578968</v>
+        <v>6865.7903520213013</v>
       </c>
       <c r="Q17" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I17,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
@@ -5237,85 +5419,85 @@
       </c>
       <c r="R17" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I17)</f>
-        <v>698.09</v>
+        <v>2818.0549999999998</v>
       </c>
       <c r="S17" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I17,  TYNDP2024!$B:$B,S$4)</f>
-        <v>698.09</v>
+        <v>2818.0549999999998</v>
       </c>
       <c r="T17" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I17,  TYNDP2024!$B:$B,T$4)</f>
         <v>0</v>
       </c>
       <c r="U17" s="54">
-        <f t="shared" si="21"/>
-        <v>1876.3984595578968</v>
+        <f t="shared" si="25"/>
+        <v>6865.7903520213013</v>
       </c>
       <c r="V17" s="54">
-        <f t="shared" si="22"/>
-        <v>1876.3984595578968</v>
+        <f t="shared" si="26"/>
+        <v>6865.7903520213013</v>
       </c>
       <c r="W17" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X17" s="46">
+        <f t="shared" si="11"/>
+        <v>10298.788515917111</v>
+      </c>
+      <c r="Y17" s="46">
+        <f t="shared" si="6"/>
+        <v>10298.788515917111</v>
+      </c>
+      <c r="Z17" s="46">
         <f t="shared" si="7"/>
-        <v>2814.6258355952009</v>
-      </c>
-      <c r="Y17" s="46">
-        <f t="shared" si="2"/>
-        <v>2814.6258355952009</v>
-      </c>
-      <c r="Z17" s="46">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="56" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="56" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>18</v>
+      </c>
+      <c r="C18" s="56">
+        <f t="shared" si="8"/>
+        <v>0.52876801413131469</v>
+      </c>
+      <c r="D18" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56">
-        <f t="shared" si="6"/>
-        <v>0.3846193745466388</v>
+        <f t="shared" si="10"/>
+        <v>0.21150509058046937</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J18" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I18)</f>
-        <v>0</v>
+        <v>5.2148953846153843</v>
       </c>
       <c r="K18" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I18) / 10^3 * 1.5</f>
-        <v>15.239273863636374</v>
-      </c>
-      <c r="L18" s="50">
-        <f>K18</f>
-        <v>15.239273863636374</v>
+        <v>0</v>
+      </c>
+      <c r="L18" s="51">
+        <f t="shared" si="24"/>
+        <v>5.2148953846153843</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I18)</f>
-        <v>0</v>
+        <v>1876.3984595578968</v>
       </c>
       <c r="O18" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I18)</f>
-        <v>0</v>
+        <v>1125.8390757347381</v>
       </c>
       <c r="P18" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I18,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>0</v>
+        <v>1876.3984595578968</v>
       </c>
       <c r="Q18" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I18,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
@@ -5323,398 +5505,411 @@
       </c>
       <c r="R18" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I18)</f>
-        <v>3015.32</v>
+        <v>698.09</v>
       </c>
       <c r="S18" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I18,  TYNDP2024!$B:$B,S$4)</f>
-        <v>2624.82</v>
+        <v>698.09</v>
       </c>
       <c r="T18" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I18,  TYNDP2024!$B:$B,T$4)</f>
-        <v>390.5</v>
-      </c>
-      <c r="U18" s="53">
-        <f>R18</f>
-        <v>3015.32</v>
-      </c>
-      <c r="V18" s="53">
-        <f t="shared" ref="V18" si="24">S18</f>
-        <v>2624.82</v>
-      </c>
-      <c r="W18" s="53">
-        <f t="shared" ref="W18" si="25">T18</f>
-        <v>390.5</v>
+        <v>0</v>
+      </c>
+      <c r="U18" s="54">
+        <f t="shared" si="25"/>
+        <v>1876.3984595578968</v>
+      </c>
+      <c r="V18" s="54">
+        <f t="shared" si="26"/>
+        <v>1876.3984595578968</v>
+      </c>
+      <c r="W18" s="54">
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="X18" s="46">
+        <f t="shared" si="11"/>
+        <v>2814.6258355952009</v>
+      </c>
+      <c r="Y18" s="46">
+        <f t="shared" si="6"/>
+        <v>2814.6258355952009</v>
+      </c>
+      <c r="Z18" s="46">
         <f t="shared" si="7"/>
-        <v>4523.0252302523022</v>
-      </c>
-      <c r="Y18" s="46">
-        <f t="shared" si="2"/>
-        <v>3937.2693726937268</v>
-      </c>
-      <c r="Z18" s="46">
-        <f t="shared" si="3"/>
-        <v>585.7558575585756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="56">
-        <f t="shared" si="4"/>
-        <v>0.88110409050344607</v>
-      </c>
-      <c r="D19" s="56">
-        <f t="shared" si="5"/>
-        <v>0.18148118669889057</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="56" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="56" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56">
-        <f t="shared" si="6"/>
-        <v>0.30984926544234476</v>
+        <f t="shared" si="10"/>
+        <v>0.3846193745466388</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J19" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I19)</f>
-        <v>3.9464943131868133</v>
+        <v>0</v>
       </c>
       <c r="K19" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I19) / 10^3 * 1.5</f>
-        <v>0.8128602272727331</v>
-      </c>
-      <c r="L19" s="52">
-        <f>AVERAGE(J19:K19)</f>
-        <v>2.3796772702297733</v>
+        <v>15.239273863636374</v>
+      </c>
+      <c r="L19" s="50">
+        <f>K19</f>
+        <v>15.239273863636374</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I19)</f>
-        <v>852.17523163302758</v>
+        <v>0</v>
       </c>
       <c r="O19" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I19)</f>
-        <v>511.30513897981666</v>
+        <v>0</v>
       </c>
       <c r="P19" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I19,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>564.53248783260506</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I19,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>287.64274380042252</v>
+        <v>0</v>
       </c>
       <c r="R19" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I19)</f>
-        <v>316.77999999999997</v>
+        <v>3015.32</v>
       </c>
       <c r="S19" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I19,  TYNDP2024!$B:$B,S$4)</f>
-        <v>209.89</v>
+        <v>2624.82</v>
       </c>
       <c r="T19" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I19,  TYNDP2024!$B:$B,T$4)</f>
-        <v>106.89</v>
-      </c>
-      <c r="U19" s="55">
-        <f>AVERAGE(N19,R19)</f>
-        <v>584.47761581651378</v>
-      </c>
-      <c r="V19" s="55">
-        <f>AVERAGE(P19,S19)</f>
-        <v>387.21124391630252</v>
-      </c>
-      <c r="W19" s="55">
-        <f>AVERAGE(Q19,T19)</f>
-        <v>197.26637190021125</v>
+        <v>390.5</v>
+      </c>
+      <c r="U19" s="53">
+        <f>R19</f>
+        <v>3015.32</v>
+      </c>
+      <c r="V19" s="53">
+        <f t="shared" ref="V19" si="28">S19</f>
+        <v>2624.82</v>
+      </c>
+      <c r="W19" s="53">
+        <f t="shared" ref="W19" si="29">T19</f>
+        <v>390.5</v>
       </c>
       <c r="X19" s="46">
+        <f t="shared" si="11"/>
+        <v>4523.0252302523022</v>
+      </c>
+      <c r="Y19" s="46">
+        <f t="shared" si="6"/>
+        <v>3937.2693726937268</v>
+      </c>
+      <c r="Z19" s="46">
         <f t="shared" si="7"/>
-        <v>876.72519097668044</v>
-      </c>
-      <c r="Y19" s="46">
-        <f t="shared" si="2"/>
-        <v>580.82267410119482</v>
-      </c>
-      <c r="Z19" s="46">
-        <f t="shared" si="3"/>
-        <v>295.90251687548562</v>
+        <v>585.7558575585756</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="56">
-        <f t="shared" si="4"/>
-        <v>0.99610074192525844</v>
+        <f t="shared" si="8"/>
+        <v>0.88110409050344607</v>
       </c>
       <c r="D20" s="56">
-        <f t="shared" si="5"/>
-        <v>0.15711089315422613</v>
+        <f t="shared" si="9"/>
+        <v>0.18148118669889057</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56">
-        <f t="shared" si="6"/>
-        <v>0.33620226471511228</v>
+        <f t="shared" si="10"/>
+        <v>0.30984926544234476</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I20)</f>
-        <v>2.2378212295793301</v>
+        <v>3.9464943131868133</v>
       </c>
       <c r="K20" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I20) / 10^3 * 1.5</f>
-        <v>0.35296238352272813</v>
+        <v>0.8128602272727331</v>
       </c>
       <c r="L20" s="52">
         <f>AVERAGE(J20:K20)</f>
-        <v>1.295391806551029</v>
+        <v>2.3796772702297733</v>
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I20)</f>
-        <v>427.43174078754384</v>
+        <v>852.17523163302758</v>
       </c>
       <c r="O20" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I20)</f>
-        <v>256.45904447252627</v>
+        <v>511.30513897981666</v>
       </c>
       <c r="P20" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I20,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>427.43174078754384</v>
+        <v>564.53248783260506</v>
       </c>
       <c r="Q20" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I20,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>0</v>
+        <v>287.64274380042252</v>
       </c>
       <c r="R20" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I20)</f>
-        <v>159.018</v>
+        <v>316.77999999999997</v>
       </c>
       <c r="S20" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I20,  TYNDP2024!$B:$B,S$4)</f>
-        <v>159.018</v>
+        <v>209.89</v>
       </c>
       <c r="T20" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I20,  TYNDP2024!$B:$B,T$4)</f>
-        <v>0</v>
+        <v>106.89</v>
       </c>
       <c r="U20" s="55">
         <f>AVERAGE(N20,R20)</f>
-        <v>293.22487039377194</v>
+        <v>584.47761581651378</v>
       </c>
       <c r="V20" s="55">
-        <f t="shared" ref="V20:W21" si="26">AVERAGE(P20,S20)</f>
-        <v>293.22487039377194</v>
+        <f>AVERAGE(P20,S20)</f>
+        <v>387.21124391630252</v>
       </c>
       <c r="W20" s="55">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f>AVERAGE(Q20,T20)</f>
+        <v>197.26637190021125</v>
       </c>
       <c r="X20" s="46">
+        <f t="shared" si="11"/>
+        <v>876.72519097668044</v>
+      </c>
+      <c r="Y20" s="46">
+        <f t="shared" si="6"/>
+        <v>580.82267410119482</v>
+      </c>
+      <c r="Z20" s="46">
         <f t="shared" si="7"/>
-        <v>439.84170400769796</v>
-      </c>
-      <c r="Y20" s="46">
-        <f t="shared" si="2"/>
-        <v>439.84170400769796</v>
-      </c>
-      <c r="Z20" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>295.90251687548562</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="56">
-        <f t="shared" si="4"/>
-        <v>0.35857572588601622</v>
+        <f t="shared" si="8"/>
+        <v>0.99610074192525844</v>
       </c>
       <c r="D21" s="56">
-        <f t="shared" si="5"/>
-        <v>4.2281044644683491E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.15711089315422613</v>
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56">
-        <f t="shared" si="6"/>
-        <v>0.11690924866426063</v>
+        <f t="shared" si="10"/>
+        <v>0.33620226471511228</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I21)</f>
-        <v>1.5351418681318685</v>
+        <v>2.2378212295793301</v>
       </c>
       <c r="K21" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I21) / 10^3 * 1.5</f>
-        <v>0.18101448920454549</v>
+        <v>0.35296238352272813</v>
       </c>
       <c r="L21" s="52">
         <f>AVERAGE(J21:K21)</f>
-        <v>0.85807817866820701</v>
+        <v>1.295391806551029</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I21)</f>
-        <v>814.53973244418739</v>
+        <v>427.43174078754384</v>
       </c>
       <c r="O21" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I21)</f>
-        <v>488.7238394665124</v>
+        <v>256.45904447252627</v>
       </c>
       <c r="P21" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I21,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>451.62599026608405</v>
+        <v>427.43174078754384</v>
       </c>
       <c r="Q21" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I21,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>362.91374217810329</v>
+        <v>0</v>
       </c>
       <c r="R21" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I21)</f>
-        <v>302.60199999999998</v>
+        <v>159.018</v>
       </c>
       <c r="S21" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I21,  TYNDP2024!$B:$B,S$4)</f>
-        <v>167.65</v>
+        <v>159.018</v>
       </c>
       <c r="T21" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I21,  TYNDP2024!$B:$B,T$4)</f>
-        <v>134.952</v>
+        <v>0</v>
       </c>
       <c r="U21" s="55">
         <f>AVERAGE(N21,R21)</f>
-        <v>558.57086622209363</v>
+        <v>293.22487039377194</v>
       </c>
       <c r="V21" s="55">
-        <f t="shared" si="26"/>
-        <v>309.63799513304201</v>
+        <f t="shared" ref="V21:W22" si="30">AVERAGE(P21,S21)</f>
+        <v>293.22487039377194</v>
       </c>
       <c r="W21" s="55">
-        <f t="shared" si="26"/>
-        <v>248.93287108905164</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="X21" s="46">
+        <f t="shared" si="11"/>
+        <v>439.84170400769796</v>
+      </c>
+      <c r="Y21" s="46">
+        <f t="shared" si="6"/>
+        <v>439.84170400769796</v>
+      </c>
+      <c r="Z21" s="46">
         <f t="shared" si="7"/>
-        <v>837.8646779799202</v>
-      </c>
-      <c r="Y21" s="46">
-        <f t="shared" si="2"/>
-        <v>464.46163731593617</v>
-      </c>
-      <c r="Z21" s="46">
-        <f t="shared" si="3"/>
-        <v>373.40304066398409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="56" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="56" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="56">
+        <f t="shared" si="8"/>
+        <v>0.35857572588601622</v>
+      </c>
+      <c r="D22" s="56">
+        <f t="shared" si="9"/>
+        <v>4.2281044644683491E-2</v>
       </c>
       <c r="E22" s="56"/>
-      <c r="F22" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="I22" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="49"/>
+      <c r="F22" s="56">
+        <f t="shared" si="10"/>
+        <v>0.11690924866426063</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="49">
+        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I22)</f>
+        <v>1.5351418681318685</v>
+      </c>
       <c r="K22" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I22) / 10^3 * 1.5</f>
-        <v>7.9047771613635849</v>
-      </c>
-      <c r="L22" s="49"/>
+        <v>0.18101448920454549</v>
+      </c>
+      <c r="L22" s="52">
+        <f>AVERAGE(J22:K22)</f>
+        <v>0.85807817866820701</v>
+      </c>
       <c r="M22" s="40"/>
       <c r="N22" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I22)</f>
-        <v>0</v>
+        <v>814.53973244418739</v>
       </c>
       <c r="O22" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I22)</f>
-        <v>0</v>
+        <v>488.7238394665124</v>
       </c>
       <c r="P22" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I22,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>0</v>
+        <v>451.62599026608405</v>
       </c>
       <c r="Q22" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I22,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>0</v>
+        <v>362.91374217810329</v>
       </c>
       <c r="R22" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I22)</f>
-        <v>0</v>
+        <v>302.60199999999998</v>
       </c>
       <c r="S22" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I22,  TYNDP2024!$B:$B,S$4)</f>
-        <v>0</v>
+        <v>167.65</v>
       </c>
       <c r="T22" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I22,  TYNDP2024!$B:$B,T$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46" t="str">
+        <v>134.952</v>
+      </c>
+      <c r="U22" s="55">
+        <f>AVERAGE(N22,R22)</f>
+        <v>558.57086622209363</v>
+      </c>
+      <c r="V22" s="55">
+        <f t="shared" si="30"/>
+        <v>309.63799513304201</v>
+      </c>
+      <c r="W22" s="55">
+        <f t="shared" si="30"/>
+        <v>248.93287108905164</v>
+      </c>
+      <c r="X22" s="46">
+        <f t="shared" si="11"/>
+        <v>837.8646779799202</v>
+      </c>
+      <c r="Y22" s="46">
+        <f t="shared" si="6"/>
+        <v>464.46163731593617</v>
+      </c>
+      <c r="Z22" s="46">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="Y22" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="Z22" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
+        <v>373.40304066398409</v>
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>113</v>
+      <c r="B23" s="44" t="s">
+        <v>106</v>
       </c>
       <c r="C23" s="56" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D23" s="56" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
-      <c r="I23" t="s">
-        <v>113</v>
+      <c r="I23" s="44" t="s">
+        <v>106</v>
       </c>
       <c r="J23" s="49"/>
       <c r="K23" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I23) / 10^3 * 1.5</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="49" t="s">
-        <v>119</v>
-      </c>
+        <v>7.9047771613635849</v>
+      </c>
+      <c r="L23" s="49"/>
       <c r="M23" s="40"/>
       <c r="N23" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I23)</f>
@@ -5744,52 +5939,43 @@
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I23,  TYNDP2024!$B:$B,T$4)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="V23" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="W23" s="46" t="s">
-        <v>119</v>
-      </c>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
       <c r="X23" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="Y23" s="46" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="Z23" s="46" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="Y23" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="Z23" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="C24" s="56" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="56" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="49">
-        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I24)</f>
-        <v>0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="J24" s="49"/>
       <c r="K24" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I24) / 10^3 * 1.5</f>
         <v>0</v>
@@ -5800,15 +5986,15 @@
       <c r="M24" s="40"/>
       <c r="N24" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I24)</f>
-        <v>18.817749594420167</v>
+        <v>0</v>
       </c>
       <c r="O24" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I24)</f>
-        <v>11.290649756652103</v>
+        <v>0</v>
       </c>
       <c r="P24" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I24,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>18.817749594420167</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I24,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
@@ -5816,11 +6002,11 @@
       </c>
       <c r="R24" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I24)</f>
-        <v>7.26</v>
+        <v>0</v>
       </c>
       <c r="S24" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I24,  TYNDP2024!$B:$B,S$4)</f>
-        <v>7.26</v>
+        <v>0</v>
       </c>
       <c r="T24" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I24,  TYNDP2024!$B:$B,T$4)</f>
@@ -5836,56 +6022,61 @@
         <v>119</v>
       </c>
       <c r="X24" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="Y24" s="46" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="Z24" s="46" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="Y24" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="Z24" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="56" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="56" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
-      <c r="I25" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="J25" s="49"/>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="49">
+        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I25)</f>
+        <v>0</v>
+      </c>
       <c r="K25" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I25) / 10^3 * 1.5</f>
-        <v>2.3465666573863198</v>
-      </c>
-      <c r="L25" s="49"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="49" t="s">
+        <v>119</v>
+      </c>
       <c r="M25" s="40"/>
       <c r="N25" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I25)</f>
-        <v>0</v>
+        <v>18.817749594420167</v>
       </c>
       <c r="O25" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I25)</f>
-        <v>0</v>
+        <v>11.290649756652103</v>
       </c>
       <c r="P25" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I25,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>0</v>
+        <v>18.817749594420167</v>
       </c>
       <c r="Q25" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I25,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
@@ -5893,72 +6084,72 @@
       </c>
       <c r="R25" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I25)</f>
-        <v>0</v>
+        <v>7.26</v>
       </c>
       <c r="S25" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I25,  TYNDP2024!$B:$B,S$4)</f>
-        <v>0</v>
+        <v>7.26</v>
       </c>
       <c r="T25" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I25,  TYNDP2024!$B:$B,T$4)</f>
         <v>0</v>
       </c>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
+      <c r="U25" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="V25" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="W25" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="X25" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="Y25" s="46" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="Z25" s="46" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="Y25" s="46" t="str">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="56" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="56" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56" t="str">
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
-      <c r="Z25" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56">
-        <f t="shared" si="6"/>
-        <v>0.67388736444092534</v>
-      </c>
-      <c r="I26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="49">
-        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I26)</f>
-        <v>0</v>
-      </c>
+      <c r="I26" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="49"/>
       <c r="K26" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I26) / 10^3 * 1.5</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="49">
-        <f>$K$25/SUM($R$26:$R$28)*R26</f>
-        <v>0.17709937036877885</v>
-      </c>
+        <v>2.3465666573863198</v>
+      </c>
+      <c r="L26" s="49"/>
       <c r="M26" s="40"/>
       <c r="N26" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I26)</f>
-        <v>53.76499884120048</v>
+        <v>0</v>
       </c>
       <c r="O26" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I26)</f>
-        <v>32.258999304720291</v>
+        <v>0</v>
       </c>
       <c r="P26" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I26,     'H2Heavy, capacities'!$B:$B, P$4)</f>
@@ -5966,11 +6157,11 @@
       </c>
       <c r="Q26" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I26,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>53.76499884120048</v>
+        <v>0</v>
       </c>
       <c r="R26" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I26)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S26" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I26,  TYNDP2024!$B:$B,S$4)</f>
@@ -5978,52 +6169,43 @@
       </c>
       <c r="T26" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I26,  TYNDP2024!$B:$B,T$4)</f>
-        <v>20</v>
-      </c>
-      <c r="U26" s="53">
-        <f t="shared" ref="U26:W28" si="27">R26</f>
-        <v>20</v>
-      </c>
-      <c r="V26" s="53">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="53">
-        <f t="shared" si="27"/>
-        <v>20</v>
-      </c>
-      <c r="X26" s="46">
+        <v>0</v>
+      </c>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="Y26" s="46" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="Z26" s="46" t="str">
         <f t="shared" si="7"/>
-        <v>30.000300003000028</v>
-      </c>
-      <c r="Y26" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="46">
-        <f t="shared" si="3"/>
-        <v>30.000300003000028</v>
+        <v>-</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C27" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D27" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.67388736444092534</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J27" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I27)</f>
@@ -6034,17 +6216,17 @@
         <v>0</v>
       </c>
       <c r="L27" s="49">
-        <f>$K$25/SUM($R$26:$R$28)*R27</f>
-        <v>1.7267188610955937</v>
+        <f>$K$26/SUM($R$27:$R$29)*R27</f>
+        <v>0.17709937036877885</v>
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I27)</f>
-        <v>524.20873870170476</v>
+        <v>53.76499884120048</v>
       </c>
       <c r="O27" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I27)</f>
-        <v>314.52524322102283</v>
+        <v>32.258999304720291</v>
       </c>
       <c r="P27" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I27,     'H2Heavy, capacities'!$B:$B, P$4)</f>
@@ -6052,11 +6234,11 @@
       </c>
       <c r="Q27" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I27,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>524.20873870170476</v>
+        <v>53.76499884120048</v>
       </c>
       <c r="R27" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I27)</f>
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="S27" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I27,  TYNDP2024!$B:$B,S$4)</f>
@@ -6064,52 +6246,52 @@
       </c>
       <c r="T27" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I27,  TYNDP2024!$B:$B,T$4)</f>
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="U27" s="53">
-        <f t="shared" si="27"/>
-        <v>195</v>
+        <f t="shared" ref="U27:W29" si="31">R27</f>
+        <v>20</v>
       </c>
       <c r="V27" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W27" s="53">
-        <f t="shared" si="27"/>
-        <v>195</v>
+        <f t="shared" si="31"/>
+        <v>20</v>
       </c>
       <c r="X27" s="46">
+        <f t="shared" si="11"/>
+        <v>30.000300003000028</v>
+      </c>
+      <c r="Y27" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="46">
         <f t="shared" si="7"/>
-        <v>292.50292502925026</v>
-      </c>
-      <c r="Y27" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="46">
-        <f t="shared" si="3"/>
-        <v>292.50292502925026</v>
+        <v>30.000300003000028</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C28" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D28" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.67388736444092534</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J28" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I28)</f>
@@ -6120,17 +6302,17 @@
         <v>0</v>
       </c>
       <c r="L28" s="49">
-        <f>$K$25/SUM($R$26:$R$28)*R28</f>
-        <v>0.44274842592194713</v>
+        <f>$K$26/SUM($R$27:$R$29)*R28</f>
+        <v>1.7267188610955937</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I28)</f>
-        <v>134.41249710300121</v>
+        <v>524.20873870170476</v>
       </c>
       <c r="O28" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I28)</f>
-        <v>80.64749826180072</v>
+        <v>314.52524322102283</v>
       </c>
       <c r="P28" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I28,     'H2Heavy, capacities'!$B:$B, P$4)</f>
@@ -6138,11 +6320,11 @@
       </c>
       <c r="Q28" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I28,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>134.41249710300121</v>
+        <v>524.20873870170476</v>
       </c>
       <c r="R28" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I28)</f>
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="S28" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I28,  TYNDP2024!$B:$B,S$4)</f>
@@ -6150,35 +6332,121 @@
       </c>
       <c r="T28" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I28,  TYNDP2024!$B:$B,T$4)</f>
+        <v>195</v>
+      </c>
+      <c r="U28" s="53">
+        <f t="shared" si="31"/>
+        <v>195</v>
+      </c>
+      <c r="V28" s="53">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="53">
+        <f t="shared" si="31"/>
+        <v>195</v>
+      </c>
+      <c r="X28" s="46">
+        <f t="shared" si="11"/>
+        <v>292.50292502925026</v>
+      </c>
+      <c r="Y28" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="46">
+        <f t="shared" si="7"/>
+        <v>292.50292502925026</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56">
+        <f t="shared" si="10"/>
+        <v>0.67388736444092534</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="49">
+        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="49">
+        <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I29) / 10^3 * 1.5</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="49">
+        <f>$K$26/SUM($R$27:$R$29)*R29</f>
+        <v>0.44274842592194713</v>
+      </c>
+      <c r="M29" s="40"/>
+      <c r="N29" s="46">
+        <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I29)</f>
+        <v>134.41249710300121</v>
+      </c>
+      <c r="O29" s="46">
+        <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I29)</f>
+        <v>80.64749826180072</v>
+      </c>
+      <c r="P29" s="46">
+        <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I29,     'H2Heavy, capacities'!$B:$B, P$4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="46">
+        <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I29,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
+        <v>134.41249710300121</v>
+      </c>
+      <c r="R29" s="46">
+        <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I29)</f>
         <v>50</v>
       </c>
-      <c r="U28" s="53">
-        <f t="shared" si="27"/>
+      <c r="S29" s="46">
+        <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I29,  TYNDP2024!$B:$B,S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="46">
+        <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I29,  TYNDP2024!$B:$B,T$4)</f>
         <v>50</v>
       </c>
-      <c r="V28" s="53">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="53">
-        <f t="shared" si="27"/>
+      <c r="U29" s="53">
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
-      <c r="X28" s="46">
+      <c r="V29" s="53">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="53">
+        <f t="shared" si="31"/>
+        <v>50</v>
+      </c>
+      <c r="X29" s="46">
+        <f t="shared" si="11"/>
+        <v>75.000750007500073</v>
+      </c>
+      <c r="Y29" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="46">
         <f t="shared" si="7"/>
         <v>75.000750007500073</v>
       </c>
-      <c r="Y28" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="46">
-        <f t="shared" si="3"/>
-        <v>75.000750007500073</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Y29" s="43"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y30" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7315,10 +7583,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21420AE7-C1DE-45D2-B734-1504B0A55513}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7328,7 +7596,7 @@
     <col min="3" max="4" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -7342,7 +7610,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="45" t="s">
@@ -7352,564 +7620,1731 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="46">
-        <v>614.625</v>
-      </c>
-      <c r="D3" s="46">
-        <v>614.625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="69">
+        <f>SUMIFS($M:$M,$I:$I,$A3,$J:$J,$B3,$L:$L,C$1)</f>
+        <v>760.64499999999998</v>
+      </c>
+      <c r="D3" s="69">
+        <f t="shared" ref="D3:D44" si="0">SUMIFS($M:$M,$I:$I,$A3,$J:$J,$B3,$L:$L,D$1)</f>
+        <v>760.64499999999998</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="46">
-        <v>13067.585999999999</v>
-      </c>
-      <c r="D4" s="46">
-        <v>5835.1959999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="69">
+        <f t="shared" ref="C4:D23" si="1">SUMIFS($M:$M,$I:$I,$A4,$J:$J,$B4,$L:$L,C$1)</f>
+        <v>614.625</v>
+      </c>
+      <c r="D4" s="69">
+        <f t="shared" si="0"/>
+        <v>614.625</v>
+      </c>
+      <c r="I4" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M4" s="67">
+        <v>845.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="46">
-        <v>0</v>
-      </c>
-      <c r="D5" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="69">
+        <f t="shared" si="1"/>
+        <v>13067.585999999999</v>
+      </c>
+      <c r="D5" s="69">
+        <f t="shared" si="0"/>
+        <v>5835.1959999999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5">
+        <v>2030</v>
+      </c>
+      <c r="M5">
+        <v>760.64499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="46">
-        <v>7.26</v>
-      </c>
-      <c r="D6" s="46">
-        <v>7.26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M6" s="67">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="46">
-        <v>167.65</v>
-      </c>
-      <c r="D7" s="46">
-        <v>134.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="69">
+        <f t="shared" si="1"/>
+        <v>7.26</v>
+      </c>
+      <c r="D7" s="69">
+        <f t="shared" si="0"/>
+        <v>7.26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7">
+        <v>2030</v>
+      </c>
+      <c r="M7">
+        <v>614.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="46">
-        <v>1730</v>
-      </c>
-      <c r="D8" s="46">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="69">
+        <f t="shared" si="1"/>
+        <v>167.65</v>
+      </c>
+      <c r="D8" s="69">
+        <f t="shared" si="0"/>
+        <v>134.65</v>
+      </c>
+      <c r="I8" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M8" s="67">
+        <v>566.59900000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="46">
-        <v>2624.82</v>
-      </c>
-      <c r="D9" s="46">
-        <v>2624.82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="69">
+        <f t="shared" si="1"/>
+        <v>1730</v>
+      </c>
+      <c r="D9" s="69">
+        <f t="shared" si="0"/>
+        <v>1730</v>
+      </c>
+      <c r="I9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9">
+        <v>2030</v>
+      </c>
+      <c r="M9">
+        <v>425.88900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="46">
-        <v>2426</v>
-      </c>
-      <c r="D10" s="46">
-        <v>2451.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="69">
+        <f t="shared" si="1"/>
+        <v>2624.82</v>
+      </c>
+      <c r="D10" s="69">
+        <f t="shared" si="0"/>
+        <v>2624.82</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M10" s="67">
+        <v>7280.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="46">
-        <v>209.89</v>
-      </c>
-      <c r="D11" s="46">
-        <v>209.89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="69">
+        <f t="shared" si="1"/>
+        <v>2426</v>
+      </c>
+      <c r="D11" s="69">
+        <f t="shared" si="0"/>
+        <v>2451.06</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11">
+        <v>2030</v>
+      </c>
+      <c r="M11">
+        <v>13067.585999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="46">
-        <v>159.018</v>
-      </c>
-      <c r="D12" s="46">
-        <v>299.92700000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="69">
+        <f t="shared" si="1"/>
+        <v>209.89</v>
+      </c>
+      <c r="D12" s="69">
+        <f t="shared" si="0"/>
+        <v>209.89</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M12" s="67">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="46">
-        <v>415</v>
-      </c>
-      <c r="D13" s="46">
-        <v>208.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="69">
+        <f t="shared" si="1"/>
+        <v>159.018</v>
+      </c>
+      <c r="D13" s="69">
+        <f t="shared" si="0"/>
+        <v>299.92700000000002</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13">
+        <v>2030</v>
+      </c>
+      <c r="M13">
+        <v>134.952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="46">
-        <v>0</v>
-      </c>
-      <c r="D14" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="69">
+        <f t="shared" si="1"/>
+        <v>415</v>
+      </c>
+      <c r="D14" s="69">
+        <f t="shared" si="0"/>
+        <v>208.6</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M14" s="67">
+        <v>167.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="46">
-        <v>0</v>
-      </c>
-      <c r="D15" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15">
+        <v>2030</v>
+      </c>
+      <c r="M15">
+        <v>3980.011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="46">
-        <v>0</v>
-      </c>
-      <c r="D16" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M16" s="67">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="46">
-        <v>2155.0540000000001</v>
-      </c>
-      <c r="D17" s="46">
-        <v>1969.3689999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17">
+        <v>2030</v>
+      </c>
+      <c r="M17">
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="46">
-        <v>198.7</v>
-      </c>
-      <c r="D18" s="46">
-        <v>198.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="69">
+        <f t="shared" si="1"/>
+        <v>2155.0540000000001</v>
+      </c>
+      <c r="D18" s="69">
+        <f t="shared" si="0"/>
+        <v>1969.3689999999999</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M18" s="67">
+        <v>2624.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="46">
-        <v>743.57</v>
-      </c>
-      <c r="D19" s="46">
-        <v>743.57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="69">
+        <f t="shared" si="1"/>
+        <v>198.7</v>
+      </c>
+      <c r="D19" s="69">
+        <f t="shared" si="0"/>
+        <v>198.7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19">
+        <v>2030</v>
+      </c>
+      <c r="M19">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="46">
-        <v>2818.0549999999998</v>
-      </c>
-      <c r="D20" s="46">
-        <v>2554.0549999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="69">
+        <f t="shared" si="1"/>
+        <v>743.57</v>
+      </c>
+      <c r="D20" s="69">
+        <f t="shared" si="0"/>
+        <v>743.57</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M20" s="67">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="46">
-        <v>698.09</v>
-      </c>
-      <c r="D21" s="46">
-        <v>698.09</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="69">
+        <f t="shared" si="1"/>
+        <v>2818.0549999999998</v>
+      </c>
+      <c r="D21" s="69">
+        <f t="shared" si="0"/>
+        <v>2554.0549999999998</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21">
+        <v>2030</v>
+      </c>
+      <c r="M21">
+        <v>106.89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="69">
+        <f t="shared" si="1"/>
+        <v>698.09</v>
+      </c>
+      <c r="D22" s="69">
+        <f t="shared" si="0"/>
+        <v>698.09</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M22" s="67">
+        <v>209.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="69">
+        <f t="shared" si="1"/>
         <v>2906.1660000000002</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D23" s="69">
+        <f t="shared" si="0"/>
         <v>8155.7269999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="46">
-        <v>1594</v>
-      </c>
-      <c r="D23" s="46">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>9</v>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23">
+        <v>2030</v>
+      </c>
+      <c r="M23">
+        <v>159.018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
+        <v>107</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="46">
-        <v>7280.02</v>
-      </c>
-      <c r="D24" s="46">
-        <v>2340.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="69">
+        <f t="shared" ref="C24:D44" si="2">SUMIFS($M:$M,$I:$I,$A24,$J:$J,$B24,$L:$L,C$1)</f>
+        <v>845.24</v>
+      </c>
+      <c r="D24" s="69">
+        <f t="shared" si="0"/>
+        <v>845.24</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M24" s="67">
+        <v>4381.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="46">
-        <v>0</v>
-      </c>
-      <c r="D25" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="69">
+        <f t="shared" si="2"/>
+        <v>1594</v>
+      </c>
+      <c r="D25" s="69">
+        <f t="shared" si="0"/>
+        <v>1594</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25">
+        <v>2030</v>
+      </c>
+      <c r="M25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="46">
-        <v>0</v>
-      </c>
-      <c r="D26" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="69">
+        <f t="shared" si="2"/>
+        <v>7280.02</v>
+      </c>
+      <c r="D26" s="69">
+        <f t="shared" si="0"/>
+        <v>2340.1</v>
+      </c>
+      <c r="I26" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M26" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="46">
-        <v>134.952</v>
-      </c>
-      <c r="D27" s="46">
-        <v>134.952</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" t="s">
+        <v>128</v>
+      </c>
+      <c r="L27">
+        <v>2030</v>
+      </c>
+      <c r="M27">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="46">
-        <v>3980.011</v>
-      </c>
-      <c r="D28" s="46">
-        <v>3980.011</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M28" s="67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="46">
-        <v>390.5</v>
-      </c>
-      <c r="D29" s="46">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="69">
+        <f t="shared" si="2"/>
+        <v>134.952</v>
+      </c>
+      <c r="D29" s="69">
+        <f t="shared" si="0"/>
+        <v>134.952</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" t="s">
+        <v>128</v>
+      </c>
+      <c r="L29">
+        <v>2030</v>
+      </c>
+      <c r="M29">
+        <v>5614.3209999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="46">
-        <v>4400</v>
-      </c>
-      <c r="D30" s="46">
-        <v>600.04</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="69">
+        <f t="shared" si="2"/>
+        <v>3980.011</v>
+      </c>
+      <c r="D30" s="69">
+        <f t="shared" si="0"/>
+        <v>3980.011</v>
+      </c>
+      <c r="I30" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M30" s="67">
+        <v>2155.0540000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="46">
-        <v>106.89</v>
-      </c>
-      <c r="D31" s="46">
-        <v>106.89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="69">
+        <f t="shared" si="2"/>
+        <v>390.5</v>
+      </c>
+      <c r="D31" s="69">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31">
+        <v>2030</v>
+      </c>
+      <c r="M31">
+        <v>198.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="46">
-        <v>0</v>
-      </c>
-      <c r="D32" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="69">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="D32" s="69">
+        <f t="shared" si="0"/>
+        <v>600.04</v>
+      </c>
+      <c r="I32" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L32" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M32" s="67">
+        <v>743.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="46">
-        <v>4381.5</v>
-      </c>
-      <c r="D33" s="46">
-        <v>1722.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="69">
+        <f t="shared" si="2"/>
+        <v>106.89</v>
+      </c>
+      <c r="D33" s="69">
+        <f t="shared" si="0"/>
+        <v>106.89</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" t="s">
+        <v>128</v>
+      </c>
+      <c r="L33">
+        <v>2030</v>
+      </c>
+      <c r="M33">
+        <v>2818.0549999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="46">
-        <v>20</v>
-      </c>
-      <c r="D34" s="46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L34" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M34" s="67">
+        <v>698.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="46">
-        <v>195</v>
-      </c>
-      <c r="D35" s="46">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="69">
+        <f t="shared" si="2"/>
+        <v>4381.5</v>
+      </c>
+      <c r="D35" s="69">
+        <f t="shared" si="0"/>
+        <v>1722.5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" t="s">
+        <v>128</v>
+      </c>
+      <c r="L35">
+        <v>2030</v>
+      </c>
+      <c r="M35">
+        <v>8657.1929999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="46">
-        <v>50</v>
-      </c>
-      <c r="D36" s="46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="69">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D36" s="69">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I36" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" s="67">
+        <v>2030</v>
+      </c>
+      <c r="M36" s="67">
+        <v>2906.1660000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="46">
-        <v>5614.3209999999999</v>
-      </c>
-      <c r="D37" s="46">
-        <v>4402.0529999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="69">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="D37" s="69">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="I37" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" t="s">
+        <v>128</v>
+      </c>
+      <c r="L37">
+        <v>2040</v>
+      </c>
+      <c r="M37">
+        <v>845.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="46">
-        <v>0</v>
-      </c>
-      <c r="D38" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="69">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D38" s="69">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I38" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M38" s="67">
+        <v>760.64499999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="46">
-        <v>0</v>
-      </c>
-      <c r="D39" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="69">
+        <f t="shared" si="2"/>
+        <v>5614.3209999999999</v>
+      </c>
+      <c r="D39" s="69">
+        <f t="shared" si="0"/>
+        <v>4402.0529999999999</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" t="s">
+        <v>128</v>
+      </c>
+      <c r="L39">
+        <v>2040</v>
+      </c>
+      <c r="M39">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="46">
-        <v>0</v>
-      </c>
-      <c r="D40" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K40" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L40" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M40" s="67">
+        <v>614.625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="46">
-        <v>0</v>
-      </c>
-      <c r="D41" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" t="s">
+        <v>128</v>
+      </c>
+      <c r="L41">
+        <v>2040</v>
+      </c>
+      <c r="M41">
+        <v>440.44200000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L42" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M42" s="67">
+        <v>621.351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" t="s">
+        <v>128</v>
+      </c>
+      <c r="L43">
+        <v>2040</v>
+      </c>
+      <c r="M43">
+        <v>2340.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="69">
+        <f t="shared" si="2"/>
         <v>8657.1929999999993</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D44" s="69">
+        <f t="shared" si="0"/>
         <v>26148.173999999999</v>
+      </c>
+      <c r="I44" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L44" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M44" s="67">
+        <v>5835.1959999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" t="s">
+        <v>128</v>
+      </c>
+      <c r="L45">
+        <v>2040</v>
+      </c>
+      <c r="M45">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I46" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L46" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M46" s="67">
+        <v>134.952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" t="s">
+        <v>128</v>
+      </c>
+      <c r="L47">
+        <v>2040</v>
+      </c>
+      <c r="M47">
+        <v>134.65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I48" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L48" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M48" s="67">
+        <v>3980.011</v>
+      </c>
+    </row>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" t="s">
+        <v>128</v>
+      </c>
+      <c r="L49">
+        <v>2040</v>
+      </c>
+      <c r="M49">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I50" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L50" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M50" s="67">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" t="s">
+        <v>128</v>
+      </c>
+      <c r="L51">
+        <v>2040</v>
+      </c>
+      <c r="M51">
+        <v>2624.82</v>
+      </c>
+    </row>
+    <row r="52" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I52" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L52" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M52" s="67">
+        <v>600.04</v>
+      </c>
+    </row>
+    <row r="53" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" t="s">
+        <v>128</v>
+      </c>
+      <c r="L53">
+        <v>2040</v>
+      </c>
+      <c r="M53">
+        <v>2451.06</v>
+      </c>
+    </row>
+    <row r="54" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I54" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L54" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M54" s="67">
+        <v>106.89</v>
+      </c>
+    </row>
+    <row r="55" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" t="s">
+        <v>128</v>
+      </c>
+      <c r="L55">
+        <v>2040</v>
+      </c>
+      <c r="M55">
+        <v>209.89</v>
+      </c>
+    </row>
+    <row r="56" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I56" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L56" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M56" s="67">
+        <v>299.92700000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>35</v>
+      </c>
+      <c r="K57" t="s">
+        <v>128</v>
+      </c>
+      <c r="L57">
+        <v>2040</v>
+      </c>
+      <c r="M57">
+        <v>1722.5</v>
+      </c>
+    </row>
+    <row r="58" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I58" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L58" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M58" s="67">
+        <v>208.6</v>
+      </c>
+    </row>
+    <row r="59" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" t="s">
+        <v>128</v>
+      </c>
+      <c r="L59">
+        <v>2040</v>
+      </c>
+      <c r="M59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I60" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K60" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L60" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M60" s="67">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61" t="s">
+        <v>128</v>
+      </c>
+      <c r="L61">
+        <v>2040</v>
+      </c>
+      <c r="M61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I62" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L62" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M62" s="67">
+        <v>4402.0529999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" t="s">
+        <v>36</v>
+      </c>
+      <c r="K63" t="s">
+        <v>128</v>
+      </c>
+      <c r="L63">
+        <v>2040</v>
+      </c>
+      <c r="M63">
+        <v>1969.3689999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I64" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L64" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M64" s="67">
+        <v>198.7</v>
+      </c>
+    </row>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K65" t="s">
+        <v>128</v>
+      </c>
+      <c r="L65">
+        <v>2040</v>
+      </c>
+      <c r="M65">
+        <v>743.57</v>
+      </c>
+    </row>
+    <row r="66" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I66" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L66" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M66" s="67">
+        <v>2554.0549999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L67">
+        <v>2040</v>
+      </c>
+      <c r="M67">
+        <v>698.09</v>
+      </c>
+    </row>
+    <row r="68" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I68" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K68" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L68" s="67">
+        <v>2040</v>
+      </c>
+      <c r="M68" s="67">
+        <v>26148.173999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I69" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K69" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="L69" s="65">
+        <v>2040</v>
+      </c>
+      <c r="M69" s="65">
+        <v>8155.7269999999999</v>
       </c>
     </row>
   </sheetData>

--- a/src_files/data_files/industrialCHP.xlsx
+++ b/src_files/data_files/industrialCHP.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4FED61-6695-46C9-A9EB-EBA58AB31543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481D75A6-B6F3-4A4E-86D2-F97CD5CC46E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="8" r:id="rId1"/>
-    <sheet name="remove_units" sheetId="9" r:id="rId2"/>
-    <sheet name="demanddata" sheetId="7" r:id="rId3"/>
-    <sheet name="storagedata" sheetId="10" r:id="rId4"/>
-    <sheet name="Summary" sheetId="4" r:id="rId5"/>
-    <sheet name="H2Heavy, capacities" sheetId="1" r:id="rId6"/>
-    <sheet name="H2Heavy, demands" sheetId="2" r:id="rId7"/>
-    <sheet name="TYNDP2024" sheetId="6" r:id="rId8"/>
-    <sheet name="Eurostat" sheetId="5" r:id="rId9"/>
-    <sheet name="source" sheetId="3" r:id="rId10"/>
+    <sheet name="demanddata" sheetId="7" r:id="rId2"/>
+    <sheet name="storagedata" sheetId="10" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" r:id="rId4"/>
+    <sheet name="H2Heavy, capacities" sheetId="1" r:id="rId5"/>
+    <sheet name="H2Heavy, demands" sheetId="2" r:id="rId6"/>
+    <sheet name="TYNDP2024" sheetId="6" r:id="rId7"/>
+    <sheet name="Eurostat" sheetId="5" r:id="rId8"/>
+    <sheet name="source" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">storagedata!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">storagedata!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="131">
   <si>
     <t>Country</t>
   </si>
@@ -438,9 +437,6 @@
     <t>Elec</t>
   </si>
   <si>
-    <t>unit_name_prefix</t>
-  </si>
-  <si>
     <t>upwardLimit</t>
   </si>
   <si>
@@ -460,6 +456,12 @@
   </si>
   <si>
     <t>CH00</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
 </sst>
 </file>
@@ -792,7 +794,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -916,9 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -935,20 +934,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1595,11 +1582,11 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1602,7 @@
     <col min="10" max="10" width="14.42578125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -1643,8 +1630,11 @@
       <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>107</v>
       </c>
@@ -1661,7 +1651,7 @@
         <f>F2/0.4</f>
         <v>2113</v>
       </c>
-      <c r="F2" s="75">
+      <c r="F2" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A2), 1)</f>
         <v>845.2</v>
       </c>
@@ -1673,7 +1663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
@@ -1690,7 +1680,7 @@
         <f t="shared" ref="E3:E43" si="0">F3/0.4</f>
         <v>10712.75</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A3), 1)</f>
         <v>4285.1000000000004</v>
       </c>
@@ -1702,7 +1692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1719,7 +1709,7 @@
         <f t="shared" si="0"/>
         <v>18200</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A4), 1)</f>
         <v>7280</v>
       </c>
@@ -1731,7 +1721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>113</v>
       </c>
@@ -1748,7 +1738,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A5), 1)</f>
         <v>0</v>
       </c>
@@ -1760,7 +1750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
@@ -1777,7 +1767,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A6), 1)</f>
         <v>0</v>
       </c>
@@ -1789,7 +1779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -1806,7 +1796,7 @@
         <f t="shared" si="0"/>
         <v>622.25</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A7), 1)</f>
         <v>248.9</v>
       </c>
@@ -1818,7 +1808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
@@ -1835,7 +1825,7 @@
         <f t="shared" si="0"/>
         <v>9950</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A8), 1)</f>
         <v>3980</v>
       </c>
@@ -1847,7 +1837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
@@ -1864,7 +1854,7 @@
         <f t="shared" si="0"/>
         <v>976.25</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A9), 1)</f>
         <v>390.5</v>
       </c>
@@ -1876,7 +1866,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1883,7 @@
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A10), 1)</f>
         <v>4400</v>
       </c>
@@ -1905,7 +1895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
@@ -1922,7 +1912,7 @@
         <f t="shared" si="0"/>
         <v>493.25</v>
       </c>
-      <c r="F11" s="75">
+      <c r="F11" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A11), 1)</f>
         <v>197.3</v>
       </c>
@@ -1934,7 +1924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
@@ -1951,7 +1941,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A12), 1)</f>
         <v>0</v>
       </c>
@@ -1963,7 +1953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
@@ -1980,7 +1970,7 @@
         <f t="shared" si="0"/>
         <v>24624.25</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A13), 1)</f>
         <v>9849.7000000000007</v>
       </c>
@@ -1992,7 +1982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -2009,7 +1999,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A14), 1)</f>
         <v>20</v>
       </c>
@@ -2021,7 +2011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
@@ -2038,7 +2028,7 @@
         <f t="shared" si="0"/>
         <v>487.5</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A15), 1)</f>
         <v>195</v>
       </c>
@@ -2050,7 +2040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -2067,7 +2057,7 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A16), 1)</f>
         <v>50</v>
       </c>
@@ -2096,7 +2086,7 @@
         <f t="shared" si="0"/>
         <v>14035.75</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A17), 1)</f>
         <v>5614.3</v>
       </c>
@@ -2125,7 +2115,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A18), 1)</f>
         <v>0</v>
       </c>
@@ -2154,7 +2144,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A19), 1)</f>
         <v>0</v>
       </c>
@@ -2183,7 +2173,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A20), 1)</f>
         <v>0</v>
       </c>
@@ -2212,7 +2202,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A21), 1)</f>
         <v>0</v>
       </c>
@@ -2241,7 +2231,7 @@
         <f t="shared" si="0"/>
         <v>116676.74999999999</v>
       </c>
-      <c r="F22" s="75">
+      <c r="F22" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A22), 1)</f>
         <v>46670.7</v>
       </c>
@@ -2270,7 +2260,7 @@
         <f t="shared" si="0"/>
         <v>1901.5</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A23), 1)</f>
         <v>760.6</v>
       </c>
@@ -2299,7 +2289,7 @@
         <f t="shared" si="0"/>
         <v>4133.25</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A24), 1)</f>
         <v>1653.3</v>
       </c>
@@ -2328,7 +2318,7 @@
         <f t="shared" si="0"/>
         <v>32669</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A25), 1)</f>
         <v>13067.6</v>
       </c>
@@ -2357,7 +2347,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A26), 1)</f>
         <v>0</v>
       </c>
@@ -2386,7 +2376,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A27), 1)</f>
         <v>0</v>
       </c>
@@ -2415,7 +2405,7 @@
         <f t="shared" si="0"/>
         <v>774</v>
       </c>
-      <c r="F28" s="76">
+      <c r="F28" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A28), 1)</f>
         <v>309.60000000000002</v>
       </c>
@@ -2444,7 +2434,7 @@
         <f t="shared" si="0"/>
         <v>4325</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A29), 1)</f>
         <v>1730</v>
       </c>
@@ -2473,7 +2463,7 @@
         <f t="shared" si="0"/>
         <v>6562</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A30), 1)</f>
         <v>2624.8</v>
       </c>
@@ -2502,7 +2492,7 @@
         <f t="shared" si="0"/>
         <v>6065</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A31), 1)</f>
         <v>2426</v>
       </c>
@@ -2531,7 +2521,7 @@
         <f t="shared" si="0"/>
         <v>967.99999999999989</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A32), 1)</f>
         <v>387.2</v>
       </c>
@@ -2543,7 +2533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>24</v>
       </c>
@@ -2560,7 +2550,7 @@
         <f t="shared" si="0"/>
         <v>732.99999999999989</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A33), 1)</f>
         <v>293.2</v>
       </c>
@@ -2572,7 +2562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>14</v>
       </c>
@@ -2589,7 +2579,7 @@
         <f t="shared" si="0"/>
         <v>2788.9999999999995</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A34), 1)</f>
         <v>1115.5999999999999</v>
       </c>
@@ -2601,7 +2591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>21</v>
       </c>
@@ -2618,7 +2608,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="76">
+      <c r="F35" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A35), 1)</f>
         <v>0</v>
       </c>
@@ -2630,7 +2620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>27</v>
       </c>
@@ -2647,7 +2637,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="76">
+      <c r="F36" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A36), 1)</f>
         <v>0</v>
       </c>
@@ -2659,7 +2649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>22</v>
       </c>
@@ -2676,7 +2666,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="76">
+      <c r="F37" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A37), 1)</f>
         <v>0</v>
       </c>
@@ -2688,7 +2678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>13</v>
       </c>
@@ -2705,7 +2695,7 @@
         <f t="shared" si="0"/>
         <v>5387.7499999999991</v>
       </c>
-      <c r="F38" s="76">
+      <c r="F38" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A38), 1)</f>
         <v>2155.1</v>
       </c>
@@ -2717,7 +2707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>26</v>
       </c>
@@ -2734,7 +2724,7 @@
         <f t="shared" si="0"/>
         <v>1337.5</v>
       </c>
-      <c r="F39" s="76">
+      <c r="F39" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A39), 1)</f>
         <v>535</v>
       </c>
@@ -2746,7 +2736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>16</v>
       </c>
@@ -2763,7 +2753,7 @@
         <f t="shared" si="0"/>
         <v>5000.2499999999991</v>
       </c>
-      <c r="F40" s="76">
+      <c r="F40" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A40), 1)</f>
         <v>2000.1</v>
       </c>
@@ -2775,7 +2765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>17</v>
       </c>
@@ -2792,7 +2782,7 @@
         <f t="shared" si="0"/>
         <v>17164.5</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A41), 1)</f>
         <v>6865.8</v>
       </c>
@@ -2804,7 +2794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>18</v>
       </c>
@@ -2821,7 +2811,7 @@
         <f t="shared" si="0"/>
         <v>4691</v>
       </c>
-      <c r="F42" s="76">
+      <c r="F42" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A42), 1)</f>
         <v>1876.4</v>
       </c>
@@ -2833,7 +2823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>11</v>
       </c>
@@ -2850,7 +2840,7 @@
         <f t="shared" si="0"/>
         <v>20518</v>
       </c>
-      <c r="F43" s="76">
+      <c r="F43" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A43), 1)</f>
         <v>8207.2000000000007</v>
       </c>
@@ -2860,6 +2850,210 @@
       </c>
       <c r="H43" s="12" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="12">
+        <v>1</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="12">
+        <v>1</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="12">
+        <v>1</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="12">
+        <v>1</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2868,333 +3062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B09C0C-DE72-4694-9C81-3F315378B707}">
-  <dimension ref="B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DC1340-3E97-4D2C-954C-BCE3B932444C}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:E44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="49.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="C19" s="58"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="C20" s="58"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="C21" s="58"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="C22" s="58"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="C44" s="58"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF19678F-C143-4C5D-BE2D-2B58F02943B7}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -3682,12 +3550,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:G3 A4:A16 G4:G16 B4:F22">
+  <conditionalFormatting sqref="A4:A16 G4:G16 B4:F22">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2">
+  <conditionalFormatting sqref="A2:G3">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -3696,7 +3564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5A18FE-1243-432E-8A1A-21317EE02799}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -3711,122 +3579,119 @@
   <cols>
     <col min="1" max="1" width="11.5703125" style="58"/>
     <col min="2" max="3" width="19.7109375" style="58" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="60"/>
-    <col min="6" max="6" width="16.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="63" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="63" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5703125" style="63"/>
+    <col min="4" max="4" width="16.42578125" style="59" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="59"/>
+    <col min="6" max="6" width="16.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="62" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5703125" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="H1" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="62" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="73">
-        <v>1</v>
-      </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64">
+      <c r="C2" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="59">
+        <v>1</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
         <v>4000</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="73">
-        <v>1</v>
-      </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64">
+      <c r="C3" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="59">
+        <v>1</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63">
         <v>4000</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="73">
-        <v>1</v>
-      </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64">
+      <c r="C4" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="59">
+        <v>1</v>
+      </c>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63">
         <v>4000</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -3835,21 +3700,21 @@
       <c r="C5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="60">
-        <v>1</v>
-      </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64">
+      <c r="D5" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="59">
+        <v>1</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63">
         <v>4000</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="62" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="58" t="s">
@@ -3858,21 +3723,21 @@
       <c r="C6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="60">
-        <v>1</v>
-      </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64">
+      <c r="D6" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="59">
+        <v>1</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63">
         <v>4000</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="58" t="s">
@@ -3881,21 +3746,21 @@
       <c r="C7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="60">
-        <v>1</v>
-      </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64">
+      <c r="D7" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="59">
+        <v>1</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
         <v>4000</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="58" t="s">
@@ -3904,21 +3769,21 @@
       <c r="C8" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="60">
-        <v>1</v>
-      </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64">
+      <c r="D8" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="59">
+        <v>1</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63">
         <v>4000</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="62" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -3927,21 +3792,21 @@
       <c r="C9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="60">
-        <v>1</v>
-      </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64">
+      <c r="D9" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="59">
+        <v>1</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63">
         <v>4000</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="62" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -3950,21 +3815,21 @@
       <c r="C10" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="60">
-        <v>1</v>
-      </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64">
+      <c r="D10" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="59">
+        <v>1</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63">
         <v>4000</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="58" t="s">
@@ -3973,21 +3838,21 @@
       <c r="C11" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="60">
-        <v>1</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64">
+      <c r="D11" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="59">
+        <v>1</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63">
         <v>4000</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="62" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -3996,21 +3861,21 @@
       <c r="C12" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="60">
-        <v>1</v>
-      </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64">
+      <c r="D12" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="59">
+        <v>1</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63">
         <v>4000</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="62" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="58" t="s">
@@ -4019,21 +3884,21 @@
       <c r="C13" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="60">
-        <v>1</v>
-      </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64">
+      <c r="D13" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="59">
+        <v>1</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63">
         <v>4000</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="62" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -4042,21 +3907,21 @@
       <c r="C14" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="60">
-        <v>1</v>
-      </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64">
+      <c r="D14" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="59">
+        <v>1</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63">
         <v>4000</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="62" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="58" t="s">
@@ -4065,21 +3930,21 @@
       <c r="C15" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="60">
-        <v>1</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64">
+      <c r="D15" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="59">
+        <v>1</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63">
         <v>4000</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="62" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -4088,21 +3953,21 @@
       <c r="C16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="60">
-        <v>1</v>
-      </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64">
+      <c r="D16" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="59">
+        <v>1</v>
+      </c>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63">
         <v>4000</v>
       </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="58" t="s">
@@ -4111,21 +3976,21 @@
       <c r="C17" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="60">
-        <v>1</v>
-      </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64">
+      <c r="D17" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="59">
+        <v>1</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63">
         <v>4000</v>
       </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="58" t="s">
@@ -4134,21 +3999,21 @@
       <c r="C18" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="60">
-        <v>1</v>
-      </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64">
+      <c r="D18" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="59">
+        <v>1</v>
+      </c>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63">
         <v>4000</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -4157,21 +4022,21 @@
       <c r="C19" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="60">
-        <v>1</v>
-      </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64">
+      <c r="D19" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="59">
+        <v>1</v>
+      </c>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63">
         <v>4000</v>
       </c>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="58" t="s">
@@ -4180,21 +4045,21 @@
       <c r="C20" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="60">
-        <v>1</v>
-      </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64">
+      <c r="D20" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="59">
+        <v>1</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63">
         <v>4000</v>
       </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="62" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="58" t="s">
@@ -4203,21 +4068,21 @@
       <c r="C21" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="60">
-        <v>1</v>
-      </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64">
+      <c r="D21" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="59">
+        <v>1</v>
+      </c>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63">
         <v>4000</v>
       </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="62" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="58" t="s">
@@ -4226,25 +4091,25 @@
       <c r="C22" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="60">
-        <v>1</v>
-      </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64">
+      <c r="D22" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="59">
+        <v>1</v>
+      </c>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63">
         <v>4000</v>
       </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="A23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -4259,7 +4124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942E5AC9-3C1B-4FDD-828A-AC7EBE9C8D91}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -6453,7 +6318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -7248,7 +7113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87F8DD7-3640-46A5-BBAB-0B6256890B28}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -7581,7 +7446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21420AE7-C1DE-45D2-B734-1504B0A55513}">
   <dimension ref="A1:M69"/>
   <sheetViews>
@@ -7621,33 +7486,33 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" t="s">
         <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="46">
         <f>SUMIFS($M:$M,$I:$I,$A3,$J:$J,$B3,$L:$L,C$1)</f>
         <v>760.64499999999998</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="46">
         <f t="shared" ref="D3:D44" si="0">SUMIFS($M:$M,$I:$I,$A3,$J:$J,$B3,$L:$L,D$1)</f>
         <v>760.64499999999998</v>
       </c>
-      <c r="I3" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="66" t="s">
+      <c r="I3" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="65" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7658,27 +7523,27 @@
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="69">
-        <f t="shared" ref="C4:D23" si="1">SUMIFS($M:$M,$I:$I,$A4,$J:$J,$B4,$L:$L,C$1)</f>
+      <c r="C4" s="46">
+        <f t="shared" ref="C4:C23" si="1">SUMIFS($M:$M,$I:$I,$A4,$J:$J,$B4,$L:$L,C$1)</f>
         <v>614.625</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="46">
         <f t="shared" si="0"/>
         <v>614.625</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="67">
+      <c r="K4" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="66">
         <v>2030</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="66">
         <v>845.24</v>
       </c>
     </row>
@@ -7689,11 +7554,11 @@
       <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="46">
         <f t="shared" si="1"/>
         <v>13067.585999999999</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="46">
         <f t="shared" si="0"/>
         <v>5835.1959999999999</v>
       </c>
@@ -7704,7 +7569,7 @@
         <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L5">
         <v>2030</v>
@@ -7720,27 +7585,27 @@
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6" s="67">
+      <c r="K6" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="66">
         <v>2030</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="66">
         <v>1594</v>
       </c>
     </row>
@@ -7751,11 +7616,11 @@
       <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="46">
         <f t="shared" si="1"/>
         <v>7.26</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="46">
         <f t="shared" si="0"/>
         <v>7.26</v>
       </c>
@@ -7766,7 +7631,7 @@
         <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L7">
         <v>2030</v>
@@ -7782,27 +7647,27 @@
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="46">
         <f t="shared" si="1"/>
         <v>167.65</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="46">
         <f t="shared" si="0"/>
         <v>134.65</v>
       </c>
-      <c r="I8" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="67" t="s">
+      <c r="I8" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" s="67">
+      <c r="K8" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="66">
         <v>2030</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="66">
         <v>566.59900000000005</v>
       </c>
     </row>
@@ -7813,22 +7678,22 @@
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="46">
         <f t="shared" si="1"/>
         <v>1730</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="46">
         <f t="shared" si="0"/>
         <v>1730</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
         <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L9">
         <v>2030</v>
@@ -7844,27 +7709,27 @@
       <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="46">
         <f t="shared" si="1"/>
         <v>2624.82</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="46">
         <f t="shared" si="0"/>
         <v>2624.82</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="67">
+      <c r="K10" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="66">
         <v>2030</v>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="66">
         <v>7280.02</v>
       </c>
     </row>
@@ -7875,11 +7740,11 @@
       <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="46">
         <f t="shared" si="1"/>
         <v>2426</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="46">
         <f t="shared" si="0"/>
         <v>2451.06</v>
       </c>
@@ -7890,7 +7755,7 @@
         <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L11">
         <v>2030</v>
@@ -7906,27 +7771,27 @@
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="46">
         <f t="shared" si="1"/>
         <v>209.89</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="46">
         <f t="shared" si="0"/>
         <v>209.89</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" s="67">
+      <c r="K12" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="66">
         <v>2030</v>
       </c>
-      <c r="M12" s="67">
+      <c r="M12" s="66">
         <v>7.26</v>
       </c>
     </row>
@@ -7937,11 +7802,11 @@
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="46">
         <f t="shared" si="1"/>
         <v>159.018</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="46">
         <f t="shared" si="0"/>
         <v>299.92700000000002</v>
       </c>
@@ -7952,7 +7817,7 @@
         <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L13">
         <v>2030</v>
@@ -7968,27 +7833,27 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="46">
         <f t="shared" si="1"/>
         <v>415</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="46">
         <f t="shared" si="0"/>
         <v>208.6</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="67" t="s">
+      <c r="J14" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="67">
+      <c r="K14" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="66">
         <v>2030</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="66">
         <v>167.65</v>
       </c>
     </row>
@@ -7999,11 +7864,11 @@
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8014,7 +7879,7 @@
         <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L15">
         <v>2030</v>
@@ -8030,27 +7895,27 @@
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="67" t="s">
+      <c r="I16" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="67" t="s">
+      <c r="J16" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="67">
+      <c r="K16" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="66">
         <v>2030</v>
       </c>
-      <c r="M16" s="67">
+      <c r="M16" s="66">
         <v>1730</v>
       </c>
     </row>
@@ -8061,11 +7926,11 @@
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8076,7 +7941,7 @@
         <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L17">
         <v>2030</v>
@@ -8092,27 +7957,27 @@
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="46">
         <f t="shared" si="1"/>
         <v>2155.0540000000001</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="46">
         <f t="shared" si="0"/>
         <v>1969.3689999999999</v>
       </c>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="67">
+      <c r="K18" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="66">
         <v>2030</v>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="66">
         <v>2624.82</v>
       </c>
     </row>
@@ -8123,11 +7988,11 @@
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="46">
         <f t="shared" si="1"/>
         <v>198.7</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="46">
         <f t="shared" si="0"/>
         <v>198.7</v>
       </c>
@@ -8138,7 +8003,7 @@
         <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L19">
         <v>2030</v>
@@ -8154,27 +8019,27 @@
       <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="46">
         <f t="shared" si="1"/>
         <v>743.57</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="46">
         <f t="shared" si="0"/>
         <v>743.57</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="67">
+      <c r="K20" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="66">
         <v>2030</v>
       </c>
-      <c r="M20" s="67">
+      <c r="M20" s="66">
         <v>2426</v>
       </c>
     </row>
@@ -8185,11 +8050,11 @@
       <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="46">
         <f t="shared" si="1"/>
         <v>2818.0549999999998</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="46">
         <f t="shared" si="0"/>
         <v>2554.0549999999998</v>
       </c>
@@ -8200,7 +8065,7 @@
         <v>35</v>
       </c>
       <c r="K21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L21">
         <v>2030</v>
@@ -8216,27 +8081,27 @@
       <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="46">
         <f t="shared" si="1"/>
         <v>698.09</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="46">
         <f t="shared" si="0"/>
         <v>698.09</v>
       </c>
-      <c r="I22" s="67" t="s">
+      <c r="I22" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="67" t="s">
+      <c r="J22" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="67">
+      <c r="K22" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="66">
         <v>2030</v>
       </c>
-      <c r="M22" s="67">
+      <c r="M22" s="66">
         <v>209.89</v>
       </c>
     </row>
@@ -8247,11 +8112,11 @@
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="46">
         <f t="shared" si="1"/>
         <v>2906.1660000000002</v>
       </c>
-      <c r="D23" s="69">
+      <c r="D23" s="46">
         <f t="shared" si="0"/>
         <v>8155.7269999999999</v>
       </c>
@@ -8262,7 +8127,7 @@
         <v>36</v>
       </c>
       <c r="K23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L23">
         <v>2030</v>
@@ -8272,33 +8137,33 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+      <c r="A24" t="s">
         <v>107</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="69">
-        <f t="shared" ref="C24:D44" si="2">SUMIFS($M:$M,$I:$I,$A24,$J:$J,$B24,$L:$L,C$1)</f>
+      <c r="C24" s="46">
+        <f t="shared" ref="C24:C44" si="2">SUMIFS($M:$M,$I:$I,$A24,$J:$J,$B24,$L:$L,C$1)</f>
         <v>845.24</v>
       </c>
-      <c r="D24" s="69">
+      <c r="D24" s="46">
         <f t="shared" si="0"/>
         <v>845.24</v>
       </c>
-      <c r="I24" s="67" t="s">
+      <c r="I24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="67" t="s">
+      <c r="J24" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L24" s="67">
+      <c r="K24" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="66">
         <v>2030</v>
       </c>
-      <c r="M24" s="67">
+      <c r="M24" s="66">
         <v>4381.5</v>
       </c>
     </row>
@@ -8309,11 +8174,11 @@
       <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="46">
         <f t="shared" si="2"/>
         <v>1594</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="46">
         <f t="shared" si="0"/>
         <v>1594</v>
       </c>
@@ -8324,7 +8189,7 @@
         <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L25">
         <v>2030</v>
@@ -8340,27 +8205,27 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="69">
+      <c r="C26" s="46">
         <f t="shared" si="2"/>
         <v>7280.02</v>
       </c>
-      <c r="D26" s="69">
+      <c r="D26" s="46">
         <f t="shared" si="0"/>
         <v>2340.1</v>
       </c>
-      <c r="I26" s="67" t="s">
+      <c r="I26" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="67" t="s">
+      <c r="J26" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L26" s="67">
+      <c r="K26" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="66">
         <v>2030</v>
       </c>
-      <c r="M26" s="67">
+      <c r="M26" s="66">
         <v>20</v>
       </c>
     </row>
@@ -8371,11 +8236,11 @@
       <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8386,7 +8251,7 @@
         <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L27">
         <v>2030</v>
@@ -8402,27 +8267,27 @@
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="67" t="s">
+      <c r="I28" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="67" t="s">
+      <c r="J28" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L28" s="67">
+      <c r="K28" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="66">
         <v>2030</v>
       </c>
-      <c r="M28" s="67">
+      <c r="M28" s="66">
         <v>50</v>
       </c>
     </row>
@@ -8433,11 +8298,11 @@
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="46">
         <f t="shared" si="2"/>
         <v>134.952</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="46">
         <f t="shared" si="0"/>
         <v>134.952</v>
       </c>
@@ -8448,7 +8313,7 @@
         <v>35</v>
       </c>
       <c r="K29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L29">
         <v>2030</v>
@@ -8464,27 +8329,27 @@
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="46">
         <f t="shared" si="2"/>
         <v>3980.011</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="46">
         <f t="shared" si="0"/>
         <v>3980.011</v>
       </c>
-      <c r="I30" s="67" t="s">
+      <c r="I30" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="67" t="s">
+      <c r="J30" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K30" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L30" s="67">
+      <c r="K30" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L30" s="66">
         <v>2030</v>
       </c>
-      <c r="M30" s="67">
+      <c r="M30" s="66">
         <v>2155.0540000000001</v>
       </c>
     </row>
@@ -8495,11 +8360,11 @@
       <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="69">
+      <c r="C31" s="46">
         <f t="shared" si="2"/>
         <v>390.5</v>
       </c>
-      <c r="D31" s="69">
+      <c r="D31" s="46">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
@@ -8510,7 +8375,7 @@
         <v>36</v>
       </c>
       <c r="K31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L31">
         <v>2030</v>
@@ -8526,27 +8391,27 @@
       <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="69">
+      <c r="C32" s="46">
         <f t="shared" si="2"/>
         <v>4400</v>
       </c>
-      <c r="D32" s="69">
+      <c r="D32" s="46">
         <f t="shared" si="0"/>
         <v>600.04</v>
       </c>
-      <c r="I32" s="67" t="s">
+      <c r="I32" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="67" t="s">
+      <c r="J32" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L32" s="67">
+      <c r="K32" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32" s="66">
         <v>2030</v>
       </c>
-      <c r="M32" s="67">
+      <c r="M32" s="66">
         <v>743.57</v>
       </c>
     </row>
@@ -8557,11 +8422,11 @@
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="69">
+      <c r="C33" s="46">
         <f t="shared" si="2"/>
         <v>106.89</v>
       </c>
-      <c r="D33" s="69">
+      <c r="D33" s="46">
         <f t="shared" si="0"/>
         <v>106.89</v>
       </c>
@@ -8572,7 +8437,7 @@
         <v>36</v>
       </c>
       <c r="K33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L33">
         <v>2030</v>
@@ -8588,27 +8453,27 @@
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="69">
+      <c r="C34" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D34" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I34" s="67" t="s">
+      <c r="I34" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="67" t="s">
+      <c r="J34" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K34" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L34" s="67">
+      <c r="K34" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" s="66">
         <v>2030</v>
       </c>
-      <c r="M34" s="67">
+      <c r="M34" s="66">
         <v>698.09</v>
       </c>
     </row>
@@ -8619,11 +8484,11 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="69">
+      <c r="C35" s="46">
         <f t="shared" si="2"/>
         <v>4381.5</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D35" s="46">
         <f t="shared" si="0"/>
         <v>1722.5</v>
       </c>
@@ -8634,7 +8499,7 @@
         <v>35</v>
       </c>
       <c r="K35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L35">
         <v>2030</v>
@@ -8650,27 +8515,27 @@
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C36" s="46">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D36" s="46">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I36" s="67" t="s">
+      <c r="I36" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="67" t="s">
+      <c r="J36" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K36" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L36" s="67">
+      <c r="K36" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L36" s="66">
         <v>2030</v>
       </c>
-      <c r="M36" s="67">
+      <c r="M36" s="66">
         <v>2906.1660000000002</v>
       </c>
     </row>
@@ -8681,11 +8546,11 @@
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="69">
+      <c r="C37" s="46">
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="D37" s="69">
+      <c r="D37" s="46">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
@@ -8696,7 +8561,7 @@
         <v>35</v>
       </c>
       <c r="K37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L37">
         <v>2040</v>
@@ -8712,27 +8577,27 @@
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="46">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="46">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I38" s="67" t="s">
+      <c r="I38" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="J38" s="67" t="s">
+      <c r="J38" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L38" s="67">
+      <c r="K38" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L38" s="66">
         <v>2040</v>
       </c>
-      <c r="M38" s="67">
+      <c r="M38" s="66">
         <v>760.64499999999998</v>
       </c>
     </row>
@@ -8743,11 +8608,11 @@
       <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="69">
+      <c r="C39" s="46">
         <f t="shared" si="2"/>
         <v>5614.3209999999999</v>
       </c>
-      <c r="D39" s="69">
+      <c r="D39" s="46">
         <f t="shared" si="0"/>
         <v>4402.0529999999999</v>
       </c>
@@ -8758,7 +8623,7 @@
         <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L39">
         <v>2040</v>
@@ -8774,27 +8639,27 @@
       <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="69">
+      <c r="C40" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D40" s="69">
+      <c r="D40" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="67" t="s">
+      <c r="I40" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="67" t="s">
+      <c r="J40" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K40" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L40" s="67">
+      <c r="K40" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L40" s="66">
         <v>2040</v>
       </c>
-      <c r="M40" s="67">
+      <c r="M40" s="66">
         <v>614.625</v>
       </c>
     </row>
@@ -8805,22 +8670,22 @@
       <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="69">
+      <c r="C41" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D41" s="69">
+      <c r="D41" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J41" t="s">
         <v>35</v>
       </c>
       <c r="K41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L41">
         <v>2040</v>
@@ -8836,27 +8701,27 @@
       <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="69">
+      <c r="C42" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D42" s="69">
+      <c r="D42" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="J42" s="67" t="s">
+      <c r="I42" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K42" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L42" s="67">
+      <c r="K42" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L42" s="66">
         <v>2040</v>
       </c>
-      <c r="M42" s="67">
+      <c r="M42" s="66">
         <v>621.351</v>
       </c>
     </row>
@@ -8867,11 +8732,11 @@
       <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="69">
+      <c r="C43" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D43" s="69">
+      <c r="D43" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8882,7 +8747,7 @@
         <v>35</v>
       </c>
       <c r="K43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L43">
         <v>2040</v>
@@ -8898,27 +8763,27 @@
       <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="69">
+      <c r="C44" s="46">
         <f t="shared" si="2"/>
         <v>8657.1929999999993</v>
       </c>
-      <c r="D44" s="69">
+      <c r="D44" s="46">
         <f t="shared" si="0"/>
         <v>26148.173999999999</v>
       </c>
-      <c r="I44" s="67" t="s">
+      <c r="I44" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="67" t="s">
+      <c r="J44" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K44" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L44" s="67">
+      <c r="K44" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L44" s="66">
         <v>2040</v>
       </c>
-      <c r="M44" s="67">
+      <c r="M44" s="66">
         <v>5835.1959999999999</v>
       </c>
     </row>
@@ -8930,7 +8795,7 @@
         <v>36</v>
       </c>
       <c r="K45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L45">
         <v>2040</v>
@@ -8940,19 +8805,19 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I46" s="67" t="s">
+      <c r="I46" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="67" t="s">
+      <c r="J46" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L46" s="67">
+      <c r="K46" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L46" s="66">
         <v>2040</v>
       </c>
-      <c r="M46" s="67">
+      <c r="M46" s="66">
         <v>134.952</v>
       </c>
     </row>
@@ -8964,7 +8829,7 @@
         <v>36</v>
       </c>
       <c r="K47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L47">
         <v>2040</v>
@@ -8974,19 +8839,19 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I48" s="67" t="s">
+      <c r="I48" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="67" t="s">
+      <c r="J48" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K48" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L48" s="67">
+      <c r="K48" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" s="66">
         <v>2040</v>
       </c>
-      <c r="M48" s="67">
+      <c r="M48" s="66">
         <v>3980.011</v>
       </c>
     </row>
@@ -8998,7 +8863,7 @@
         <v>36</v>
       </c>
       <c r="K49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L49">
         <v>2040</v>
@@ -9008,19 +8873,19 @@
       </c>
     </row>
     <row r="50" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I50" s="67" t="s">
+      <c r="I50" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="67" t="s">
+      <c r="J50" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K50" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L50" s="67">
+      <c r="K50" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L50" s="66">
         <v>2040</v>
       </c>
-      <c r="M50" s="67">
+      <c r="M50" s="66">
         <v>133</v>
       </c>
     </row>
@@ -9032,7 +8897,7 @@
         <v>36</v>
       </c>
       <c r="K51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L51">
         <v>2040</v>
@@ -9042,19 +8907,19 @@
       </c>
     </row>
     <row r="52" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I52" s="67" t="s">
+      <c r="I52" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="67" t="s">
+      <c r="J52" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K52" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L52" s="67">
+      <c r="K52" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L52" s="66">
         <v>2040</v>
       </c>
-      <c r="M52" s="67">
+      <c r="M52" s="66">
         <v>600.04</v>
       </c>
     </row>
@@ -9066,7 +8931,7 @@
         <v>36</v>
       </c>
       <c r="K53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L53">
         <v>2040</v>
@@ -9076,19 +8941,19 @@
       </c>
     </row>
     <row r="54" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I54" s="67" t="s">
+      <c r="I54" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J54" s="67" t="s">
+      <c r="J54" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K54" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L54" s="67">
+      <c r="K54" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L54" s="66">
         <v>2040</v>
       </c>
-      <c r="M54" s="67">
+      <c r="M54" s="66">
         <v>106.89</v>
       </c>
     </row>
@@ -9100,7 +8965,7 @@
         <v>36</v>
       </c>
       <c r="K55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L55">
         <v>2040</v>
@@ -9110,19 +8975,19 @@
       </c>
     </row>
     <row r="56" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I56" s="67" t="s">
+      <c r="I56" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="67" t="s">
+      <c r="J56" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K56" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L56" s="67">
+      <c r="K56" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L56" s="66">
         <v>2040</v>
       </c>
-      <c r="M56" s="67">
+      <c r="M56" s="66">
         <v>299.92700000000002</v>
       </c>
     </row>
@@ -9134,7 +8999,7 @@
         <v>35</v>
       </c>
       <c r="K57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L57">
         <v>2040</v>
@@ -9144,19 +9009,19 @@
       </c>
     </row>
     <row r="58" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I58" s="67" t="s">
+      <c r="I58" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J58" s="67" t="s">
+      <c r="J58" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K58" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L58" s="67">
+      <c r="K58" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L58" s="66">
         <v>2040</v>
       </c>
-      <c r="M58" s="67">
+      <c r="M58" s="66">
         <v>208.6</v>
       </c>
     </row>
@@ -9168,7 +9033,7 @@
         <v>35</v>
       </c>
       <c r="K59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L59">
         <v>2040</v>
@@ -9178,19 +9043,19 @@
       </c>
     </row>
     <row r="60" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I60" s="67" t="s">
+      <c r="I60" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J60" s="67" t="s">
+      <c r="J60" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K60" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L60" s="67">
+      <c r="K60" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L60" s="66">
         <v>2040</v>
       </c>
-      <c r="M60" s="67">
+      <c r="M60" s="66">
         <v>195</v>
       </c>
     </row>
@@ -9202,7 +9067,7 @@
         <v>35</v>
       </c>
       <c r="K61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L61">
         <v>2040</v>
@@ -9212,19 +9077,19 @@
       </c>
     </row>
     <row r="62" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I62" s="67" t="s">
+      <c r="I62" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J62" s="67" t="s">
+      <c r="J62" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K62" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L62" s="67">
+      <c r="K62" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L62" s="66">
         <v>2040</v>
       </c>
-      <c r="M62" s="67">
+      <c r="M62" s="66">
         <v>4402.0529999999999</v>
       </c>
     </row>
@@ -9236,7 +9101,7 @@
         <v>36</v>
       </c>
       <c r="K63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L63">
         <v>2040</v>
@@ -9246,19 +9111,19 @@
       </c>
     </row>
     <row r="64" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I64" s="67" t="s">
+      <c r="I64" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="J64" s="67" t="s">
+      <c r="J64" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K64" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L64" s="67">
+      <c r="K64" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L64" s="66">
         <v>2040</v>
       </c>
-      <c r="M64" s="67">
+      <c r="M64" s="66">
         <v>198.7</v>
       </c>
     </row>
@@ -9270,7 +9135,7 @@
         <v>36</v>
       </c>
       <c r="K65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L65">
         <v>2040</v>
@@ -9280,19 +9145,19 @@
       </c>
     </row>
     <row r="66" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I66" s="67" t="s">
+      <c r="I66" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="67" t="s">
+      <c r="J66" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K66" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L66" s="67">
+      <c r="K66" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L66" s="66">
         <v>2040</v>
       </c>
-      <c r="M66" s="67">
+      <c r="M66" s="66">
         <v>2554.0549999999998</v>
       </c>
     </row>
@@ -9304,7 +9169,7 @@
         <v>36</v>
       </c>
       <c r="K67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L67">
         <v>2040</v>
@@ -9314,36 +9179,36 @@
       </c>
     </row>
     <row r="68" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I68" s="67" t="s">
+      <c r="I68" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J68" s="67" t="s">
+      <c r="J68" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K68" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="L68" s="67">
+      <c r="K68" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="L68" s="66">
         <v>2040</v>
       </c>
-      <c r="M68" s="67">
+      <c r="M68" s="66">
         <v>26148.173999999999</v>
       </c>
     </row>
     <row r="69" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I69" s="65" t="s">
+      <c r="I69" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J69" s="65" t="s">
+      <c r="J69" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="K69" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="L69" s="65">
+      <c r="K69" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="L69" s="64">
         <v>2040</v>
       </c>
-      <c r="M69" s="65">
+      <c r="M69" s="64">
         <v>8155.7269999999999</v>
       </c>
     </row>
@@ -9352,7 +9217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF1E2CA-F2CE-4C62-89A9-2315CD87B914}">
   <dimension ref="A2:Q60"/>
   <sheetViews>
@@ -11840,4 +11705,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B09C0C-DE72-4694-9C81-3F315378B707}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src_files/data_files/industrialCHP.xlsx
+++ b/src_files/data_files/industrialCHP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481D75A6-B6F3-4A4E-86D2-F97CD5CC46E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C48E239-DA5C-4345-804C-857F2B6CE868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18120" yWindow="-105" windowWidth="18240" windowHeight="28320" tabRatio="799" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="H2Heavy, demands" sheetId="2" r:id="rId6"/>
     <sheet name="TYNDP2024" sheetId="6" r:id="rId7"/>
     <sheet name="Eurostat" sheetId="5" r:id="rId8"/>
-    <sheet name="source" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">storagedata!$A$1:$F$1</definedName>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="129">
   <si>
     <t>Country</t>
   </si>
@@ -182,9 +181,6 @@
     <t>Industry renewable CHP</t>
   </si>
   <si>
-    <t>All data from H2 heavy scenario (TYNDP 2024)</t>
-  </si>
-  <si>
     <t>demand (TWh)</t>
   </si>
   <si>
@@ -456,9 +452,6 @@
   </si>
   <si>
     <t>CH00</t>
-  </si>
-  <si>
-    <t>remove</t>
   </si>
   <si>
     <t>method</t>
@@ -592,7 +585,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,6 +680,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +793,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -939,6 +938,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1277,10 +1280,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53CAE17E-E130-454C-A23D-D1F2C5367D34}" name="Table2" displayName="Table2" ref="A1:J23" totalsRowShown="0" headerRowDxfId="24">
-  <autoFilter ref="A1:J23" xr:uid="{618B6211-7040-488C-9F85-846A32BD1FFB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
-    <sortCondition ref="B1:B23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53CAE17E-E130-454C-A23D-D1F2C5367D34}" name="Table2" displayName="Table2" ref="A1:J24" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="A1:J24" xr:uid="{618B6211-7040-488C-9F85-846A32BD1FFB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
+    <sortCondition ref="B1:B24"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{FD66C488-929A-4E40-97B9-698BE28209C7}" name="Country" dataDxfId="23"/>
@@ -1582,11 +1585,11 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,12 +1634,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>35</v>
@@ -1662,6 +1665,10 @@
       <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="J2" s="68" t="str">
+        <f>IF(SUM(E2:G2)=0, "remove", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1677,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" ref="E3:E43" si="0">F3/0.4</f>
+        <f t="shared" ref="E3:E45" si="0">F3/0.4</f>
         <v>10712.75</v>
       </c>
       <c r="F3" s="68">
@@ -1685,16 +1692,20 @@
         <v>4285.1000000000004</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ref="G3:G43" si="1">ROUND(F3/(0.5+0.16666), 1)</f>
+        <f t="shared" ref="G3:G45" si="1">ROUND(F3/(0.5+0.16666), 1)</f>
         <v>6427.7</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J3" s="68" t="str">
+        <f t="shared" ref="J3:J45" si="2">IF(SUM(E3:G3)=0, "remove", "")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>35</v>
@@ -1706,53 +1717,61 @@
         <v>1</v>
       </c>
       <c r="E4" s="12">
+        <f t="shared" ref="E4" si="3">F4/0.4</f>
+        <v>1416.5</v>
+      </c>
+      <c r="F4" s="68">
+        <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A4), 1)</f>
+        <v>566.6</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4" si="4">ROUND(F4/(0.5+0.16666), 1)</f>
+        <v>849.9</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
         <f t="shared" si="0"/>
         <v>18200</v>
       </c>
-      <c r="F4" s="68">
-        <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A4), 1)</f>
+      <c r="F5" s="68">
+        <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A5), 1)</f>
         <v>7280</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G5" s="12">
         <f t="shared" si="1"/>
         <v>10920.1</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="68">
-        <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A5), 1)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="H5" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J5" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>35</v>
@@ -1778,10 +1797,14 @@
       <c r="H6" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="J6" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>35</v>
@@ -1794,23 +1817,27 @@
       </c>
       <c r="E7" s="12">
         <f t="shared" si="0"/>
-        <v>622.25</v>
+        <v>0</v>
       </c>
       <c r="F7" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A7), 1)</f>
-        <v>248.9</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>373.4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J7" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>35</v>
@@ -1823,23 +1850,27 @@
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>9950</v>
+        <v>622.25</v>
       </c>
       <c r="F8" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A8), 1)</f>
-        <v>3980</v>
+        <v>248.9</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="1"/>
-        <v>5970.1</v>
+        <v>373.4</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J8" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>35</v>
@@ -1852,23 +1883,27 @@
       </c>
       <c r="E9" s="12">
         <f t="shared" si="0"/>
-        <v>976.25</v>
+        <v>9950</v>
       </c>
       <c r="F9" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A9), 1)</f>
-        <v>390.5</v>
+        <v>3980</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>585.79999999999995</v>
+        <v>5970.1</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J9" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>35</v>
@@ -1881,23 +1916,27 @@
       </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>976.25</v>
       </c>
       <c r="F10" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A10), 1)</f>
-        <v>4400</v>
+        <v>390.5</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>6600.1</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J10" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>35</v>
@@ -1910,23 +1949,27 @@
       </c>
       <c r="E11" s="12">
         <f t="shared" si="0"/>
-        <v>493.25</v>
+        <v>11000</v>
       </c>
       <c r="F11" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A11), 1)</f>
-        <v>197.3</v>
+        <v>4400</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="1"/>
-        <v>296</v>
+        <v>6600.1</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J11" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>35</v>
@@ -1939,23 +1982,27 @@
       </c>
       <c r="E12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>493.25</v>
       </c>
       <c r="F12" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A12), 1)</f>
-        <v>0</v>
+        <v>197.3</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J12" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>35</v>
@@ -1968,23 +2015,27 @@
       </c>
       <c r="E13" s="12">
         <f t="shared" si="0"/>
-        <v>24624.25</v>
+        <v>0</v>
       </c>
       <c r="F13" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A13), 1)</f>
-        <v>9849.7000000000007</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="1"/>
-        <v>14774.7</v>
+        <v>0</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J13" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>35</v>
@@ -1997,23 +2048,27 @@
       </c>
       <c r="E14" s="12">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>24624.25</v>
       </c>
       <c r="F14" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A14), 1)</f>
-        <v>20</v>
+        <v>9849.7000000000007</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>14774.7</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J14" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>35</v>
@@ -2026,23 +2081,27 @@
       </c>
       <c r="E15" s="12">
         <f t="shared" si="0"/>
-        <v>487.5</v>
+        <v>50</v>
       </c>
       <c r="F15" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A15), 1)</f>
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>292.5</v>
+        <v>30</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J15" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>35</v>
@@ -2055,23 +2114,27 @@
       </c>
       <c r="E16" s="12">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>487.5</v>
       </c>
       <c r="F16" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A16), 1)</f>
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>292.5</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>35</v>
@@ -2084,23 +2147,27 @@
       </c>
       <c r="E17" s="12">
         <f t="shared" si="0"/>
-        <v>14035.75</v>
+        <v>125</v>
       </c>
       <c r="F17" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A17), 1)</f>
-        <v>5614.3</v>
+        <v>50</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>8421.5</v>
+        <v>75</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>35</v>
@@ -2113,23 +2180,27 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14035.75</v>
       </c>
       <c r="F18" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A18), 1)</f>
-        <v>0</v>
+        <v>5614.3</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8421.5</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>35</v>
@@ -2155,10 +2226,14 @@
       <c r="H19" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>35</v>
@@ -2184,10 +2259,14 @@
       <c r="H20" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>35</v>
@@ -2213,10 +2292,14 @@
       <c r="H21" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>35</v>
@@ -2229,26 +2312,30 @@
       </c>
       <c r="E22" s="12">
         <f t="shared" si="0"/>
-        <v>116676.74999999999</v>
+        <v>0</v>
       </c>
       <c r="F22" s="68">
         <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A22), 1)</f>
-        <v>46670.7</v>
+        <v>0</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="1"/>
-        <v>70006.8</v>
+        <v>0</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>34</v>
@@ -2258,23 +2345,27 @@
       </c>
       <c r="E23" s="12">
         <f t="shared" si="0"/>
-        <v>1901.5</v>
-      </c>
-      <c r="F23" s="69">
-        <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A23), 1)</f>
-        <v>760.6</v>
+        <v>116676.74999999999</v>
+      </c>
+      <c r="F23" s="68">
+        <f>ROUND(SUMIFS(Summary!$W:$W,Summary!$I:$I, $A23), 1)</f>
+        <v>46670.7</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="1"/>
-        <v>1140.9000000000001</v>
+        <v>70006.8</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>36</v>
@@ -2287,23 +2378,27 @@
       </c>
       <c r="E24" s="12">
         <f t="shared" si="0"/>
-        <v>4133.25</v>
+        <v>1901.5</v>
       </c>
       <c r="F24" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A24), 1)</f>
-        <v>1653.3</v>
+        <v>760.6</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="1"/>
-        <v>2480</v>
+        <v>1140.9000000000001</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>36</v>
@@ -2316,23 +2411,27 @@
       </c>
       <c r="E25" s="12">
         <f t="shared" si="0"/>
-        <v>32669</v>
+        <v>4133.25</v>
       </c>
       <c r="F25" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A25), 1)</f>
-        <v>13067.6</v>
+        <v>1653.3</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="1"/>
-        <v>19601.599999999999</v>
+        <v>2480</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>36</v>
@@ -2344,24 +2443,28 @@
         <v>1</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="E26" si="5">F26/0.4</f>
+        <v>1064.7499999999998</v>
       </c>
       <c r="F26" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A26), 1)</f>
-        <v>0</v>
+        <v>425.9</v>
       </c>
       <c r="G26" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="G26" si="6">ROUND(F26/(0.5+0.16666), 1)</f>
+        <v>638.9</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>36</v>
@@ -2374,23 +2477,27 @@
       </c>
       <c r="E27" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32669</v>
       </c>
       <c r="F27" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A27), 1)</f>
-        <v>0</v>
+        <v>13067.6</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19601.599999999999</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J27" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>36</v>
@@ -2403,23 +2510,27 @@
       </c>
       <c r="E28" s="12">
         <f t="shared" si="0"/>
-        <v>774</v>
+        <v>0</v>
       </c>
       <c r="F28" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A28), 1)</f>
-        <v>309.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="1"/>
-        <v>464.4</v>
+        <v>0</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>36</v>
@@ -2432,23 +2543,27 @@
       </c>
       <c r="E29" s="12">
         <f t="shared" si="0"/>
-        <v>4325</v>
+        <v>0</v>
       </c>
       <c r="F29" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A29), 1)</f>
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="1"/>
-        <v>2595</v>
+        <v>0</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>36</v>
@@ -2461,23 +2576,27 @@
       </c>
       <c r="E30" s="12">
         <f t="shared" si="0"/>
-        <v>6562</v>
+        <v>774</v>
       </c>
       <c r="F30" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A30), 1)</f>
-        <v>2624.8</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="1"/>
-        <v>3937.2</v>
+        <v>464.4</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J30" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>36</v>
@@ -2490,23 +2609,27 @@
       </c>
       <c r="E31" s="12">
         <f t="shared" si="0"/>
-        <v>6065</v>
+        <v>4325</v>
       </c>
       <c r="F31" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A31), 1)</f>
-        <v>2426</v>
+        <v>1730</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="1"/>
-        <v>3639</v>
+        <v>2595</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>36</v>
@@ -2519,23 +2642,27 @@
       </c>
       <c r="E32" s="12">
         <f t="shared" si="0"/>
-        <v>967.99999999999989</v>
+        <v>6562</v>
       </c>
       <c r="F32" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A32), 1)</f>
-        <v>387.2</v>
+        <v>2624.8</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="1"/>
-        <v>580.79999999999995</v>
+        <v>3937.2</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J32" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>36</v>
@@ -2548,23 +2675,27 @@
       </c>
       <c r="E33" s="12">
         <f t="shared" si="0"/>
-        <v>732.99999999999989</v>
+        <v>6065</v>
       </c>
       <c r="F33" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A33), 1)</f>
-        <v>293.2</v>
+        <v>2426</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="1"/>
-        <v>439.8</v>
+        <v>3639</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J33" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>36</v>
@@ -2577,23 +2708,27 @@
       </c>
       <c r="E34" s="12">
         <f t="shared" si="0"/>
-        <v>2788.9999999999995</v>
+        <v>967.99999999999989</v>
       </c>
       <c r="F34" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A34), 1)</f>
-        <v>1115.5999999999999</v>
+        <v>387.2</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="1"/>
-        <v>1673.4</v>
+        <v>580.79999999999995</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J34" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>36</v>
@@ -2606,23 +2741,27 @@
       </c>
       <c r="E35" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>732.99999999999989</v>
       </c>
       <c r="F35" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A35), 1)</f>
-        <v>0</v>
+        <v>293.2</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>439.8</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J35" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>36</v>
@@ -2635,23 +2774,27 @@
       </c>
       <c r="E36" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2788.9999999999995</v>
       </c>
       <c r="F36" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A36), 1)</f>
-        <v>0</v>
+        <v>1115.5999999999999</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1673.4</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J36" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>36</v>
@@ -2677,10 +2820,14 @@
       <c r="H37" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="J37" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>36</v>
@@ -2693,23 +2840,27 @@
       </c>
       <c r="E38" s="12">
         <f t="shared" si="0"/>
-        <v>5387.7499999999991</v>
+        <v>0</v>
       </c>
       <c r="F38" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A38), 1)</f>
-        <v>2155.1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="1"/>
-        <v>3232.7</v>
+        <v>0</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J38" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>36</v>
@@ -2722,23 +2873,27 @@
       </c>
       <c r="E39" s="12">
         <f t="shared" si="0"/>
-        <v>1337.5</v>
+        <v>0</v>
       </c>
       <c r="F39" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A39), 1)</f>
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="G39" s="12">
         <f t="shared" si="1"/>
-        <v>802.5</v>
+        <v>0</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J39" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>36</v>
@@ -2751,23 +2906,27 @@
       </c>
       <c r="E40" s="12">
         <f t="shared" si="0"/>
-        <v>5000.2499999999991</v>
+        <v>5387.7499999999991</v>
       </c>
       <c r="F40" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A40), 1)</f>
-        <v>2000.1</v>
+        <v>2155.1</v>
       </c>
       <c r="G40" s="12">
         <f t="shared" si="1"/>
-        <v>3000.2</v>
+        <v>3232.7</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J40" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>36</v>
@@ -2780,23 +2939,27 @@
       </c>
       <c r="E41" s="12">
         <f t="shared" si="0"/>
-        <v>17164.5</v>
+        <v>1337.5</v>
       </c>
       <c r="F41" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A41), 1)</f>
-        <v>6865.8</v>
+        <v>535</v>
       </c>
       <c r="G41" s="12">
         <f t="shared" si="1"/>
-        <v>10298.799999999999</v>
+        <v>802.5</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J41" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>36</v>
@@ -2809,23 +2972,27 @@
       </c>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>4691</v>
+        <v>5000.2499999999991</v>
       </c>
       <c r="F42" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A42), 1)</f>
-        <v>1876.4</v>
+        <v>2000.1</v>
       </c>
       <c r="G42" s="12">
         <f t="shared" si="1"/>
-        <v>2814.6</v>
+        <v>3000.2</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J42" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>36</v>
@@ -2838,26 +3005,30 @@
       </c>
       <c r="E43" s="12">
         <f t="shared" si="0"/>
-        <v>20518</v>
+        <v>17164.5</v>
       </c>
       <c r="F43" s="69">
         <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A43), 1)</f>
-        <v>8207.2000000000007</v>
+        <v>6865.8</v>
       </c>
       <c r="G43" s="12">
         <f t="shared" si="1"/>
-        <v>12310.9</v>
+        <v>10298.799999999999</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="J43" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>34</v>
@@ -2865,16 +3036,32 @@
       <c r="D44" s="12">
         <v>1</v>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>129</v>
+      <c r="E44" s="12">
+        <f t="shared" si="0"/>
+        <v>4691</v>
+      </c>
+      <c r="F44" s="69">
+        <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A44), 1)</f>
+        <v>1876.4</v>
+      </c>
+      <c r="G44" s="12">
+        <f t="shared" si="1"/>
+        <v>2814.6</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>34</v>
@@ -2882,178 +3069,24 @@
       <c r="D45" s="12">
         <v>1</v>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="12">
-        <v>1</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="12">
-        <v>1</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="12">
-        <v>1</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="12">
-        <v>1</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="12">
-        <v>1</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="12">
-        <v>1</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="12">
-        <v>1</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="12">
-        <v>1</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="12">
-        <v>1</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="12">
-        <v>1</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>129</v>
+      <c r="E45" s="12">
+        <f t="shared" si="0"/>
+        <v>20518</v>
+      </c>
+      <c r="F45" s="69">
+        <f>ROUND(SUMIFS(Summary!$V:$V,Summary!$I:$I, $A45), 1)</f>
+        <v>8207.2000000000007</v>
+      </c>
+      <c r="G45" s="12">
+        <f t="shared" si="1"/>
+        <v>12310.9</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3067,10 +3100,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,7 +3142,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -3151,7 +3184,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
@@ -3167,12 +3200,12 @@
       </c>
       <c r="F4" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A4)</f>
-        <v>68.400874431818181</v>
+        <v>3.2188081127694792</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -3188,12 +3221,12 @@
       </c>
       <c r="F5" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A5)</f>
-        <v>0</v>
+        <v>68.400874431818181</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
@@ -3214,7 +3247,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>33</v>
@@ -3230,12 +3263,12 @@
       </c>
       <c r="F7" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A7)</f>
-        <v>0.85807817866820701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
@@ -3251,12 +3284,12 @@
       </c>
       <c r="F8" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A8)</f>
-        <v>49.067176704545489</v>
+        <v>0.85807817866820701</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>33</v>
@@ -3272,12 +3305,12 @@
       </c>
       <c r="F9" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A9)</f>
-        <v>15.239273863636374</v>
+        <v>49.067176704545489</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>33</v>
@@ -3293,12 +3326,12 @@
       </c>
       <c r="F10" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A10)</f>
-        <v>34.606931188636487</v>
+        <v>15.239273863636374</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -3314,12 +3347,12 @@
       </c>
       <c r="F11" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A11)</f>
-        <v>2.3796772702297733</v>
+        <v>34.606931188636487</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>33</v>
@@ -3335,12 +3368,12 @@
       </c>
       <c r="F12" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A12)</f>
-        <v>1.295391806551029</v>
+        <v>2.3796772702297733</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>33</v>
@@ -3356,12 +3389,12 @@
       </c>
       <c r="F13" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A13)</f>
-        <v>55.370671000000002</v>
+        <v>1.295391806551029</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>21</v>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>33</v>
@@ -3377,12 +3410,12 @@
       </c>
       <c r="F14" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A14)</f>
-        <v>0.17709937036877885</v>
+        <v>55.370671000000002</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>33</v>
@@ -3398,12 +3431,12 @@
       </c>
       <c r="F15" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A15)</f>
-        <v>1.7267188610955937</v>
+        <v>0.17709937036877885</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>22</v>
+      <c r="A16" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>33</v>
@@ -3419,13 +3452,12 @@
       </c>
       <c r="F16" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A16)</f>
-        <v>0.44274842592194713</v>
-      </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>1.7267188610955937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -3441,12 +3473,13 @@
       </c>
       <c r="F17" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A17)</f>
-        <v>32.116778500000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.44274842592194713</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>33</v>
@@ -3462,12 +3495,12 @@
       </c>
       <c r="F18" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A18)</f>
-        <v>1.1403121428571428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32.116778500000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>33</v>
@@ -3483,12 +3516,12 @@
       </c>
       <c r="F19" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A19)</f>
-        <v>5.0979269230769226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.1403121428571428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>33</v>
@@ -3504,12 +3537,12 @@
       </c>
       <c r="F20" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A20)</f>
-        <v>22.884912390109893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.0979269230769226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
@@ -3525,12 +3558,12 @@
       </c>
       <c r="F21" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A21)</f>
-        <v>5.2148953846153843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.884912390109893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>33</v>
@@ -3546,16 +3579,37 @@
       </c>
       <c r="F22" s="18">
         <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A22)</f>
+        <v>5.2148953846153843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18">
+        <f>SUMIFS(Summary!$L:$L,Summary!$I:$I,demanddata!A23)</f>
         <v>147.36625717032967</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A16 G4:G16 B4:F22">
+  <conditionalFormatting sqref="A5:A17 G5:G17 B5:F23">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G3">
+  <conditionalFormatting sqref="A2:G4">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -3569,10 +3623,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3606,24 +3660,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="H1" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="I1" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="J1" s="61" t="s">
         <v>125</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="58" t="s">
         <v>33</v>
@@ -3669,7 +3723,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="62" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>33</v>
@@ -3692,7 +3746,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>33</v>
@@ -3715,7 +3769,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>33</v>
@@ -3738,7 +3792,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>33</v>
@@ -3761,7 +3815,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B8" s="58" t="s">
         <v>33</v>
@@ -3784,7 +3838,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="58" t="s">
         <v>33</v>
@@ -3807,7 +3861,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="62" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10" s="58" t="s">
         <v>33</v>
@@ -3830,7 +3884,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="62" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>33</v>
@@ -3853,7 +3907,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -3876,7 +3930,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="62" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" s="58" t="s">
         <v>33</v>
@@ -3899,7 +3953,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" s="58" t="s">
         <v>33</v>
@@ -3922,7 +3976,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="62" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>33</v>
@@ -3945,7 +3999,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" s="58" t="s">
         <v>33</v>
@@ -3968,7 +4022,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="62" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B17" s="58" t="s">
         <v>33</v>
@@ -3991,7 +4045,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="62" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B18" s="58" t="s">
         <v>33</v>
@@ -4014,7 +4068,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="62" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B19" s="58" t="s">
         <v>33</v>
@@ -4037,7 +4091,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="58" t="s">
         <v>33</v>
@@ -4060,7 +4114,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="58" t="s">
         <v>33</v>
@@ -4083,7 +4137,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="62" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B22" s="58" t="s">
         <v>33</v>
@@ -4105,11 +4159,34 @@
       <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
+      <c r="A23" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="59">
+        <v>1</v>
+      </c>
       <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
+      <c r="H23" s="63">
+        <v>4000</v>
+      </c>
       <c r="I23" s="63"/>
       <c r="J23" s="63"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -4129,10 +4206,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B3:Z30"/>
+  <dimension ref="B3:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,62 +4228,62 @@
   <sheetData>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C3" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O3" s="38"/>
       <c r="R3" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
       <c r="U3" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C4" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J4" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="O4" t="s">
         <v>38</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -4215,7 +4292,7 @@
         <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s">
         <v>36</v>
@@ -4224,7 +4301,7 @@
         <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s">
         <v>36</v>
@@ -4233,7 +4310,7 @@
         <v>35</v>
       </c>
       <c r="X4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s">
         <v>36</v>
@@ -4244,83 +4321,83 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C5" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J5" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="O5" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="Q5" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="N5" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" s="47" t="s">
+      <c r="R5" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="R5" s="47" t="s">
-        <v>121</v>
-      </c>
       <c r="S5" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T5" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U5" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V5" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W5" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X5" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y5" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z5" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="56" t="e">
-        <f>J6*10^6/$O6 / 8760</f>
+        <f t="shared" ref="C6:C15" si="0">J6*10^6/$O6 / 8760</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D6" s="56" t="e">
-        <f>K6*10^6/$O6 / 8760</f>
+        <f t="shared" ref="D6:D15" si="1">K6*10^6/$O6 / 8760</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56">
-        <f>IFERROR(L6*10^6/$X6 / 8760, "-")</f>
+        <f t="shared" ref="F6:F15" si="2">IFERROR(L6*10^6/$X6 / 8760, "-")</f>
         <v>0.8956448761979382</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I6)</f>
@@ -4368,743 +4445,733 @@
         <v>1605.885</v>
       </c>
       <c r="V6" s="53">
-        <f t="shared" ref="V6" si="0">S6</f>
+        <f t="shared" ref="V6" si="3">S6</f>
         <v>760.64499999999998</v>
       </c>
       <c r="W6" s="53">
-        <f t="shared" ref="W6" si="1">T6</f>
+        <f t="shared" ref="W6" si="4">T6</f>
         <v>845.24</v>
       </c>
       <c r="X6" s="46">
-        <f>IF(ISNUMBER(U6), U6/(0.5+0.16666), "-")</f>
+        <f t="shared" ref="X6:X15" si="5">IF(ISNUMBER(U6), U6/(0.5+0.16666), "-")</f>
         <v>2408.8515885158849</v>
       </c>
       <c r="Y6" s="46">
-        <f t="shared" ref="Y6" si="2">IF(ISNUMBER(V6), V6/(0.5+0.16666), "-")</f>
+        <f t="shared" ref="Y6" si="6">IF(ISNUMBER(V6), V6/(0.5+0.16666), "-")</f>
         <v>1140.9789097890978</v>
       </c>
       <c r="Z6" s="46">
-        <f t="shared" ref="Z6" si="3">IF(ISNUMBER(W6), W6/(0.5+0.16666), "-")</f>
+        <f t="shared" ref="Z6" si="7">IF(ISNUMBER(W6), W6/(0.5+0.16666), "-")</f>
         <v>1267.8726787267872</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" s="56">
-        <f>J7*10^6/$O7 / 8760</f>
-        <v>0.47251825447560958</v>
+        <f t="shared" si="0"/>
+        <v>0.30345104317550092</v>
       </c>
       <c r="D7" s="56">
-        <f>K7*10^6/$O7 / 8760</f>
-        <v>0.36156677080105204</v>
+        <f t="shared" si="1"/>
+        <v>0.89194094961654002</v>
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56">
-        <f>IFERROR(L7*10^6/$X7 / 8760, "-")</f>
-        <v>0.25582832417323897</v>
+        <f t="shared" si="2"/>
+        <v>0.35677281208281764</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J7" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I7)</f>
-        <v>89.390575686813193</v>
+        <v>9.4712947527472533</v>
       </c>
       <c r="K7" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I7) / 10^3 * 1.5</f>
-        <v>68.400874431818181</v>
+        <v>27.839204464285633</v>
       </c>
       <c r="L7" s="50">
         <f>K7</f>
-        <v>68.400874431818181</v>
+        <v>27.839204464285633</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I7)</f>
-        <v>35992.978474241667</v>
+        <v>5938.3441220105924</v>
       </c>
       <c r="O7" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I7)</f>
-        <v>21595.787084545002</v>
+        <v>3563.0064732063561</v>
       </c>
       <c r="P7" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I7,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>23022.172503802049</v>
+        <v>1653.2737143669149</v>
       </c>
       <c r="Q7" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I7,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>12970.805970439615</v>
+        <v>4285.0704076436778</v>
       </c>
       <c r="R7" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I7)</f>
-        <v>20347.606</v>
+        <v>2208.625</v>
       </c>
       <c r="S7" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I7,  TYNDP2024!$B:$B,S$4)</f>
-        <v>13067.585999999999</v>
+        <v>614.625</v>
       </c>
       <c r="T7" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I7,  TYNDP2024!$B:$B,T$4)</f>
-        <v>7280.02</v>
-      </c>
-      <c r="U7" s="53">
-        <f>R7</f>
-        <v>20347.606</v>
-      </c>
-      <c r="V7" s="53">
-        <f t="shared" ref="V7:V8" si="4">S7</f>
-        <v>13067.585999999999</v>
-      </c>
-      <c r="W7" s="53">
-        <f t="shared" ref="W7:W8" si="5">T7</f>
-        <v>7280.02</v>
+        <v>1594</v>
+      </c>
+      <c r="U7" s="54">
+        <f t="shared" ref="U7" si="8">N7</f>
+        <v>5938.3441220105924</v>
+      </c>
+      <c r="V7" s="54">
+        <f t="shared" ref="V7" si="9">P7</f>
+        <v>1653.2737143669149</v>
+      </c>
+      <c r="W7" s="54">
+        <f t="shared" ref="W7" si="10">Q7</f>
+        <v>4285.0704076436778</v>
       </c>
       <c r="X7" s="46">
-        <f>IF(ISNUMBER(U7), U7/(0.5+0.16666), "-")</f>
-        <v>30521.714217142169</v>
+        <f t="shared" si="5"/>
+        <v>8907.6052590684794</v>
       </c>
       <c r="Y7" s="46">
-        <f t="shared" ref="Y7:Y29" si="6">IF(ISNUMBER(V7), V7/(0.5+0.16666), "-")</f>
-        <v>19601.575015750157</v>
+        <f>IF(ISNUMBER(V7), V7/(0.5+0.16666), "-")</f>
+        <v>2479.9353709040811</v>
       </c>
       <c r="Z7" s="46">
-        <f t="shared" ref="Z7:Z29" si="7">IF(ISNUMBER(W7), W7/(0.5+0.16666), "-")</f>
-        <v>10920.139201392014</v>
+        <f>IF(ISNUMBER(W7), W7/(0.5+0.16666), "-")</f>
+        <v>6427.6698881643979</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="56">
-        <f t="shared" ref="C8:C29" si="8">J8*10^6/$O8 / 8760</f>
-        <v>0.3880596618755609</v>
-      </c>
-      <c r="D8" s="56">
-        <f t="shared" ref="D8:D29" si="9">K8*10^6/$O8 / 8760</f>
-        <v>0.48839043565220397</v>
+        <v>127</v>
+      </c>
+      <c r="C8" s="56" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56">
-        <f t="shared" ref="F8:F29" si="10">IFERROR(L8*10^6/$X8 / 8760, "-")</f>
-        <v>0.38583098109659286</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0.24681418418572429</v>
+      </c>
+      <c r="I8" t="str">
+        <f>B8</f>
+        <v>CH00</v>
       </c>
       <c r="J8" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I8)</f>
-        <v>27.49757782967033</v>
+        <v>0</v>
       </c>
       <c r="K8" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I8) / 10^3 * 1.5</f>
-        <v>34.606931188636487</v>
-      </c>
-      <c r="L8" s="50">
-        <f>K8</f>
-        <v>34.606931188636487</v>
+        <v>0</v>
+      </c>
+      <c r="L8" s="71">
+        <f>SUM(L6:L7,L13:L30)/SUM(U6:U7,U9:U30)*U8</f>
+        <v>3.2188081127694792</v>
       </c>
       <c r="M8" s="40"/>
       <c r="N8" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I8)</f>
-        <v>13481.57345943102</v>
+        <v>0</v>
       </c>
       <c r="O8" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I8)</f>
-        <v>8088.9440756586137</v>
+        <v>0</v>
       </c>
       <c r="P8" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I8,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>6492.1236100749575</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I8,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>6989.4498493560623</v>
+        <v>0</v>
       </c>
       <c r="R8" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I8)</f>
-        <v>6826</v>
+        <v>992.48800000000006</v>
       </c>
       <c r="S8" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I8,  TYNDP2024!$B:$B,S$4)</f>
-        <v>2426</v>
+        <v>425.88900000000001</v>
       </c>
       <c r="T8" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I8,  TYNDP2024!$B:$B,T$4)</f>
-        <v>4400</v>
+        <v>566.59900000000005</v>
       </c>
       <c r="U8" s="53">
         <f>R8</f>
-        <v>6826</v>
+        <v>992.48800000000006</v>
       </c>
       <c r="V8" s="53">
-        <f t="shared" si="4"/>
-        <v>2426</v>
+        <f t="shared" ref="V8" si="11">S8</f>
+        <v>425.88900000000001</v>
       </c>
       <c r="W8" s="53">
+        <f t="shared" ref="W8" si="12">T8</f>
+        <v>566.59900000000005</v>
+      </c>
+      <c r="X8" s="46">
         <f t="shared" si="5"/>
-        <v>4400</v>
-      </c>
-      <c r="X8" s="46">
-        <f t="shared" ref="X8:X29" si="11">IF(ISNUMBER(U8), U8/(0.5+0.16666), "-")</f>
-        <v>10239.102391023909</v>
+        <v>1488.7468874688748</v>
       </c>
       <c r="Y8" s="46">
-        <f t="shared" si="6"/>
-        <v>3639.0363903639036</v>
+        <f>IF(ISNUMBER(V8), V8/(0.5+0.16666), "-")</f>
+        <v>638.839888398884</v>
       </c>
       <c r="Z8" s="46">
-        <f t="shared" si="7"/>
-        <v>6600.0660006600065</v>
+        <f>IF(ISNUMBER(W8), W8/(0.5+0.16666), "-")</f>
+        <v>849.90699906999077</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="56">
-        <f t="shared" si="8"/>
-        <v>0.51091063303722406</v>
+        <f t="shared" si="0"/>
+        <v>0.47251825447560958</v>
       </c>
       <c r="D9" s="56">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.36156677080105204</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56">
-        <f t="shared" si="10"/>
-        <v>0.20436220957235743</v>
+        <f t="shared" si="2"/>
+        <v>0.25582832417323897</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J9" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I9)</f>
-        <v>147.36625717032967</v>
+        <v>89.390575686813193</v>
       </c>
       <c r="K9" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I9) / 10^3 * 1.5</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="51">
-        <f t="shared" ref="L9" si="12">J9</f>
-        <v>147.36625717032967</v>
+        <v>68.400874431818181</v>
+      </c>
+      <c r="L9" s="50">
+        <f>K9</f>
+        <v>68.400874431818181</v>
       </c>
       <c r="M9" s="40"/>
       <c r="N9" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I9)</f>
-        <v>54877.934317213338</v>
+        <v>35992.978474241667</v>
       </c>
       <c r="O9" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I9)</f>
-        <v>32926.760590327998</v>
+        <v>21595.787084545002</v>
       </c>
       <c r="P9" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I9,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>8207.2270731092522</v>
+        <v>23022.172503802049</v>
       </c>
       <c r="Q9" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I9,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>46670.707244104087</v>
+        <v>12970.805970439615</v>
       </c>
       <c r="R9" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I9)</f>
-        <v>11563.359</v>
+        <v>20347.606</v>
       </c>
       <c r="S9" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I9,  TYNDP2024!$B:$B,S$4)</f>
-        <v>2906.1660000000002</v>
+        <v>13067.585999999999</v>
       </c>
       <c r="T9" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I9,  TYNDP2024!$B:$B,T$4)</f>
-        <v>8657.1929999999993</v>
-      </c>
-      <c r="U9" s="54">
-        <f t="shared" ref="U9" si="13">N9</f>
-        <v>54877.934317213338</v>
-      </c>
-      <c r="V9" s="54">
-        <f t="shared" ref="V9" si="14">P9</f>
-        <v>8207.2270731092522</v>
-      </c>
-      <c r="W9" s="54">
-        <f t="shared" ref="W9" si="15">Q9</f>
-        <v>46670.707244104087</v>
+        <v>7280.02</v>
+      </c>
+      <c r="U9" s="53">
+        <f>R9</f>
+        <v>20347.606</v>
+      </c>
+      <c r="V9" s="53">
+        <f t="shared" ref="V9:V16" si="13">S9</f>
+        <v>13067.585999999999</v>
+      </c>
+      <c r="W9" s="53">
+        <f t="shared" ref="W9:W16" si="14">T9</f>
+        <v>7280.02</v>
       </c>
       <c r="X9" s="46">
-        <f t="shared" si="11"/>
-        <v>82317.724653066529</v>
+        <f t="shared" si="5"/>
+        <v>30521.714217142169</v>
       </c>
       <c r="Y9" s="46">
-        <f t="shared" si="6"/>
-        <v>12310.963719301071</v>
+        <f t="shared" ref="Y9:Y29" si="15">IF(ISNUMBER(V9), V9/(0.5+0.16666), "-")</f>
+        <v>19601.575015750157</v>
       </c>
       <c r="Z9" s="46">
-        <f t="shared" si="7"/>
-        <v>70006.760933765472</v>
+        <f t="shared" ref="Z9:Z29" si="16">IF(ISNUMBER(W9), W9/(0.5+0.16666), "-")</f>
+        <v>10920.139201392014</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="56">
-        <f t="shared" si="8"/>
-        <v>0.19047085455806767</v>
-      </c>
-      <c r="D10" s="56">
-        <f t="shared" si="9"/>
-        <v>0.60817695483820611</v>
+      <c r="B10" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="56" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E10" s="56"/>
-      <c r="F10" s="56">
-        <f t="shared" si="10"/>
-        <v>0.65396486588852809</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="49">
-        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I10)</f>
-        <v>15.367019423076924</v>
-      </c>
+      <c r="F10" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="49"/>
       <c r="K10" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I10) / 10^3 * 1.5</f>
-        <v>49.067176704545489</v>
-      </c>
-      <c r="L10" s="50">
-        <f>K10</f>
-        <v>49.067176704545489</v>
-      </c>
+        <v>7.9047771613635849</v>
+      </c>
+      <c r="L10" s="49"/>
       <c r="M10" s="40"/>
       <c r="N10" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I10)</f>
-        <v>15349.907169162736</v>
+        <v>0</v>
       </c>
       <c r="O10" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I10)</f>
-        <v>9209.9443014976423</v>
+        <v>0</v>
       </c>
       <c r="P10" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I10,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>4650.6723997638419</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I10,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>10699.234769398894</v>
+        <v>0</v>
       </c>
       <c r="R10" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I10)</f>
-        <v>5710.0110000000004</v>
+        <v>0</v>
       </c>
       <c r="S10" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I10,  TYNDP2024!$B:$B,S$4)</f>
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="T10" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I10,  TYNDP2024!$B:$B,T$4)</f>
-        <v>3980.011</v>
-      </c>
-      <c r="U10" s="53">
-        <f>R10</f>
-        <v>5710.0110000000004</v>
-      </c>
-      <c r="V10" s="53">
-        <f t="shared" ref="V10:V11" si="16">S10</f>
-        <v>1730</v>
-      </c>
-      <c r="W10" s="53">
-        <f t="shared" ref="W10:W11" si="17">T10</f>
-        <v>3980.011</v>
-      </c>
-      <c r="X10" s="46">
-        <f t="shared" si="11"/>
-        <v>8565.1021510215105</v>
-      </c>
-      <c r="Y10" s="46">
-        <f t="shared" si="6"/>
-        <v>2595.0259502595027</v>
-      </c>
-      <c r="Z10" s="46">
-        <f t="shared" si="7"/>
-        <v>5970.0762007620069</v>
+        <v>0</v>
+      </c>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Y10" s="46" t="str">
+        <f t="shared" ref="Y10:Z15" si="17">IF(ISNUMBER(V10), V10/(0.5+0.16666), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="Z10" s="46" t="str">
+        <f t="shared" si="17"/>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="56">
-        <f t="shared" si="8"/>
-        <v>0.25966534561024712</v>
-      </c>
-      <c r="D11" s="56">
-        <f t="shared" si="9"/>
-        <v>0.33129856558426174</v>
+      <c r="B11" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="56" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E11" s="56"/>
-      <c r="F11" s="56">
-        <f t="shared" si="10"/>
-        <v>0.31459092076569517</v>
+      <c r="F11" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="49">
-        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I11)</f>
-        <v>25.172503763736266</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="J11" s="49"/>
       <c r="K11" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I11) / 10^3 * 1.5</f>
-        <v>32.116778500000002</v>
-      </c>
-      <c r="L11" s="50">
-        <f>K11</f>
-        <v>32.116778500000002</v>
+        <v>0</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>118</v>
       </c>
       <c r="M11" s="40"/>
       <c r="N11" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I11)</f>
-        <v>18444.082852473824</v>
+        <v>0</v>
       </c>
       <c r="O11" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I11)</f>
-        <v>11066.449711484296</v>
+        <v>0</v>
       </c>
       <c r="P11" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I11,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>5868.4496235170318</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I11,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>12575.633228956791</v>
+        <v>0</v>
       </c>
       <c r="R11" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I11)</f>
-        <v>7769.375</v>
+        <v>0</v>
       </c>
       <c r="S11" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I11,  TYNDP2024!$B:$B,S$4)</f>
-        <v>2155.0540000000001</v>
+        <v>0</v>
       </c>
       <c r="T11" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I11,  TYNDP2024!$B:$B,T$4)</f>
-        <v>5614.3209999999999</v>
-      </c>
-      <c r="U11" s="53">
-        <f>R11</f>
-        <v>7769.375</v>
-      </c>
-      <c r="V11" s="53">
-        <f t="shared" si="16"/>
-        <v>2155.0540000000001</v>
-      </c>
-      <c r="W11" s="53">
+        <v>0</v>
+      </c>
+      <c r="U11" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="W11" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Y11" s="46" t="str">
         <f t="shared" si="17"/>
-        <v>5614.3209999999999</v>
-      </c>
-      <c r="X11" s="46">
-        <f t="shared" si="11"/>
-        <v>11654.179041790418</v>
-      </c>
-      <c r="Y11" s="46">
-        <f t="shared" si="6"/>
-        <v>3232.6133261332611</v>
-      </c>
-      <c r="Z11" s="46">
-        <f t="shared" si="7"/>
-        <v>8421.565715657156</v>
+        <v>-</v>
+      </c>
+      <c r="Z11" s="46" t="str">
+        <f t="shared" si="17"/>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>14</v>
+      <c r="B12" s="44" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="56">
-        <f t="shared" si="8"/>
-        <v>0.20980758645537587</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D12" s="56">
-        <f t="shared" si="9"/>
-        <v>0.96072939647712852</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E12" s="56"/>
-      <c r="F12" s="56">
-        <f t="shared" si="10"/>
-        <v>0.38428791567326565</v>
+      <c r="F12" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J12" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I12)</f>
-        <v>12.092048901098902</v>
+        <v>0</v>
       </c>
       <c r="K12" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I12) / 10^3 * 1.5</f>
-        <v>55.370671000000002</v>
-      </c>
-      <c r="L12" s="50">
-        <f>K12</f>
-        <v>55.370671000000002</v>
+        <v>0</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>118</v>
       </c>
       <c r="M12" s="40"/>
       <c r="N12" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I12)</f>
-        <v>10965.371513662838</v>
+        <v>18.817749594420167</v>
       </c>
       <c r="O12" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I12)</f>
-        <v>6579.2229081977039</v>
+        <v>11.290649756652103</v>
       </c>
       <c r="P12" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I12,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>1115.62372595491</v>
+        <v>18.817749594420167</v>
       </c>
       <c r="Q12" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I12,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>9849.7477877079273</v>
+        <v>0</v>
       </c>
       <c r="R12" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I12)</f>
-        <v>4796.5</v>
+        <v>7.26</v>
       </c>
       <c r="S12" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I12,  TYNDP2024!$B:$B,S$4)</f>
-        <v>415</v>
+        <v>7.26</v>
       </c>
       <c r="T12" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I12,  TYNDP2024!$B:$B,T$4)</f>
-        <v>4381.5</v>
-      </c>
-      <c r="U12" s="54">
-        <f t="shared" ref="U12" si="18">N12</f>
-        <v>10965.371513662838</v>
-      </c>
-      <c r="V12" s="54">
-        <f t="shared" ref="V12" si="19">P12</f>
-        <v>1115.62372595491</v>
-      </c>
-      <c r="W12" s="54">
-        <f t="shared" ref="W12" si="20">Q12</f>
-        <v>9849.7477877079273</v>
-      </c>
-      <c r="X12" s="46">
-        <f t="shared" si="11"/>
-        <v>16448.221752711783</v>
-      </c>
-      <c r="Y12" s="46">
-        <f t="shared" si="6"/>
-        <v>1673.4523234555995</v>
-      </c>
-      <c r="Z12" s="46">
-        <f t="shared" si="7"/>
-        <v>14774.769429256183</v>
+        <v>0</v>
+      </c>
+      <c r="U12" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="V12" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="W12" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Y12" s="46" t="str">
+        <f t="shared" si="17"/>
+        <v>-</v>
+      </c>
+      <c r="Z12" s="46" t="str">
+        <f t="shared" si="17"/>
+        <v>-</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13" s="56">
-        <f t="shared" si="8"/>
-        <v>0.30345104317550092</v>
+        <f t="shared" si="0"/>
+        <v>0.35857572588601622</v>
       </c>
       <c r="D13" s="56">
-        <f t="shared" si="9"/>
-        <v>0.89194094961654002</v>
+        <f t="shared" si="1"/>
+        <v>4.2281044644683491E-2</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56">
-        <f t="shared" si="10"/>
-        <v>0.35677281208281764</v>
+        <f t="shared" si="2"/>
+        <v>0.11690924866426063</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J13" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I13)</f>
-        <v>9.4712947527472533</v>
+        <v>1.5351418681318685</v>
       </c>
       <c r="K13" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I13) / 10^3 * 1.5</f>
-        <v>27.839204464285633</v>
-      </c>
-      <c r="L13" s="50">
-        <f>K13</f>
-        <v>27.839204464285633</v>
+        <v>0.18101448920454549</v>
+      </c>
+      <c r="L13" s="52">
+        <f>AVERAGE(J13:K13)</f>
+        <v>0.85807817866820701</v>
       </c>
       <c r="M13" s="40"/>
       <c r="N13" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I13)</f>
-        <v>5938.3441220105924</v>
+        <v>814.53973244418739</v>
       </c>
       <c r="O13" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I13)</f>
-        <v>3563.0064732063561</v>
+        <v>488.7238394665124</v>
       </c>
       <c r="P13" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I13,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>1653.2737143669149</v>
+        <v>451.62599026608405</v>
       </c>
       <c r="Q13" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I13,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>4285.0704076436778</v>
+        <v>362.91374217810329</v>
       </c>
       <c r="R13" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I13)</f>
-        <v>2208.625</v>
+        <v>302.60199999999998</v>
       </c>
       <c r="S13" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I13,  TYNDP2024!$B:$B,S$4)</f>
-        <v>614.625</v>
+        <v>167.65</v>
       </c>
       <c r="T13" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I13,  TYNDP2024!$B:$B,T$4)</f>
-        <v>1594</v>
-      </c>
-      <c r="U13" s="54">
-        <f t="shared" ref="U13" si="21">N13</f>
-        <v>5938.3441220105924</v>
-      </c>
-      <c r="V13" s="54">
-        <f t="shared" ref="V13" si="22">P13</f>
-        <v>1653.2737143669149</v>
-      </c>
-      <c r="W13" s="54">
-        <f t="shared" ref="W13" si="23">Q13</f>
-        <v>4285.0704076436778</v>
+        <v>134.952</v>
+      </c>
+      <c r="U13" s="55">
+        <f>AVERAGE(N13,R13)</f>
+        <v>558.57086622209363</v>
+      </c>
+      <c r="V13" s="55">
+        <f t="shared" ref="V13:W13" si="18">AVERAGE(P13,S13)</f>
+        <v>309.63799513304201</v>
+      </c>
+      <c r="W13" s="55">
+        <f t="shared" si="18"/>
+        <v>248.93287108905164</v>
       </c>
       <c r="X13" s="46">
-        <f t="shared" si="11"/>
-        <v>8907.6052590684794</v>
+        <f t="shared" si="5"/>
+        <v>837.8646779799202</v>
       </c>
       <c r="Y13" s="46">
-        <f t="shared" si="6"/>
-        <v>2479.9353709040811</v>
+        <f t="shared" si="17"/>
+        <v>464.46163731593617</v>
       </c>
       <c r="Z13" s="46">
-        <f t="shared" si="7"/>
-        <v>6427.6698881643979</v>
+        <f t="shared" si="17"/>
+        <v>373.40304066398409</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="56" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="56" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="56">
+        <f t="shared" si="0"/>
+        <v>0.19047085455806767</v>
+      </c>
+      <c r="D14" s="56">
+        <f t="shared" si="1"/>
+        <v>0.60817695483820611</v>
       </c>
       <c r="E14" s="56"/>
-      <c r="F14" s="56" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="49"/>
+      <c r="F14" s="56">
+        <f t="shared" si="2"/>
+        <v>0.65396486588852809</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="49">
+        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I14)</f>
+        <v>15.367019423076924</v>
+      </c>
       <c r="K14" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I14) / 10^3 * 1.5</f>
-        <v>12.243905113636341</v>
-      </c>
-      <c r="L14" s="49"/>
+        <v>49.067176704545489</v>
+      </c>
+      <c r="L14" s="50">
+        <f>K14</f>
+        <v>49.067176704545489</v>
+      </c>
       <c r="M14" s="40"/>
       <c r="N14" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I14)</f>
-        <v>0</v>
+        <v>15349.907169162736</v>
       </c>
       <c r="O14" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I14)</f>
-        <v>0</v>
+        <v>9209.9443014976423</v>
       </c>
       <c r="P14" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I14,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>0</v>
+        <v>4650.6723997638419</v>
       </c>
       <c r="Q14" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I14,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>0</v>
+        <v>10699.234769398894</v>
       </c>
       <c r="R14" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I14)</f>
-        <v>0</v>
+        <v>5710.0110000000004</v>
       </c>
       <c r="S14" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I14,  TYNDP2024!$B:$B,S$4)</f>
-        <v>0</v>
+        <v>1730</v>
       </c>
       <c r="T14" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I14,  TYNDP2024!$B:$B,T$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="Y14" s="46" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="Z14" s="46" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+        <v>3980.011</v>
+      </c>
+      <c r="U14" s="53">
+        <f>R14</f>
+        <v>5710.0110000000004</v>
+      </c>
+      <c r="V14" s="53">
+        <f>S14</f>
+        <v>1730</v>
+      </c>
+      <c r="W14" s="53">
+        <f>T14</f>
+        <v>3980.011</v>
+      </c>
+      <c r="X14" s="46">
+        <f t="shared" si="5"/>
+        <v>8565.1021510215105</v>
+      </c>
+      <c r="Y14" s="46">
+        <f t="shared" si="17"/>
+        <v>2595.0259502595027</v>
+      </c>
+      <c r="Z14" s="46">
+        <f t="shared" si="17"/>
+        <v>5970.0762007620069</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="56">
-        <f t="shared" si="8"/>
-        <v>0.40555118147305402</v>
-      </c>
-      <c r="D15" s="56">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C15" s="56" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56">
-        <f t="shared" si="10"/>
-        <v>0.16221885038449577</v>
+        <f t="shared" si="2"/>
+        <v>0.3846193745466388</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J15" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I15)</f>
-        <v>1.1403121428571428</v>
+        <v>0</v>
       </c>
       <c r="K15" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I15) / 10^3 * 1.5</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="51">
-        <f t="shared" ref="L15:L18" si="24">J15</f>
-        <v>1.1403121428571428</v>
+        <v>15.239273863636374</v>
+      </c>
+      <c r="L15" s="50">
+        <f>K15</f>
+        <v>15.239273863636374</v>
       </c>
       <c r="M15" s="40"/>
       <c r="N15" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I15)</f>
-        <v>534.96173846994475</v>
+        <v>0</v>
       </c>
       <c r="O15" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I15)</f>
-        <v>320.97704308196688</v>
+        <v>0</v>
       </c>
       <c r="P15" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I15,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>534.96173846994475</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I15,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
@@ -5112,257 +5179,257 @@
       </c>
       <c r="R15" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I15)</f>
-        <v>198.7</v>
+        <v>3015.32</v>
       </c>
       <c r="S15" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I15,  TYNDP2024!$B:$B,S$4)</f>
-        <v>198.7</v>
+        <v>2624.82</v>
       </c>
       <c r="T15" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I15,  TYNDP2024!$B:$B,T$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="54">
-        <f t="shared" ref="U15:U18" si="25">N15</f>
-        <v>534.96173846994475</v>
-      </c>
-      <c r="V15" s="54">
-        <f t="shared" ref="V15:V18" si="26">P15</f>
-        <v>534.96173846994475</v>
-      </c>
-      <c r="W15" s="54">
-        <f t="shared" ref="W15:W18" si="27">Q15</f>
-        <v>0</v>
+        <v>390.5</v>
+      </c>
+      <c r="U15" s="53">
+        <f>R15</f>
+        <v>3015.32</v>
+      </c>
+      <c r="V15" s="53">
+        <f t="shared" ref="V15" si="19">S15</f>
+        <v>2624.82</v>
+      </c>
+      <c r="W15" s="53">
+        <f t="shared" ref="W15" si="20">T15</f>
+        <v>390.5</v>
       </c>
       <c r="X15" s="46">
-        <f t="shared" si="11"/>
-        <v>802.45063221123917</v>
+        <f t="shared" si="5"/>
+        <v>4523.0252302523022</v>
       </c>
       <c r="Y15" s="46">
-        <f t="shared" si="6"/>
-        <v>802.45063221123917</v>
+        <f t="shared" si="17"/>
+        <v>3937.2693726937268</v>
       </c>
       <c r="Z15" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>585.7558575585756</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C16" s="56">
-        <f t="shared" si="8"/>
-        <v>0.48494855378196877</v>
+        <f t="shared" ref="C16:C29" si="21">J16*10^6/$O16 / 8760</f>
+        <v>0.3880596618755609</v>
       </c>
       <c r="D16" s="56">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="D16:D29" si="22">K16*10^6/$O16 / 8760</f>
+        <v>0.48839043565220397</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56">
-        <f t="shared" si="10"/>
-        <v>0.1939774817185724</v>
+        <f t="shared" ref="F16:F29" si="23">IFERROR(L16*10^6/$X16 / 8760, "-")</f>
+        <v>0.38583098109659286</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J16" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I16)</f>
-        <v>5.0979269230769226</v>
+        <v>27.49757782967033</v>
       </c>
       <c r="K16" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I16) / 10^3 * 1.5</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="51">
-        <f t="shared" si="24"/>
-        <v>5.0979269230769226</v>
+        <v>34.606931188636487</v>
+      </c>
+      <c r="L16" s="50">
+        <f>K16</f>
+        <v>34.606931188636487</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I16)</f>
-        <v>2000.0579568926578</v>
+        <v>13481.57345943102</v>
       </c>
       <c r="O16" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I16)</f>
-        <v>1200.0347741355947</v>
+        <v>8088.9440756586137</v>
       </c>
       <c r="P16" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I16,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>2000.0579568926578</v>
+        <v>6492.1236100749575</v>
       </c>
       <c r="Q16" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I16,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>0</v>
+        <v>6989.4498493560623</v>
       </c>
       <c r="R16" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I16)</f>
-        <v>743.57</v>
+        <v>6826</v>
       </c>
       <c r="S16" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I16,  TYNDP2024!$B:$B,S$4)</f>
-        <v>743.57</v>
+        <v>2426</v>
       </c>
       <c r="T16" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I16,  TYNDP2024!$B:$B,T$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="54">
-        <f t="shared" si="25"/>
-        <v>2000.0579568926578</v>
-      </c>
-      <c r="V16" s="54">
-        <f t="shared" si="26"/>
-        <v>2000.0579568926578</v>
-      </c>
-      <c r="W16" s="54">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4400</v>
+      </c>
+      <c r="U16" s="53">
+        <f>R16</f>
+        <v>6826</v>
+      </c>
+      <c r="V16" s="53">
+        <f t="shared" si="13"/>
+        <v>2426</v>
+      </c>
+      <c r="W16" s="53">
+        <f t="shared" si="14"/>
+        <v>4400</v>
       </c>
       <c r="X16" s="46">
-        <f t="shared" si="11"/>
-        <v>3000.1169365083515</v>
+        <f t="shared" ref="X16:X29" si="24">IF(ISNUMBER(U16), U16/(0.5+0.16666), "-")</f>
+        <v>10239.102391023909</v>
       </c>
       <c r="Y16" s="46">
-        <f t="shared" si="6"/>
-        <v>3000.1169365083515</v>
+        <f t="shared" si="15"/>
+        <v>3639.0363903639036</v>
       </c>
       <c r="Z16" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>6600.0660006600065</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C17" s="56">
-        <f t="shared" si="8"/>
-        <v>0.63416659197298786</v>
+        <f t="shared" ref="C17:D23" si="25">J17*10^6/$O17 / 8760</f>
+        <v>0.88110409050344607</v>
       </c>
       <c r="D17" s="56">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>0.18148118669889057</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56">
-        <f t="shared" si="10"/>
-        <v>0.25366410012282725</v>
+        <f t="shared" ref="F17:F23" si="26">IFERROR(L17*10^6/$X17 / 8760, "-")</f>
+        <v>0.30984926544234476</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J17" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I17)</f>
-        <v>22.884912390109893</v>
+        <v>3.9464943131868133</v>
       </c>
       <c r="K17" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I17) / 10^3 * 1.5</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="51">
-        <f t="shared" si="24"/>
-        <v>22.884912390109893</v>
+        <v>0.8128602272727331</v>
+      </c>
+      <c r="L17" s="52">
+        <f>AVERAGE(J17:K17)</f>
+        <v>2.3796772702297733</v>
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I17)</f>
-        <v>6865.7903520213013</v>
+        <v>852.17523163302758</v>
       </c>
       <c r="O17" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I17)</f>
-        <v>4119.4742112127806</v>
+        <v>511.30513897981666</v>
       </c>
       <c r="P17" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I17,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>6865.7903520213013</v>
+        <v>564.53248783260506</v>
       </c>
       <c r="Q17" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I17,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>0</v>
+        <v>287.64274380042252</v>
       </c>
       <c r="R17" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I17)</f>
-        <v>2818.0549999999998</v>
+        <v>316.77999999999997</v>
       </c>
       <c r="S17" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I17,  TYNDP2024!$B:$B,S$4)</f>
-        <v>2818.0549999999998</v>
+        <v>209.89</v>
       </c>
       <c r="T17" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I17,  TYNDP2024!$B:$B,T$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="54">
-        <f t="shared" si="25"/>
-        <v>6865.7903520213013</v>
-      </c>
-      <c r="V17" s="54">
-        <f t="shared" si="26"/>
-        <v>6865.7903520213013</v>
-      </c>
-      <c r="W17" s="54">
+        <v>106.89</v>
+      </c>
+      <c r="U17" s="55">
+        <f>AVERAGE(N17,R17)</f>
+        <v>584.47761581651378</v>
+      </c>
+      <c r="V17" s="55">
+        <f>AVERAGE(P17,S17)</f>
+        <v>387.21124391630252</v>
+      </c>
+      <c r="W17" s="55">
+        <f>AVERAGE(Q17,T17)</f>
+        <v>197.26637190021125</v>
+      </c>
+      <c r="X17" s="46">
+        <f t="shared" ref="X17:Z23" si="27">IF(ISNUMBER(U17), U17/(0.5+0.16666), "-")</f>
+        <v>876.72519097668044</v>
+      </c>
+      <c r="Y17" s="46">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="46">
-        <f t="shared" si="11"/>
-        <v>10298.788515917111</v>
-      </c>
-      <c r="Y17" s="46">
-        <f t="shared" si="6"/>
-        <v>10298.788515917111</v>
+        <v>580.82267410119482</v>
       </c>
       <c r="Z17" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>295.90251687548562</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C18" s="56">
-        <f t="shared" si="8"/>
-        <v>0.52876801413131469</v>
+        <f t="shared" si="25"/>
+        <v>0.99610074192525844</v>
       </c>
       <c r="D18" s="56">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>0.15711089315422613</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56">
-        <f t="shared" si="10"/>
-        <v>0.21150509058046937</v>
+        <f t="shared" si="26"/>
+        <v>0.33620226471511228</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J18" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I18)</f>
-        <v>5.2148953846153843</v>
+        <v>2.2378212295793301</v>
       </c>
       <c r="K18" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I18) / 10^3 * 1.5</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="51">
-        <f t="shared" si="24"/>
-        <v>5.2148953846153843</v>
+        <v>0.35296238352272813</v>
+      </c>
+      <c r="L18" s="52">
+        <f>AVERAGE(J18:K18)</f>
+        <v>1.295391806551029</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I18)</f>
-        <v>1876.3984595578968</v>
+        <v>427.43174078754384</v>
       </c>
       <c r="O18" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I18)</f>
-        <v>1125.8390757347381</v>
+        <v>256.45904447252627</v>
       </c>
       <c r="P18" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I18,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>1876.3984595578968</v>
+        <v>427.43174078754384</v>
       </c>
       <c r="Q18" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I18,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
@@ -5370,419 +5437,410 @@
       </c>
       <c r="R18" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I18)</f>
-        <v>698.09</v>
+        <v>159.018</v>
       </c>
       <c r="S18" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I18,  TYNDP2024!$B:$B,S$4)</f>
-        <v>698.09</v>
+        <v>159.018</v>
       </c>
       <c r="T18" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I18,  TYNDP2024!$B:$B,T$4)</f>
         <v>0</v>
       </c>
-      <c r="U18" s="54">
-        <f t="shared" si="25"/>
-        <v>1876.3984595578968</v>
-      </c>
-      <c r="V18" s="54">
-        <f t="shared" si="26"/>
-        <v>1876.3984595578968</v>
-      </c>
-      <c r="W18" s="54">
+      <c r="U18" s="55">
+        <f>AVERAGE(N18,R18)</f>
+        <v>293.22487039377194</v>
+      </c>
+      <c r="V18" s="55">
+        <f>AVERAGE(P18,S18)</f>
+        <v>293.22487039377194</v>
+      </c>
+      <c r="W18" s="55">
+        <f>AVERAGE(Q18,T18)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="46">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="46">
-        <f t="shared" si="11"/>
-        <v>2814.6258355952009</v>
+        <v>439.84170400769796</v>
       </c>
       <c r="Y18" s="46">
-        <f t="shared" si="6"/>
-        <v>2814.6258355952009</v>
+        <f t="shared" si="27"/>
+        <v>439.84170400769796</v>
       </c>
       <c r="Z18" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="56" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="56" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>14</v>
+      </c>
+      <c r="C19" s="56">
+        <f t="shared" si="25"/>
+        <v>0.20980758645537587</v>
+      </c>
+      <c r="D19" s="56">
+        <f t="shared" si="25"/>
+        <v>0.96072939647712852</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56">
-        <f t="shared" si="10"/>
-        <v>0.3846193745466388</v>
+        <f t="shared" si="26"/>
+        <v>0.38428791567326565</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J19" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I19)</f>
-        <v>0</v>
+        <v>12.092048901098902</v>
       </c>
       <c r="K19" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I19) / 10^3 * 1.5</f>
-        <v>15.239273863636374</v>
+        <v>55.370671000000002</v>
       </c>
       <c r="L19" s="50">
         <f>K19</f>
-        <v>15.239273863636374</v>
+        <v>55.370671000000002</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I19)</f>
-        <v>0</v>
+        <v>10965.371513662838</v>
       </c>
       <c r="O19" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I19)</f>
-        <v>0</v>
+        <v>6579.2229081977039</v>
       </c>
       <c r="P19" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I19,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>0</v>
+        <v>1115.62372595491</v>
       </c>
       <c r="Q19" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I19,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>0</v>
+        <v>9849.7477877079273</v>
       </c>
       <c r="R19" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I19)</f>
-        <v>3015.32</v>
+        <v>4796.5</v>
       </c>
       <c r="S19" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I19,  TYNDP2024!$B:$B,S$4)</f>
-        <v>2624.82</v>
+        <v>415</v>
       </c>
       <c r="T19" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I19,  TYNDP2024!$B:$B,T$4)</f>
-        <v>390.5</v>
-      </c>
-      <c r="U19" s="53">
-        <f>R19</f>
-        <v>3015.32</v>
-      </c>
-      <c r="V19" s="53">
-        <f t="shared" ref="V19" si="28">S19</f>
-        <v>2624.82</v>
-      </c>
-      <c r="W19" s="53">
-        <f t="shared" ref="W19" si="29">T19</f>
-        <v>390.5</v>
+        <v>4381.5</v>
+      </c>
+      <c r="U19" s="54">
+        <f t="shared" ref="U19" si="28">N19</f>
+        <v>10965.371513662838</v>
+      </c>
+      <c r="V19" s="54">
+        <f t="shared" ref="V19" si="29">P19</f>
+        <v>1115.62372595491</v>
+      </c>
+      <c r="W19" s="54">
+        <f t="shared" ref="W19" si="30">Q19</f>
+        <v>9849.7477877079273</v>
       </c>
       <c r="X19" s="46">
-        <f t="shared" si="11"/>
-        <v>4523.0252302523022</v>
+        <f t="shared" si="27"/>
+        <v>16448.221752711783</v>
       </c>
       <c r="Y19" s="46">
-        <f t="shared" si="6"/>
-        <v>3937.2693726937268</v>
+        <f t="shared" si="27"/>
+        <v>1673.4523234555995</v>
       </c>
       <c r="Z19" s="46">
-        <f t="shared" si="7"/>
-        <v>585.7558575585756</v>
+        <f t="shared" si="27"/>
+        <v>14774.769429256183</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="56">
-        <f t="shared" si="8"/>
-        <v>0.88110409050344607</v>
-      </c>
-      <c r="D20" s="56">
-        <f t="shared" si="9"/>
-        <v>0.18148118669889057</v>
+      <c r="B20" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="56" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="56" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E20" s="56"/>
-      <c r="F20" s="56">
-        <f t="shared" si="10"/>
-        <v>0.30984926544234476</v>
-      </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="49">
-        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I20)</f>
-        <v>3.9464943131868133</v>
-      </c>
+      <c r="F20" s="56" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="49"/>
       <c r="K20" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I20) / 10^3 * 1.5</f>
-        <v>0.8128602272727331</v>
-      </c>
-      <c r="L20" s="52">
-        <f>AVERAGE(J20:K20)</f>
-        <v>2.3796772702297733</v>
-      </c>
+        <v>2.3465666573863198</v>
+      </c>
+      <c r="L20" s="49"/>
       <c r="M20" s="40"/>
       <c r="N20" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I20)</f>
-        <v>852.17523163302758</v>
+        <v>0</v>
       </c>
       <c r="O20" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I20)</f>
-        <v>511.30513897981666</v>
+        <v>0</v>
       </c>
       <c r="P20" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I20,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>564.53248783260506</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I20,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>287.64274380042252</v>
+        <v>0</v>
       </c>
       <c r="R20" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I20)</f>
-        <v>316.77999999999997</v>
+        <v>0</v>
       </c>
       <c r="S20" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I20,  TYNDP2024!$B:$B,S$4)</f>
-        <v>209.89</v>
+        <v>0</v>
       </c>
       <c r="T20" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I20,  TYNDP2024!$B:$B,T$4)</f>
-        <v>106.89</v>
-      </c>
-      <c r="U20" s="55">
-        <f>AVERAGE(N20,R20)</f>
-        <v>584.47761581651378</v>
-      </c>
-      <c r="V20" s="55">
-        <f>AVERAGE(P20,S20)</f>
-        <v>387.21124391630252</v>
-      </c>
-      <c r="W20" s="55">
-        <f>AVERAGE(Q20,T20)</f>
-        <v>197.26637190021125</v>
-      </c>
-      <c r="X20" s="46">
-        <f t="shared" si="11"/>
-        <v>876.72519097668044</v>
-      </c>
-      <c r="Y20" s="46">
-        <f t="shared" si="6"/>
-        <v>580.82267410119482</v>
-      </c>
-      <c r="Z20" s="46">
-        <f t="shared" si="7"/>
-        <v>295.90251687548562</v>
+        <v>0</v>
+      </c>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="Y20" s="46" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="Z20" s="46" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>24</v>
+      <c r="B21" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="C21" s="56">
-        <f t="shared" si="8"/>
-        <v>0.99610074192525844</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="D21" s="56">
-        <f t="shared" si="9"/>
-        <v>0.15711089315422613</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56">
-        <f t="shared" si="10"/>
-        <v>0.33620226471511228</v>
+        <f t="shared" si="26"/>
+        <v>0.67388736444092534</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J21" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I21)</f>
-        <v>2.2378212295793301</v>
+        <v>0</v>
       </c>
       <c r="K21" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I21) / 10^3 * 1.5</f>
-        <v>0.35296238352272813</v>
-      </c>
-      <c r="L21" s="52">
-        <f>AVERAGE(J21:K21)</f>
-        <v>1.295391806551029</v>
+        <v>0</v>
+      </c>
+      <c r="L21" s="49">
+        <f>$K$20/SUM($R$21:$R$23)*R21</f>
+        <v>0.17709937036877885</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I21)</f>
-        <v>427.43174078754384</v>
+        <v>53.76499884120048</v>
       </c>
       <c r="O21" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I21)</f>
-        <v>256.45904447252627</v>
+        <v>32.258999304720291</v>
       </c>
       <c r="P21" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I21,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>427.43174078754384</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I21,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>0</v>
+        <v>53.76499884120048</v>
       </c>
       <c r="R21" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I21)</f>
-        <v>159.018</v>
+        <v>20</v>
       </c>
       <c r="S21" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I21,  TYNDP2024!$B:$B,S$4)</f>
-        <v>159.018</v>
+        <v>0</v>
       </c>
       <c r="T21" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I21,  TYNDP2024!$B:$B,T$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="55">
-        <f>AVERAGE(N21,R21)</f>
-        <v>293.22487039377194</v>
-      </c>
-      <c r="V21" s="55">
-        <f t="shared" ref="V21:W22" si="30">AVERAGE(P21,S21)</f>
-        <v>293.22487039377194</v>
-      </c>
-      <c r="W21" s="55">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="U21" s="53">
+        <f t="shared" ref="U21:W23" si="31">R21</f>
+        <v>20</v>
+      </c>
+      <c r="V21" s="53">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="53">
+        <f t="shared" si="31"/>
+        <v>20</v>
       </c>
       <c r="X21" s="46">
-        <f t="shared" si="11"/>
-        <v>439.84170400769796</v>
+        <f t="shared" si="27"/>
+        <v>30.000300003000028</v>
       </c>
       <c r="Y21" s="46">
-        <f t="shared" si="6"/>
-        <v>439.84170400769796</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="Z21" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>30.000300003000028</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>25</v>
+      <c r="B22" s="44" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="56">
-        <f t="shared" si="8"/>
-        <v>0.35857572588601622</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="D22" s="56">
-        <f t="shared" si="9"/>
-        <v>4.2281044644683491E-2</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="56">
-        <f t="shared" si="10"/>
-        <v>0.11690924866426063</v>
+        <f t="shared" si="26"/>
+        <v>0.67388736444092534</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J22" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I22)</f>
-        <v>1.5351418681318685</v>
+        <v>0</v>
       </c>
       <c r="K22" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I22) / 10^3 * 1.5</f>
-        <v>0.18101448920454549</v>
-      </c>
-      <c r="L22" s="52">
-        <f>AVERAGE(J22:K22)</f>
-        <v>0.85807817866820701</v>
+        <v>0</v>
+      </c>
+      <c r="L22" s="49">
+        <f>$K$20/SUM($R$21:$R$23)*R22</f>
+        <v>1.7267188610955937</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I22)</f>
-        <v>814.53973244418739</v>
+        <v>524.20873870170476</v>
       </c>
       <c r="O22" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I22)</f>
-        <v>488.7238394665124</v>
+        <v>314.52524322102283</v>
       </c>
       <c r="P22" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I22,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>451.62599026608405</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I22,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>362.91374217810329</v>
+        <v>524.20873870170476</v>
       </c>
       <c r="R22" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I22)</f>
-        <v>302.60199999999998</v>
+        <v>195</v>
       </c>
       <c r="S22" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I22,  TYNDP2024!$B:$B,S$4)</f>
-        <v>167.65</v>
+        <v>0</v>
       </c>
       <c r="T22" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I22,  TYNDP2024!$B:$B,T$4)</f>
-        <v>134.952</v>
-      </c>
-      <c r="U22" s="55">
-        <f>AVERAGE(N22,R22)</f>
-        <v>558.57086622209363</v>
-      </c>
-      <c r="V22" s="55">
-        <f t="shared" si="30"/>
-        <v>309.63799513304201</v>
-      </c>
-      <c r="W22" s="55">
-        <f t="shared" si="30"/>
-        <v>248.93287108905164</v>
+        <v>195</v>
+      </c>
+      <c r="U22" s="53">
+        <f t="shared" si="31"/>
+        <v>195</v>
+      </c>
+      <c r="V22" s="53">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="53">
+        <f t="shared" si="31"/>
+        <v>195</v>
       </c>
       <c r="X22" s="46">
-        <f t="shared" si="11"/>
-        <v>837.8646779799202</v>
+        <f t="shared" si="27"/>
+        <v>292.50292502925026</v>
       </c>
       <c r="Y22" s="46">
-        <f t="shared" si="6"/>
-        <v>464.46163731593617</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="Z22" s="46">
-        <f t="shared" si="7"/>
-        <v>373.40304066398409</v>
+        <f t="shared" si="27"/>
+        <v>292.50292502925026</v>
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="56" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="56" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>22</v>
+      </c>
+      <c r="C23" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="E23" s="56"/>
-      <c r="F23" s="56" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
-      </c>
-      <c r="I23" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="49"/>
+      <c r="F23" s="56">
+        <f t="shared" si="26"/>
+        <v>0.67388736444092534</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="49">
+        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I23)</f>
+        <v>0</v>
+      </c>
       <c r="K23" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I23) / 10^3 * 1.5</f>
-        <v>7.9047771613635849</v>
-      </c>
-      <c r="L23" s="49"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="49">
+        <f>$K$20/SUM($R$21:$R$23)*R23</f>
+        <v>0.44274842592194713</v>
+      </c>
       <c r="M23" s="40"/>
       <c r="N23" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I23)</f>
-        <v>0</v>
+        <v>134.41249710300121</v>
       </c>
       <c r="O23" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I23)</f>
-        <v>0</v>
+        <v>80.64749826180072</v>
       </c>
       <c r="P23" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I23,     'H2Heavy, capacities'!$B:$B, P$4)</f>
@@ -5790,11 +5848,11 @@
       </c>
       <c r="Q23" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I23,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>0</v>
+        <v>134.41249710300121</v>
       </c>
       <c r="R23" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I23)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S23" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I23,  TYNDP2024!$B:$B,S$4)</f>
@@ -5802,146 +5860,157 @@
       </c>
       <c r="T23" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I23,  TYNDP2024!$B:$B,T$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="Y23" s="46" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="Z23" s="46" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+        <v>50</v>
+      </c>
+      <c r="U23" s="53">
+        <f t="shared" si="31"/>
+        <v>50</v>
+      </c>
+      <c r="V23" s="53">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="53">
+        <f t="shared" si="31"/>
+        <v>50</v>
+      </c>
+      <c r="X23" s="46">
+        <f t="shared" si="27"/>
+        <v>75.000750007500073</v>
+      </c>
+      <c r="Y23" s="46">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="46">
+        <f t="shared" si="27"/>
+        <v>75.000750007500073</v>
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="56" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="56" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>13</v>
+      </c>
+      <c r="C24" s="56">
+        <f t="shared" si="21"/>
+        <v>0.25966534561024712</v>
+      </c>
+      <c r="D24" s="56">
+        <f t="shared" si="22"/>
+        <v>0.33129856558426174</v>
       </c>
       <c r="E24" s="56"/>
-      <c r="F24" s="56" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="F24" s="56">
+        <f t="shared" si="23"/>
+        <v>0.31459092076569517</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" s="49"/>
+        <v>13</v>
+      </c>
+      <c r="J24" s="49">
+        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I24)</f>
+        <v>25.172503763736266</v>
+      </c>
       <c r="K24" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I24) / 10^3 * 1.5</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="49" t="s">
-        <v>119</v>
+        <v>32.116778500000002</v>
+      </c>
+      <c r="L24" s="50">
+        <f>K24</f>
+        <v>32.116778500000002</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I24)</f>
-        <v>0</v>
+        <v>18444.082852473824</v>
       </c>
       <c r="O24" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I24)</f>
-        <v>0</v>
+        <v>11066.449711484296</v>
       </c>
       <c r="P24" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I24,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>0</v>
+        <v>5868.4496235170318</v>
       </c>
       <c r="Q24" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I24,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>0</v>
+        <v>12575.633228956791</v>
       </c>
       <c r="R24" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I24)</f>
-        <v>0</v>
+        <v>7769.375</v>
       </c>
       <c r="S24" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I24,  TYNDP2024!$B:$B,S$4)</f>
-        <v>0</v>
+        <v>2155.0540000000001</v>
       </c>
       <c r="T24" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I24,  TYNDP2024!$B:$B,T$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="V24" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="W24" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="X24" s="46" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="Y24" s="46" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="Z24" s="46" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+        <v>5614.3209999999999</v>
+      </c>
+      <c r="U24" s="53">
+        <f>R24</f>
+        <v>7769.375</v>
+      </c>
+      <c r="V24" s="53">
+        <f t="shared" ref="V24" si="32">S24</f>
+        <v>2155.0540000000001</v>
+      </c>
+      <c r="W24" s="53">
+        <f t="shared" ref="W24" si="33">T24</f>
+        <v>5614.3209999999999</v>
+      </c>
+      <c r="X24" s="46">
+        <f t="shared" si="24"/>
+        <v>11654.179041790418</v>
+      </c>
+      <c r="Y24" s="46">
+        <f t="shared" si="15"/>
+        <v>3232.6133261332611</v>
+      </c>
+      <c r="Z24" s="46">
+        <f t="shared" si="16"/>
+        <v>8421.565715657156</v>
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="56">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="56">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="B25" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="56" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="56" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
-      <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="49">
-        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I25)</f>
-        <v>0</v>
-      </c>
+      <c r="I25" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="49"/>
       <c r="K25" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I25) / 10^3 * 1.5</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="49" t="s">
-        <v>119</v>
-      </c>
+        <v>12.243905113636341</v>
+      </c>
+      <c r="L25" s="49"/>
       <c r="M25" s="40"/>
       <c r="N25" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I25)</f>
-        <v>18.817749594420167</v>
+        <v>0</v>
       </c>
       <c r="O25" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I25)</f>
-        <v>11.290649756652103</v>
+        <v>0</v>
       </c>
       <c r="P25" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I25,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>18.817749594420167</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I25,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
@@ -5949,76 +6018,76 @@
       </c>
       <c r="R25" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I25)</f>
-        <v>7.26</v>
+        <v>0</v>
       </c>
       <c r="S25" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I25,  TYNDP2024!$B:$B,S$4)</f>
-        <v>7.26</v>
+        <v>0</v>
       </c>
       <c r="T25" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I25,  TYNDP2024!$B:$B,T$4)</f>
         <v>0</v>
       </c>
-      <c r="U25" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="V25" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="W25" s="46" t="s">
-        <v>119</v>
-      </c>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
       <c r="X25" s="46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="Y25" s="46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="Z25" s="46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="56" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="56" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>26</v>
+      </c>
+      <c r="C26" s="56">
+        <f t="shared" si="21"/>
+        <v>0.40555118147305402</v>
+      </c>
+      <c r="D26" s="56">
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="E26" s="56"/>
-      <c r="F26" s="56" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="49"/>
+      <c r="F26" s="56">
+        <f t="shared" si="23"/>
+        <v>0.16221885038449577</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="49">
+        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I26)</f>
+        <v>1.1403121428571428</v>
+      </c>
       <c r="K26" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I26) / 10^3 * 1.5</f>
-        <v>2.3465666573863198</v>
-      </c>
-      <c r="L26" s="49"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="51">
+        <f t="shared" ref="L26:L29" si="34">J26</f>
+        <v>1.1403121428571428</v>
+      </c>
       <c r="M26" s="40"/>
       <c r="N26" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I26)</f>
-        <v>0</v>
+        <v>534.96173846994475</v>
       </c>
       <c r="O26" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I26)</f>
-        <v>0</v>
+        <v>320.97704308196688</v>
       </c>
       <c r="P26" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I26,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>0</v>
+        <v>534.96173846994475</v>
       </c>
       <c r="Q26" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I26,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
@@ -6026,294 +6095,390 @@
       </c>
       <c r="R26" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I26)</f>
-        <v>0</v>
+        <v>198.7</v>
       </c>
       <c r="S26" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I26,  TYNDP2024!$B:$B,S$4)</f>
-        <v>0</v>
+        <v>198.7</v>
       </c>
       <c r="T26" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I26,  TYNDP2024!$B:$B,T$4)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="Y26" s="46" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="Z26" s="46" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="U26" s="54">
+        <f t="shared" ref="U26:U29" si="35">N26</f>
+        <v>534.96173846994475</v>
+      </c>
+      <c r="V26" s="54">
+        <f t="shared" ref="V26:V29" si="36">P26</f>
+        <v>534.96173846994475</v>
+      </c>
+      <c r="W26" s="54">
+        <f t="shared" ref="W26:W29" si="37">Q26</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="46">
+        <f t="shared" si="24"/>
+        <v>802.45063221123917</v>
+      </c>
+      <c r="Y26" s="46">
+        <f t="shared" si="15"/>
+        <v>802.45063221123917</v>
+      </c>
+      <c r="Z26" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>21</v>
+      <c r="B27" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="C27" s="56">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.48494855378196877</v>
       </c>
       <c r="D27" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56">
-        <f t="shared" si="10"/>
-        <v>0.67388736444092534</v>
+        <f t="shared" si="23"/>
+        <v>0.1939774817185724</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J27" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I27)</f>
-        <v>0</v>
+        <v>5.0979269230769226</v>
       </c>
       <c r="K27" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I27) / 10^3 * 1.5</f>
         <v>0</v>
       </c>
-      <c r="L27" s="49">
-        <f>$K$26/SUM($R$27:$R$29)*R27</f>
-        <v>0.17709937036877885</v>
+      <c r="L27" s="51">
+        <f t="shared" si="34"/>
+        <v>5.0979269230769226</v>
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I27)</f>
-        <v>53.76499884120048</v>
+        <v>2000.0579568926578</v>
       </c>
       <c r="O27" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I27)</f>
-        <v>32.258999304720291</v>
+        <v>1200.0347741355947</v>
       </c>
       <c r="P27" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I27,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>0</v>
+        <v>2000.0579568926578</v>
       </c>
       <c r="Q27" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I27,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>53.76499884120048</v>
+        <v>0</v>
       </c>
       <c r="R27" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I27)</f>
-        <v>20</v>
+        <v>743.57</v>
       </c>
       <c r="S27" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I27,  TYNDP2024!$B:$B,S$4)</f>
-        <v>0</v>
+        <v>743.57</v>
       </c>
       <c r="T27" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I27,  TYNDP2024!$B:$B,T$4)</f>
-        <v>20</v>
-      </c>
-      <c r="U27" s="53">
-        <f t="shared" ref="U27:W29" si="31">R27</f>
-        <v>20</v>
-      </c>
-      <c r="V27" s="53">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="53">
-        <f t="shared" si="31"/>
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="U27" s="54">
+        <f t="shared" si="35"/>
+        <v>2000.0579568926578</v>
+      </c>
+      <c r="V27" s="54">
+        <f t="shared" si="36"/>
+        <v>2000.0579568926578</v>
+      </c>
+      <c r="W27" s="54">
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="X27" s="46">
-        <f t="shared" si="11"/>
-        <v>30.000300003000028</v>
+        <f t="shared" si="24"/>
+        <v>3000.1169365083515</v>
       </c>
       <c r="Y27" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>3000.1169365083515</v>
       </c>
       <c r="Z27" s="46">
-        <f t="shared" si="7"/>
-        <v>30.000300003000028</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>27</v>
+      <c r="B28" s="44" t="s">
+        <v>17</v>
       </c>
       <c r="C28" s="56">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.63416659197298786</v>
       </c>
       <c r="D28" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56">
-        <f t="shared" si="10"/>
-        <v>0.67388736444092534</v>
+        <f t="shared" si="23"/>
+        <v>0.25366410012282725</v>
       </c>
       <c r="I28" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J28" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I28)</f>
-        <v>0</v>
+        <v>22.884912390109893</v>
       </c>
       <c r="K28" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I28) / 10^3 * 1.5</f>
         <v>0</v>
       </c>
-      <c r="L28" s="49">
-        <f>$K$26/SUM($R$27:$R$29)*R28</f>
-        <v>1.7267188610955937</v>
+      <c r="L28" s="51">
+        <f t="shared" si="34"/>
+        <v>22.884912390109893</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I28)</f>
-        <v>524.20873870170476</v>
+        <v>6865.7903520213013</v>
       </c>
       <c r="O28" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I28)</f>
-        <v>314.52524322102283</v>
+        <v>4119.4742112127806</v>
       </c>
       <c r="P28" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I28,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>0</v>
+        <v>6865.7903520213013</v>
       </c>
       <c r="Q28" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I28,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>524.20873870170476</v>
+        <v>0</v>
       </c>
       <c r="R28" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I28)</f>
-        <v>195</v>
+        <v>2818.0549999999998</v>
       </c>
       <c r="S28" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I28,  TYNDP2024!$B:$B,S$4)</f>
-        <v>0</v>
+        <v>2818.0549999999998</v>
       </c>
       <c r="T28" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I28,  TYNDP2024!$B:$B,T$4)</f>
-        <v>195</v>
-      </c>
-      <c r="U28" s="53">
-        <f t="shared" si="31"/>
-        <v>195</v>
-      </c>
-      <c r="V28" s="53">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="53">
-        <f t="shared" si="31"/>
-        <v>195</v>
+        <v>0</v>
+      </c>
+      <c r="U28" s="54">
+        <f t="shared" si="35"/>
+        <v>6865.7903520213013</v>
+      </c>
+      <c r="V28" s="54">
+        <f t="shared" si="36"/>
+        <v>6865.7903520213013</v>
+      </c>
+      <c r="W28" s="54">
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="X28" s="46">
-        <f t="shared" si="11"/>
-        <v>292.50292502925026</v>
+        <f t="shared" si="24"/>
+        <v>10298.788515917111</v>
       </c>
       <c r="Y28" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>10298.788515917111</v>
       </c>
       <c r="Z28" s="46">
-        <f t="shared" si="7"/>
-        <v>292.50292502925026</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>22</v>
+      <c r="B29" s="44" t="s">
+        <v>18</v>
       </c>
       <c r="C29" s="56">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.52876801413131469</v>
       </c>
       <c r="D29" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="56">
-        <f t="shared" si="10"/>
-        <v>0.67388736444092534</v>
+        <f t="shared" si="23"/>
+        <v>0.21150509058046937</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J29" s="49">
         <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I29)</f>
-        <v>0</v>
+        <v>5.2148953846153843</v>
       </c>
       <c r="K29" s="49">
         <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I29) / 10^3 * 1.5</f>
         <v>0</v>
       </c>
-      <c r="L29" s="49">
-        <f>$K$26/SUM($R$27:$R$29)*R29</f>
-        <v>0.44274842592194713</v>
+      <c r="L29" s="51">
+        <f t="shared" si="34"/>
+        <v>5.2148953846153843</v>
       </c>
       <c r="M29" s="40"/>
       <c r="N29" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I29)</f>
-        <v>134.41249710300121</v>
+        <v>1876.3984595578968</v>
       </c>
       <c r="O29" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I29)</f>
-        <v>80.64749826180072</v>
+        <v>1125.8390757347381</v>
       </c>
       <c r="P29" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I29,     'H2Heavy, capacities'!$B:$B, P$4)</f>
-        <v>0</v>
+        <v>1876.3984595578968</v>
       </c>
       <c r="Q29" s="46">
         <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I29,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
-        <v>134.41249710300121</v>
+        <v>0</v>
       </c>
       <c r="R29" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I29)</f>
-        <v>50</v>
+        <v>698.09</v>
       </c>
       <c r="S29" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I29,  TYNDP2024!$B:$B,S$4)</f>
-        <v>0</v>
+        <v>698.09</v>
       </c>
       <c r="T29" s="46">
         <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I29,  TYNDP2024!$B:$B,T$4)</f>
-        <v>50</v>
-      </c>
-      <c r="U29" s="53">
-        <f t="shared" si="31"/>
-        <v>50</v>
-      </c>
-      <c r="V29" s="53">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="53">
-        <f t="shared" si="31"/>
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="U29" s="54">
+        <f t="shared" si="35"/>
+        <v>1876.3984595578968</v>
+      </c>
+      <c r="V29" s="54">
+        <f t="shared" si="36"/>
+        <v>1876.3984595578968</v>
+      </c>
+      <c r="W29" s="54">
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="X29" s="46">
-        <f t="shared" si="11"/>
-        <v>75.000750007500073</v>
+        <f t="shared" si="24"/>
+        <v>2814.6258355952009</v>
       </c>
       <c r="Y29" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2814.6258355952009</v>
       </c>
       <c r="Z29" s="46">
-        <f t="shared" si="7"/>
-        <v>75.000750007500073</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Y30" s="43"/>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="56">
+        <f>J30*10^6/$O30 / 8760</f>
+        <v>0.51091063303722406</v>
+      </c>
+      <c r="D30" s="56">
+        <f>K30*10^6/$O30 / 8760</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56">
+        <f>IFERROR(L30*10^6/$X30 / 8760, "-")</f>
+        <v>0.20436220957235743</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="49">
+        <f>SUMIFS('H2Heavy, demands'!$F$2:$F$15,'H2Heavy, demands'!$A$2:$A$15,Summary!$I30)</f>
+        <v>147.36625717032967</v>
+      </c>
+      <c r="K30" s="49">
+        <f>SUMIFS(Eurostat!$P:$P,Eurostat!$M:$M,Summary!$I30) / 10^3 * 1.5</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="51">
+        <f t="shared" ref="L30" si="38">J30</f>
+        <v>147.36625717032967</v>
+      </c>
+      <c r="M30" s="40"/>
+      <c r="N30" s="46">
+        <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I30)</f>
+        <v>54877.934317213338</v>
+      </c>
+      <c r="O30" s="46">
+        <f>SUMIFS('H2Heavy, capacities'!$H:$H,'H2Heavy, capacities'!$A:$A,Summary!$I30)</f>
+        <v>32926.760590327998</v>
+      </c>
+      <c r="P30" s="46">
+        <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I30,     'H2Heavy, capacities'!$B:$B, P$4)</f>
+        <v>8207.2270731092522</v>
+      </c>
+      <c r="Q30" s="46">
+        <f>SUMIFS('H2Heavy, capacities'!$E:$E,'H2Heavy, capacities'!$A:$A,Summary!$I30,     'H2Heavy, capacities'!$B:$B, Q$4)</f>
+        <v>46670.707244104087</v>
+      </c>
+      <c r="R30" s="46">
+        <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I30)</f>
+        <v>11563.359</v>
+      </c>
+      <c r="S30" s="46">
+        <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I30,  TYNDP2024!$B:$B,S$4)</f>
+        <v>2906.1660000000002</v>
+      </c>
+      <c r="T30" s="46">
+        <f>SUMIFS(TYNDP2024!$C:$C,TYNDP2024!$A:$A,Summary!$I30,  TYNDP2024!$B:$B,T$4)</f>
+        <v>8657.1929999999993</v>
+      </c>
+      <c r="U30" s="54">
+        <f t="shared" ref="U30" si="39">N30</f>
+        <v>54877.934317213338</v>
+      </c>
+      <c r="V30" s="54">
+        <f t="shared" ref="V30" si="40">P30</f>
+        <v>8207.2270731092522</v>
+      </c>
+      <c r="W30" s="54">
+        <f t="shared" ref="W30" si="41">Q30</f>
+        <v>46670.707244104087</v>
+      </c>
+      <c r="X30" s="46">
+        <f>IF(ISNUMBER(U30), U30/(0.5+0.16666), "-")</f>
+        <v>82317.724653066529</v>
+      </c>
+      <c r="Y30" s="46">
+        <f>IF(ISNUMBER(V30), V30/(0.5+0.16666), "-")</f>
+        <v>12310.963719301071</v>
+      </c>
+      <c r="Z30" s="46">
+        <f>IF(ISNUMBER(W30), W30/(0.5+0.16666), "-")</f>
+        <v>70006.760933765472</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y31" s="43"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7448,10 +7613,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21420AE7-C1DE-45D2-B734-1504B0A55513}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="A23:D23"/>
+      <selection activeCell="A3" sqref="A3:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7461,12 +7626,12 @@
     <col min="3" max="4" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1" s="45">
         <v>2030</v>
@@ -7475,48 +7640,48 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="46">
-        <f>SUMIFS($M:$M,$I:$I,$A3,$J:$J,$B3,$L:$L,C$1)</f>
+        <f>SUMIFS($N:$N,$J:$J,$A3,$K:$K,$B3,$M:$M,C$1)</f>
         <v>760.64499999999998</v>
       </c>
       <c r="D3" s="46">
-        <f t="shared" ref="D3:D44" si="0">SUMIFS($M:$M,$I:$I,$A3,$J:$J,$B3,$L:$L,D$1)</f>
+        <f t="shared" ref="D3:D46" si="0">SUMIFS($N:$N,$J:$J,$A3,$K:$K,$B3,$M:$M,D$1)</f>
         <v>760.64499999999998</v>
       </c>
-      <c r="I3" s="65" t="s">
-        <v>0</v>
-      </c>
       <c r="J3" s="65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="M3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="N3" s="65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -7524,373 +7689,373 @@
         <v>36</v>
       </c>
       <c r="C4" s="46">
-        <f t="shared" ref="C4:C23" si="1">SUMIFS($M:$M,$I:$I,$A4,$J:$J,$B4,$L:$L,C$1)</f>
+        <f t="shared" ref="C4:C24" si="1">SUMIFS($N:$N,$J:$J,$A4,$K:$K,$B4,$M:$M,C$1)</f>
         <v>614.625</v>
       </c>
       <c r="D4" s="46">
         <f t="shared" si="0"/>
         <v>614.625</v>
       </c>
-      <c r="I4" s="66" t="s">
-        <v>107</v>
-      </c>
       <c r="J4" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="L4" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="66">
+        <v>2030</v>
+      </c>
+      <c r="N4" s="66">
+        <v>845.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>127</v>
-      </c>
-      <c r="L4" s="66">
-        <v>2030</v>
-      </c>
-      <c r="M4" s="66">
-        <v>845.24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="46">
         <f t="shared" si="1"/>
-        <v>13067.585999999999</v>
+        <v>425.88900000000001</v>
       </c>
       <c r="D5" s="46">
         <f t="shared" si="0"/>
-        <v>5835.1959999999999</v>
-      </c>
-      <c r="I5" t="s">
-        <v>107</v>
+        <v>621.351</v>
       </c>
       <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5">
+      <c r="L5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5">
         <v>2030</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>760.64499999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13067.585999999999</v>
       </c>
       <c r="D6" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="66" t="s">
+        <v>5835.1959999999999</v>
+      </c>
+      <c r="J6" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="K6" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L6" s="66">
+      <c r="L6" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="66">
         <v>2030</v>
       </c>
-      <c r="M6" s="66">
+      <c r="N6" s="66">
         <v>1594</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="46">
         <f t="shared" si="1"/>
-        <v>7.26</v>
+        <v>0</v>
       </c>
       <c r="D7" s="46">
         <f t="shared" si="0"/>
-        <v>7.26</v>
-      </c>
-      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>36</v>
       </c>
-      <c r="K7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7">
+      <c r="L7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7">
         <v>2030</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>614.625</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="46">
         <f t="shared" si="1"/>
-        <v>167.65</v>
+        <v>7.26</v>
       </c>
       <c r="D8" s="46">
         <f t="shared" si="0"/>
-        <v>134.65</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>128</v>
+        <v>7.26</v>
       </c>
       <c r="J8" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="66">
+      <c r="L8" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="66">
         <v>2030</v>
       </c>
-      <c r="M8" s="66">
+      <c r="N8" s="66">
         <v>566.59900000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="46">
         <f t="shared" si="1"/>
-        <v>1730</v>
+        <v>167.65</v>
       </c>
       <c r="D9" s="46">
         <f t="shared" si="0"/>
-        <v>1730</v>
-      </c>
-      <c r="I9" t="s">
-        <v>128</v>
+        <v>134.65</v>
       </c>
       <c r="J9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s">
         <v>36</v>
       </c>
-      <c r="K9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L9">
+      <c r="L9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9">
         <v>2030</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>425.88900000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="46">
         <f t="shared" si="1"/>
-        <v>2624.82</v>
+        <v>1730</v>
       </c>
       <c r="D10" s="46">
         <f t="shared" si="0"/>
-        <v>2624.82</v>
-      </c>
-      <c r="I10" s="66" t="s">
+        <v>1730</v>
+      </c>
+      <c r="J10" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="K10" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="66">
+      <c r="L10" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="66">
         <v>2030</v>
       </c>
-      <c r="M10" s="66">
+      <c r="N10" s="66">
         <v>7280.02</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="46">
         <f t="shared" si="1"/>
-        <v>2426</v>
+        <v>2624.82</v>
       </c>
       <c r="D11" s="46">
         <f t="shared" si="0"/>
-        <v>2451.06</v>
-      </c>
-      <c r="I11" t="s">
+        <v>2624.82</v>
+      </c>
+      <c r="J11" t="s">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>36</v>
       </c>
-      <c r="K11" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11">
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11">
         <v>2030</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>13067.585999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="46">
         <f t="shared" si="1"/>
-        <v>209.89</v>
+        <v>2426</v>
       </c>
       <c r="D12" s="46">
         <f t="shared" si="0"/>
-        <v>209.89</v>
-      </c>
-      <c r="I12" s="66" t="s">
+        <v>2451.06</v>
+      </c>
+      <c r="J12" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="K12" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" s="66">
+      <c r="L12" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="66">
         <v>2030</v>
       </c>
-      <c r="M12" s="66">
+      <c r="N12" s="66">
         <v>7.26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="46">
         <f t="shared" si="1"/>
-        <v>159.018</v>
+        <v>209.89</v>
       </c>
       <c r="D13" s="46">
         <f t="shared" si="0"/>
-        <v>299.92700000000002</v>
-      </c>
-      <c r="I13" t="s">
+        <v>209.89</v>
+      </c>
+      <c r="J13" t="s">
         <v>25</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="K13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13">
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13">
         <v>2030</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>134.952</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="46">
         <f t="shared" si="1"/>
-        <v>415</v>
+        <v>159.018</v>
       </c>
       <c r="D14" s="46">
         <f t="shared" si="0"/>
-        <v>208.6</v>
-      </c>
-      <c r="I14" s="66" t="s">
+        <v>299.92700000000002</v>
+      </c>
+      <c r="J14" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="K14" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" s="66">
+      <c r="L14" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="66">
         <v>2030</v>
       </c>
-      <c r="M14" s="66">
+      <c r="N14" s="66">
         <v>167.65</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="D15" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
+        <v>208.6</v>
+      </c>
+      <c r="J15" t="s">
         <v>12</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>35</v>
       </c>
-      <c r="K15" t="s">
-        <v>127</v>
-      </c>
-      <c r="L15">
+      <c r="L15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15">
         <v>2030</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3980.011</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -7903,25 +8068,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="J16" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="66" t="s">
+      <c r="K16" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L16" s="66">
+      <c r="L16" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="66">
         <v>2030</v>
       </c>
-      <c r="M16" s="66">
+      <c r="N16" s="66">
         <v>1730</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -7934,769 +8099,769 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>20</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
-        <v>127</v>
-      </c>
-      <c r="L17">
+      <c r="L17" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17">
         <v>2030</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>390.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="46">
         <f t="shared" si="1"/>
-        <v>2155.0540000000001</v>
+        <v>0</v>
       </c>
       <c r="D18" s="46">
         <f t="shared" si="0"/>
-        <v>1969.3689999999999</v>
-      </c>
-      <c r="I18" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="66" t="s">
+      <c r="K18" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" s="66">
+      <c r="L18" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" s="66">
         <v>2030</v>
       </c>
-      <c r="M18" s="66">
+      <c r="N18" s="66">
         <v>2624.82</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="46">
         <f t="shared" si="1"/>
-        <v>198.7</v>
+        <v>2155.0540000000001</v>
       </c>
       <c r="D19" s="46">
         <f t="shared" si="0"/>
-        <v>198.7</v>
-      </c>
-      <c r="I19" t="s">
+        <v>1969.3689999999999</v>
+      </c>
+      <c r="J19" t="s">
         <v>10</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>35</v>
       </c>
-      <c r="K19" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19">
+      <c r="L19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19">
         <v>2030</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>4400</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="46">
         <f t="shared" si="1"/>
-        <v>743.57</v>
+        <v>198.7</v>
       </c>
       <c r="D20" s="46">
         <f t="shared" si="0"/>
-        <v>743.57</v>
-      </c>
-      <c r="I20" s="66" t="s">
+        <v>198.7</v>
+      </c>
+      <c r="J20" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="66" t="s">
+      <c r="K20" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="66">
+      <c r="L20" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="66">
         <v>2030</v>
       </c>
-      <c r="M20" s="66">
+      <c r="N20" s="66">
         <v>2426</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="46">
         <f t="shared" si="1"/>
-        <v>2818.0549999999998</v>
+        <v>743.57</v>
       </c>
       <c r="D21" s="46">
         <f t="shared" si="0"/>
-        <v>2554.0549999999998</v>
-      </c>
-      <c r="I21" t="s">
+        <v>743.57</v>
+      </c>
+      <c r="J21" t="s">
         <v>23</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>35</v>
       </c>
-      <c r="K21" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21">
+      <c r="L21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21">
         <v>2030</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>106.89</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="46">
         <f t="shared" si="1"/>
-        <v>698.09</v>
+        <v>2818.0549999999998</v>
       </c>
       <c r="D22" s="46">
         <f t="shared" si="0"/>
-        <v>698.09</v>
-      </c>
-      <c r="I22" s="66" t="s">
+        <v>2554.0549999999998</v>
+      </c>
+      <c r="J22" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="K22" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="66">
+      <c r="L22" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" s="66">
         <v>2030</v>
       </c>
-      <c r="M22" s="66">
+      <c r="N22" s="66">
         <v>209.89</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="46">
         <f t="shared" si="1"/>
-        <v>2906.1660000000002</v>
+        <v>698.09</v>
       </c>
       <c r="D23" s="46">
         <f t="shared" si="0"/>
-        <v>8155.7269999999999</v>
-      </c>
-      <c r="I23" t="s">
+        <v>698.09</v>
+      </c>
+      <c r="J23" t="s">
         <v>24</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>36</v>
       </c>
-      <c r="K23" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23">
+      <c r="L23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23">
         <v>2030</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>159.018</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="46">
-        <f t="shared" ref="C24:C44" si="2">SUMIFS($M:$M,$I:$I,$A24,$J:$J,$B24,$L:$L,C$1)</f>
-        <v>845.24</v>
+        <f t="shared" si="1"/>
+        <v>2906.1660000000002</v>
       </c>
       <c r="D24" s="46">
         <f t="shared" si="0"/>
-        <v>845.24</v>
-      </c>
-      <c r="I24" s="66" t="s">
+        <v>8155.7269999999999</v>
+      </c>
+      <c r="J24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="66" t="s">
+      <c r="K24" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24" s="66">
+      <c r="L24" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24" s="66">
         <v>2030</v>
       </c>
-      <c r="M24" s="66">
+      <c r="N24" s="66">
         <v>4381.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="46">
+        <f t="shared" ref="C25:C46" si="2">SUMIFS($N:$N,$J:$J,$A25,$K:$K,$B25,$M:$M,C$1)</f>
+        <v>845.24</v>
+      </c>
+      <c r="D25" s="46">
+        <f t="shared" si="0"/>
+        <v>845.24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25">
+        <v>2030</v>
+      </c>
+      <c r="N25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="46">
         <f t="shared" si="2"/>
         <v>1594</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D26" s="46">
         <f t="shared" si="0"/>
         <v>1594</v>
       </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J26" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="66">
+        <v>2030</v>
+      </c>
+      <c r="N26" s="66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>127</v>
       </c>
-      <c r="L25">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="46">
+        <f t="shared" si="2"/>
+        <v>566.59900000000005</v>
+      </c>
+      <c r="D27" s="46">
+        <f t="shared" si="0"/>
+        <v>440.44200000000001</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" t="s">
+        <v>126</v>
+      </c>
+      <c r="M27">
         <v>2030</v>
       </c>
-      <c r="M25">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="N27">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C28" s="46">
         <f t="shared" si="2"/>
         <v>7280.02</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D28" s="46">
         <f t="shared" si="0"/>
         <v>2340.1</v>
       </c>
-      <c r="I26" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="66" t="s">
+      <c r="J28" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" s="66">
+      <c r="L28" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M28" s="66">
         <v>2030</v>
       </c>
-      <c r="M26" s="66">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" t="s">
-        <v>127</v>
-      </c>
-      <c r="L27">
-        <v>2030</v>
-      </c>
-      <c r="M27">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L28" s="66">
-        <v>2030</v>
-      </c>
-      <c r="M28" s="66">
+      <c r="N28" s="66">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="46">
         <f t="shared" si="2"/>
-        <v>134.952</v>
+        <v>0</v>
       </c>
       <c r="D29" s="46">
         <f t="shared" si="0"/>
-        <v>134.952</v>
-      </c>
-      <c r="I29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
         <v>13</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>35</v>
       </c>
-      <c r="K29" t="s">
-        <v>127</v>
-      </c>
-      <c r="L29">
+      <c r="L29" t="s">
+        <v>126</v>
+      </c>
+      <c r="M29">
         <v>2030</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>5614.3209999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="46">
         <f t="shared" si="2"/>
-        <v>3980.011</v>
+        <v>0</v>
       </c>
       <c r="D30" s="46">
         <f t="shared" si="0"/>
-        <v>3980.011</v>
-      </c>
-      <c r="I30" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="66" t="s">
+      <c r="K30" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K30" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L30" s="66">
+      <c r="L30" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="66">
         <v>2030</v>
       </c>
-      <c r="M30" s="66">
+      <c r="N30" s="66">
         <v>2155.0540000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="46">
         <f t="shared" si="2"/>
-        <v>390.5</v>
+        <v>134.952</v>
       </c>
       <c r="D31" s="46">
         <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="I31" t="s">
+        <v>134.952</v>
+      </c>
+      <c r="J31" t="s">
         <v>26</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>36</v>
       </c>
-      <c r="K31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31">
+      <c r="L31" t="s">
+        <v>126</v>
+      </c>
+      <c r="M31">
         <v>2030</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>198.7</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="46">
         <f t="shared" si="2"/>
-        <v>4400</v>
+        <v>3980.011</v>
       </c>
       <c r="D32" s="46">
         <f t="shared" si="0"/>
-        <v>600.04</v>
-      </c>
-      <c r="I32" s="66" t="s">
+        <v>3980.011</v>
+      </c>
+      <c r="J32" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="66" t="s">
+      <c r="K32" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L32" s="66">
+      <c r="L32" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" s="66">
         <v>2030</v>
       </c>
-      <c r="M32" s="66">
+      <c r="N32" s="66">
         <v>743.57</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="46">
         <f t="shared" si="2"/>
-        <v>106.89</v>
+        <v>390.5</v>
       </c>
       <c r="D33" s="46">
         <f t="shared" si="0"/>
-        <v>106.89</v>
-      </c>
-      <c r="I33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" t="s">
         <v>17</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>36</v>
       </c>
-      <c r="K33" t="s">
-        <v>127</v>
-      </c>
-      <c r="L33">
+      <c r="L33" t="s">
+        <v>126</v>
+      </c>
+      <c r="M33">
         <v>2030</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>2818.0549999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="D34" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="66" t="s">
+        <v>600.04</v>
+      </c>
+      <c r="J34" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="66" t="s">
+      <c r="K34" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K34" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L34" s="66">
+      <c r="L34" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M34" s="66">
         <v>2030</v>
       </c>
-      <c r="M34" s="66">
+      <c r="N34" s="66">
         <v>698.09</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="46">
         <f t="shared" si="2"/>
-        <v>4381.5</v>
+        <v>106.89</v>
       </c>
       <c r="D35" s="46">
         <f t="shared" si="0"/>
-        <v>1722.5</v>
-      </c>
-      <c r="I35" t="s">
+        <v>106.89</v>
+      </c>
+      <c r="J35" t="s">
         <v>11</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>35</v>
       </c>
-      <c r="K35" t="s">
-        <v>127</v>
-      </c>
-      <c r="L35">
+      <c r="L35" t="s">
+        <v>126</v>
+      </c>
+      <c r="M35">
         <v>2030</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>8657.1929999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="46">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D36" s="46">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I36" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="66" t="s">
+      <c r="K36" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K36" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L36" s="66">
+      <c r="L36" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M36" s="66">
         <v>2030</v>
       </c>
-      <c r="M36" s="66">
+      <c r="N36" s="66">
         <v>2906.1660000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="46">
         <f t="shared" si="2"/>
-        <v>195</v>
+        <v>4381.5</v>
       </c>
       <c r="D37" s="46">
         <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="I37" t="s">
-        <v>107</v>
+        <v>1722.5</v>
       </c>
       <c r="J37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" t="s">
         <v>35</v>
       </c>
-      <c r="K37" t="s">
-        <v>127</v>
-      </c>
-      <c r="L37">
+      <c r="L37" t="s">
+        <v>126</v>
+      </c>
+      <c r="M37">
         <v>2040</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>845.24</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="46">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D38" s="46">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="I38" s="66" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="J38" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L38" s="66">
+      <c r="L38" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M38" s="66">
         <v>2040</v>
       </c>
-      <c r="M38" s="66">
+      <c r="N38" s="66">
         <v>760.64499999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="46">
         <f t="shared" si="2"/>
-        <v>5614.3209999999999</v>
+        <v>195</v>
       </c>
       <c r="D39" s="46">
         <f t="shared" si="0"/>
-        <v>4402.0529999999999</v>
-      </c>
-      <c r="I39" t="s">
+        <v>195</v>
+      </c>
+      <c r="J39" t="s">
         <v>15</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>35</v>
       </c>
-      <c r="K39" t="s">
-        <v>127</v>
-      </c>
-      <c r="L39">
+      <c r="L39" t="s">
+        <v>126</v>
+      </c>
+      <c r="M39">
         <v>2040</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>1594</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D40" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="66" t="s">
+      <c r="K40" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K40" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L40" s="66">
+      <c r="L40" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M40" s="66">
         <v>2040</v>
       </c>
-      <c r="M40" s="66">
+      <c r="N40" s="66">
         <v>614.625</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5614.3209999999999</v>
       </c>
       <c r="D41" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>128</v>
+        <v>4402.0529999999999</v>
       </c>
       <c r="J41" t="s">
+        <v>127</v>
+      </c>
+      <c r="K41" t="s">
         <v>35</v>
       </c>
-      <c r="K41" t="s">
-        <v>127</v>
-      </c>
-      <c r="L41">
+      <c r="L41" t="s">
+        <v>126</v>
+      </c>
+      <c r="M41">
         <v>2040</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>440.44200000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -8709,25 +8874,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="66" t="s">
-        <v>128</v>
-      </c>
       <c r="J42" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K42" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L42" s="66">
+      <c r="L42" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M42" s="66">
         <v>2040</v>
       </c>
-      <c r="M42" s="66">
+      <c r="N42" s="66">
         <v>621.351</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -8740,475 +8905,503 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>9</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>35</v>
       </c>
-      <c r="K43" t="s">
-        <v>127</v>
-      </c>
-      <c r="L43">
+      <c r="L43" t="s">
+        <v>126</v>
+      </c>
+      <c r="M43">
         <v>2040</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>2340.1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="46">
         <f t="shared" si="2"/>
-        <v>8657.1929999999993</v>
+        <v>0</v>
       </c>
       <c r="D44" s="46">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M44" s="66">
+        <v>2040</v>
+      </c>
+      <c r="N44" s="66">
+        <v>5835.1959999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" t="s">
+        <v>126</v>
+      </c>
+      <c r="M45">
+        <v>2040</v>
+      </c>
+      <c r="N45">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="46">
+        <f t="shared" si="2"/>
+        <v>8657.1929999999993</v>
+      </c>
+      <c r="D46" s="46">
+        <f t="shared" si="0"/>
         <v>26148.173999999999</v>
       </c>
-      <c r="I44" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" s="66" t="s">
+      <c r="J46" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M46" s="66">
+        <v>2040</v>
+      </c>
+      <c r="N46" s="66">
+        <v>134.952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
         <v>36</v>
       </c>
-      <c r="K44" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L44" s="66">
+      <c r="L47" t="s">
+        <v>126</v>
+      </c>
+      <c r="M47">
         <v>2040</v>
       </c>
-      <c r="M44" s="66">
-        <v>5835.1959999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="N47">
+        <v>134.65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J48" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M48" s="66">
+        <v>2040</v>
+      </c>
+      <c r="N48" s="66">
+        <v>3980.011</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" t="s">
         <v>36</v>
       </c>
-      <c r="K45" t="s">
-        <v>127</v>
-      </c>
-      <c r="L45">
+      <c r="L49" t="s">
+        <v>126</v>
+      </c>
+      <c r="M49">
         <v>2040</v>
       </c>
-      <c r="M45">
-        <v>7.26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I46" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="J46" s="66" t="s">
+      <c r="N49">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J50" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L46" s="66">
+      <c r="L50" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M50" s="66">
         <v>2040</v>
       </c>
-      <c r="M46" s="66">
-        <v>134.952</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I47" t="s">
-        <v>25</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="N50" s="66">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s">
         <v>36</v>
       </c>
-      <c r="K47" t="s">
-        <v>127</v>
-      </c>
-      <c r="L47">
+      <c r="L51" t="s">
+        <v>126</v>
+      </c>
+      <c r="M51">
         <v>2040</v>
       </c>
-      <c r="M47">
-        <v>134.65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I48" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="66" t="s">
+      <c r="N51">
+        <v>2624.82</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J52" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K48" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L48" s="66">
+      <c r="L52" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M52" s="66">
         <v>2040</v>
       </c>
-      <c r="M48" s="66">
-        <v>3980.011</v>
-      </c>
-    </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="N52" s="66">
+        <v>600.04</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" t="s">
         <v>36</v>
       </c>
-      <c r="K49" t="s">
-        <v>127</v>
-      </c>
-      <c r="L49">
+      <c r="L53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M53">
         <v>2040</v>
       </c>
-      <c r="M49">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I50" s="66" t="s">
+      <c r="N53">
+        <v>2451.06</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J54" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M54" s="66">
+        <v>2040</v>
+      </c>
+      <c r="N54" s="66">
+        <v>106.89</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" t="s">
+        <v>126</v>
+      </c>
+      <c r="M55">
+        <v>2040</v>
+      </c>
+      <c r="N55">
+        <v>209.89</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J56" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M56" s="66">
+        <v>2040</v>
+      </c>
+      <c r="N56" s="66">
+        <v>299.92700000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" t="s">
+        <v>126</v>
+      </c>
+      <c r="M57">
+        <v>2040</v>
+      </c>
+      <c r="N57">
+        <v>1722.5</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J58" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M58" s="66">
+        <v>2040</v>
+      </c>
+      <c r="N58" s="66">
+        <v>208.6</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" t="s">
+        <v>126</v>
+      </c>
+      <c r="M59">
+        <v>2040</v>
+      </c>
+      <c r="N59">
         <v>20</v>
       </c>
-      <c r="J50" s="66" t="s">
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J60" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K50" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L50" s="66">
+      <c r="L60" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M60" s="66">
         <v>2040</v>
       </c>
-      <c r="M50" s="66">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I51" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="N60" s="66">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" t="s">
+        <v>35</v>
+      </c>
+      <c r="L61" t="s">
+        <v>126</v>
+      </c>
+      <c r="M61">
+        <v>2040</v>
+      </c>
+      <c r="N61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J62" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L62" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M62" s="66">
+        <v>2040</v>
+      </c>
+      <c r="N62" s="66">
+        <v>4402.0529999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" t="s">
         <v>36</v>
       </c>
-      <c r="K51" t="s">
-        <v>127</v>
-      </c>
-      <c r="L51">
+      <c r="L63" t="s">
+        <v>126</v>
+      </c>
+      <c r="M63">
         <v>2040</v>
       </c>
-      <c r="M51">
-        <v>2624.82</v>
-      </c>
-    </row>
-    <row r="52" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I52" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" s="66" t="s">
+      <c r="N63">
+        <v>1969.3689999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J64" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M64" s="66">
+        <v>2040</v>
+      </c>
+      <c r="N64" s="66">
+        <v>198.7</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" t="s">
+        <v>126</v>
+      </c>
+      <c r="M65">
+        <v>2040</v>
+      </c>
+      <c r="N65">
+        <v>743.57</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J66" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="L66" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M66" s="66">
+        <v>2040</v>
+      </c>
+      <c r="N66" s="66">
+        <v>2554.0549999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" t="s">
+        <v>126</v>
+      </c>
+      <c r="M67">
+        <v>2040</v>
+      </c>
+      <c r="N67">
+        <v>698.09</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J68" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K52" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L52" s="66">
+      <c r="L68" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M68" s="66">
         <v>2040</v>
       </c>
-      <c r="M52" s="66">
-        <v>600.04</v>
-      </c>
-    </row>
-    <row r="53" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I53" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="N68" s="66">
+        <v>26148.173999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J69" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="K53" t="s">
-        <v>127</v>
-      </c>
-      <c r="L53">
+      <c r="L69" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="M69" s="64">
         <v>2040</v>
       </c>
-      <c r="M53">
-        <v>2451.06</v>
-      </c>
-    </row>
-    <row r="54" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I54" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="K54" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L54" s="66">
-        <v>2040</v>
-      </c>
-      <c r="M54" s="66">
-        <v>106.89</v>
-      </c>
-    </row>
-    <row r="55" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I55" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" t="s">
-        <v>36</v>
-      </c>
-      <c r="K55" t="s">
-        <v>127</v>
-      </c>
-      <c r="L55">
-        <v>2040</v>
-      </c>
-      <c r="M55">
-        <v>209.89</v>
-      </c>
-    </row>
-    <row r="56" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I56" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="K56" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L56" s="66">
-        <v>2040</v>
-      </c>
-      <c r="M56" s="66">
-        <v>299.92700000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" t="s">
-        <v>35</v>
-      </c>
-      <c r="K57" t="s">
-        <v>127</v>
-      </c>
-      <c r="L57">
-        <v>2040</v>
-      </c>
-      <c r="M57">
-        <v>1722.5</v>
-      </c>
-    </row>
-    <row r="58" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I58" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="K58" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L58" s="66">
-        <v>2040</v>
-      </c>
-      <c r="M58" s="66">
-        <v>208.6</v>
-      </c>
-    </row>
-    <row r="59" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I59" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" t="s">
-        <v>35</v>
-      </c>
-      <c r="K59" t="s">
-        <v>127</v>
-      </c>
-      <c r="L59">
-        <v>2040</v>
-      </c>
-      <c r="M59">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I60" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="K60" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L60" s="66">
-        <v>2040</v>
-      </c>
-      <c r="M60" s="66">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I61" t="s">
-        <v>22</v>
-      </c>
-      <c r="J61" t="s">
-        <v>35</v>
-      </c>
-      <c r="K61" t="s">
-        <v>127</v>
-      </c>
-      <c r="L61">
-        <v>2040</v>
-      </c>
-      <c r="M61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I62" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="J62" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="K62" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L62" s="66">
-        <v>2040</v>
-      </c>
-      <c r="M62" s="66">
-        <v>4402.0529999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I63" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" t="s">
-        <v>36</v>
-      </c>
-      <c r="K63" t="s">
-        <v>127</v>
-      </c>
-      <c r="L63">
-        <v>2040</v>
-      </c>
-      <c r="M63">
-        <v>1969.3689999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I64" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="J64" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="K64" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L64" s="66">
-        <v>2040</v>
-      </c>
-      <c r="M64" s="66">
-        <v>198.7</v>
-      </c>
-    </row>
-    <row r="65" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I65" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K65" t="s">
-        <v>127</v>
-      </c>
-      <c r="L65">
-        <v>2040</v>
-      </c>
-      <c r="M65">
-        <v>743.57</v>
-      </c>
-    </row>
-    <row r="66" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I66" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="K66" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L66" s="66">
-        <v>2040</v>
-      </c>
-      <c r="M66" s="66">
-        <v>2554.0549999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I67" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" t="s">
-        <v>36</v>
-      </c>
-      <c r="K67" t="s">
-        <v>127</v>
-      </c>
-      <c r="L67">
-        <v>2040</v>
-      </c>
-      <c r="M67">
-        <v>698.09</v>
-      </c>
-    </row>
-    <row r="68" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I68" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="J68" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="K68" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L68" s="66">
-        <v>2040</v>
-      </c>
-      <c r="M68" s="66">
-        <v>26148.173999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I69" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="K69" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="L69" s="64">
-        <v>2040</v>
-      </c>
-      <c r="M69" s="64">
+      <c r="N69" s="64">
         <v>8155.7269999999999</v>
       </c>
     </row>
@@ -9221,8 +9414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF1E2CA-F2CE-4C62-89A9-2315CD87B914}">
   <dimension ref="A2:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9236,17 +9429,17 @@
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -9261,10 +9454,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>42</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -9278,10 +9471,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -9308,11 +9501,11 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -9325,11 +9518,11 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -9342,11 +9535,11 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -9359,11 +9552,11 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -9376,11 +9569,11 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -9393,11 +9586,11 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -9413,7 +9606,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="37">
         <v>2014</v>
@@ -9446,7 +9639,7 @@
         <v>2023</v>
       </c>
       <c r="M16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N16" s="39">
         <v>2023</v>
@@ -9463,42 +9656,42 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="34">
         <v>199505.277</v>
@@ -9533,7 +9726,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="33">
         <v>168075.02799999999</v>
@@ -9568,7 +9761,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="36">
         <v>9510.5</v>
@@ -9622,7 +9815,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="35">
         <v>244</v>
@@ -9673,7 +9866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="36">
         <v>8267</v>
@@ -9706,7 +9899,7 @@
         <v>7211.7110000000002</v>
       </c>
       <c r="M22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N22" s="41" cm="1">
         <f t="array" ref="N22">TREND($B22:$K22,$B$16:$K$16,N$16)</f>
@@ -9727,7 +9920,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="33">
         <v>2602.2489999999998</v>
@@ -9760,7 +9953,7 @@
         <v>5425.9210000000003</v>
       </c>
       <c r="M23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N23" s="41" cm="1">
         <f t="array" ref="N23">TREND($B23:$K23,$B$16:$K$16,N$16)</f>
@@ -9781,7 +9974,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="36">
         <v>42176</v>
@@ -9835,7 +10028,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="35">
         <v>52</v>
@@ -9889,7 +10082,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="34">
         <v>2037.1969999999999</v>
@@ -9940,7 +10133,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="35">
         <v>1680</v>
@@ -9991,7 +10184,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="36">
         <v>30870</v>
@@ -10045,7 +10238,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="33">
         <v>15474.468999999999</v>
@@ -10099,7 +10292,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="36">
         <v>326</v>
@@ -10150,7 +10343,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="33">
         <v>15143.832</v>
@@ -10201,7 +10394,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="34">
         <v>78.233000000000004</v>
@@ -10252,7 +10445,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="35">
         <v>244</v>
@@ -10306,7 +10499,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="36">
         <v>690</v>
@@ -10360,7 +10553,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="33">
         <v>269.36399999999998</v>
@@ -10411,7 +10604,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="36">
         <v>592</v>
@@ -10462,7 +10655,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="35">
         <v>75</v>
@@ -10513,7 +10706,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="34">
         <v>20698.989000000001</v>
@@ -10567,7 +10760,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="33">
         <v>7321.277</v>
@@ -10600,7 +10793,7 @@
         <v>12981.643</v>
       </c>
       <c r="M39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N39" s="41" cm="1">
         <f t="array" ref="N39">TREND($B39:$K39,$B$16:$K$16,N$16)</f>
@@ -10621,7 +10814,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="36">
         <v>8383</v>
@@ -10675,7 +10868,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="33">
         <v>8435.1669999999995</v>
@@ -10726,7 +10919,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="36">
         <v>5747</v>
@@ -10777,7 +10970,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="35">
         <v>720</v>
@@ -10828,7 +11021,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="36">
         <v>2623</v>
@@ -10879,7 +11072,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="35">
         <v>9650</v>
@@ -10933,7 +11126,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="36">
         <v>5595</v>
@@ -10966,7 +11159,7 @@
         <v>7876</v>
       </c>
       <c r="M46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N46" s="41" cm="1">
         <f t="array" ref="N46">TREND($B46:$K46,$B$16:$K$16,N$16)</f>
@@ -10987,37 +11180,37 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="35">
+        <v>0</v>
+      </c>
+      <c r="C47" s="35">
+        <v>0</v>
+      </c>
+      <c r="D47" s="35">
+        <v>0</v>
+      </c>
+      <c r="E47" s="35">
+        <v>0</v>
+      </c>
+      <c r="F47" s="35">
+        <v>0</v>
+      </c>
+      <c r="G47" s="35">
+        <v>0</v>
+      </c>
+      <c r="H47" s="35">
+        <v>0</v>
+      </c>
+      <c r="I47" s="35">
+        <v>0</v>
+      </c>
+      <c r="J47" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="35">
-        <v>0</v>
-      </c>
-      <c r="C47" s="35">
-        <v>0</v>
-      </c>
-      <c r="D47" s="35">
-        <v>0</v>
-      </c>
-      <c r="E47" s="35">
-        <v>0</v>
-      </c>
-      <c r="F47" s="35">
-        <v>0</v>
-      </c>
-      <c r="G47" s="35">
-        <v>0</v>
-      </c>
-      <c r="H47" s="35">
-        <v>0</v>
-      </c>
-      <c r="I47" s="35">
-        <v>0</v>
-      </c>
-      <c r="J47" s="31" t="s">
-        <v>89</v>
-      </c>
       <c r="K47" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N47" s="41" t="e" cm="1">
         <f t="array" ref="N47">TREND($B47:$K47,$B$16:$K$16,N$16)</f>
@@ -11038,7 +11231,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="36">
         <v>0</v>
@@ -11089,7 +11282,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" s="35">
         <v>2900</v>
@@ -11122,7 +11315,7 @@
         <v>2347.1770000000001</v>
       </c>
       <c r="M49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N49" s="41" cm="1">
         <f t="array" ref="N49">TREND($B49:$K49,$B$16:$K$16,N$16)</f>
@@ -11143,7 +11336,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="36">
         <v>39057</v>
@@ -11164,16 +11357,16 @@
         <v>58189.074999999997</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J50" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N50" s="41" t="e" cm="1">
         <f t="array" ref="N50">TREND($B50:$K50,$B$16:$K$16,N$16)</f>
@@ -11194,7 +11387,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="35">
         <v>343</v>
@@ -11245,7 +11438,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" s="36">
         <v>0</v>
@@ -11296,7 +11489,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" s="35">
         <v>66</v>
@@ -11347,7 +11540,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" s="36">
         <v>1</v>
@@ -11398,7 +11591,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="35">
         <v>0</v>
@@ -11449,7 +11642,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" s="36">
         <v>0</v>
@@ -11500,7 +11693,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" s="35">
         <v>257</v>
@@ -11530,7 +11723,7 @@
         <v>449.25900000000001</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N57" s="41" t="e" cm="1">
         <f t="array" ref="N57">TREND($B57:$K57,$B$16:$K$16,N$16)</f>
@@ -11551,7 +11744,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" s="36">
         <v>17174</v>
@@ -11602,7 +11795,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" s="35">
         <v>2194</v>
@@ -11626,13 +11819,13 @@
         <v>2460.1999999999998</v>
       </c>
       <c r="I59" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J59" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K59" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N59" s="41" t="e" cm="1">
         <f t="array" ref="N59">TREND($B59:$K59,$B$16:$K$16,N$16)</f>
@@ -11653,7 +11846,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" s="36">
         <v>0</v>
@@ -11680,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K60" s="36">
         <v>0</v>
@@ -11700,26 +11893,6 @@
       <c r="Q60" s="42" t="e" cm="1">
         <f t="array" ref="Q60">(TREND($E60:$K60,$E$16:$K$16,Q$16) - TREND($E60:$K60,$E$16:$K$16,$N$16))/4 + $N60</f>
         <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B09C0C-DE72-4694-9C81-3F315378B707}">
-  <dimension ref="B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
